--- a/sales.xlsx
+++ b/sales.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="181029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
-      <color rgb="FF000000"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -31,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -39,15 +45,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -196,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,111 +425,101 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R511"/>
+  <dimension ref="A1:R510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:R507"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="11.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="6" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="16.5703125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="12.5703125" customWidth="1" min="6" max="6"/>
-    <col width="20.7109375" customWidth="1" min="11" max="11"/>
-    <col width="15.42578125" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="13.140625" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="12.42578125" bestFit="1" customWidth="1" min="17" max="17"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Pedido</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Quantidade</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Preco</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Numero_produto</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Quarter</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Mes</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Ano</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Produto</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Codigo_produto</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Estado</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Codigo Postal</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Pais</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Tamanho</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Faturamento</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Vendas</t>
         </is>
@@ -587,14 +590,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q2">
-        <f>D2*C2</f>
-        <v/>
-      </c>
-      <c r="R2">
-        <f>D2*C2</f>
-        <v/>
-      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -661,14 +658,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q3">
-        <f>D3*C3</f>
-        <v/>
-      </c>
-      <c r="R3">
-        <f>D3*C3</f>
-        <v/>
-      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -722,6 +713,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -732,14 +724,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q4">
-        <f>D4*C4</f>
-        <v/>
-      </c>
-      <c r="R4">
-        <f>D4*C4</f>
-        <v/>
-      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -806,14 +792,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q5">
-        <f>D5*C5</f>
-        <v/>
-      </c>
-      <c r="R5">
-        <f>D5*C5</f>
-        <v/>
-      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -867,6 +847,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -877,14 +858,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q6">
-        <f>D6*C6</f>
-        <v/>
-      </c>
-      <c r="R6">
-        <f>D6*C6</f>
-        <v/>
-      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -951,14 +926,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q7">
-        <f>D7*C7</f>
-        <v/>
-      </c>
-      <c r="R7">
-        <f>D7*C7</f>
-        <v/>
-      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1025,14 +994,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q8">
-        <f>D8*C8</f>
-        <v/>
-      </c>
-      <c r="R8">
-        <f>D8*C8</f>
-        <v/>
-      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1099,14 +1062,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q9">
-        <f>D9*C9</f>
-        <v/>
-      </c>
-      <c r="R9">
-        <f>D9*C9</f>
-        <v/>
-      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1173,14 +1130,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q10">
-        <f>D10*C10</f>
-        <v/>
-      </c>
-      <c r="R10">
-        <f>D10*C10</f>
-        <v/>
-      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1247,14 +1198,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q11">
-        <f>D11*C11</f>
-        <v/>
-      </c>
-      <c r="R11">
-        <f>D11*C11</f>
-        <v/>
-      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1321,14 +1266,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q12">
-        <f>D12*C12</f>
-        <v/>
-      </c>
-      <c r="R12">
-        <f>D12*C12</f>
-        <v/>
-      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1395,14 +1334,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q13">
-        <f>D13*C13</f>
-        <v/>
-      </c>
-      <c r="R13">
-        <f>D13*C13</f>
-        <v/>
-      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1469,14 +1402,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q14">
-        <f>D14*C14</f>
-        <v/>
-      </c>
-      <c r="R14">
-        <f>D14*C14</f>
-        <v/>
-      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1543,14 +1470,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q15">
-        <f>D15*C15</f>
-        <v/>
-      </c>
-      <c r="R15">
-        <f>D15*C15</f>
-        <v/>
-      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1617,14 +1538,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q16">
-        <f>D16*C16</f>
-        <v/>
-      </c>
-      <c r="R16">
-        <f>D16*C16</f>
-        <v/>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1691,14 +1606,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q17">
-        <f>D17*C17</f>
-        <v/>
-      </c>
-      <c r="R17">
-        <f>D17*C17</f>
-        <v/>
-      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1765,14 +1674,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q18">
-        <f>D18*C18</f>
-        <v/>
-      </c>
-      <c r="R18">
-        <f>D18*C18</f>
-        <v/>
-      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1839,14 +1742,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q19">
-        <f>D19*C19</f>
-        <v/>
-      </c>
-      <c r="R19">
-        <f>D19*C19</f>
-        <v/>
-      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1913,14 +1810,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q20">
-        <f>D20*C20</f>
-        <v/>
-      </c>
-      <c r="R20">
-        <f>D20*C20</f>
-        <v/>
-      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1987,14 +1878,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q21">
-        <f>D21*C21</f>
-        <v/>
-      </c>
-      <c r="R21">
-        <f>D21*C21</f>
-        <v/>
-      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2048,6 +1933,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -2058,14 +1944,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q22">
-        <f>D22*C22</f>
-        <v/>
-      </c>
-      <c r="R22">
-        <f>D22*C22</f>
-        <v/>
-      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2132,14 +2012,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q23">
-        <f>D23*C23</f>
-        <v/>
-      </c>
-      <c r="R23">
-        <f>D23*C23</f>
-        <v/>
-      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2206,14 +2080,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q24">
-        <f>D24*C24</f>
-        <v/>
-      </c>
-      <c r="R24">
-        <f>D24*C24</f>
-        <v/>
-      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2267,6 +2135,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -2277,14 +2146,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q25">
-        <f>D25*C25</f>
-        <v/>
-      </c>
-      <c r="R25">
-        <f>D25*C25</f>
-        <v/>
-      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2351,14 +2214,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q26">
-        <f>D26*C26</f>
-        <v/>
-      </c>
-      <c r="R26">
-        <f>D26*C26</f>
-        <v/>
-      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2425,14 +2282,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q27">
-        <f>D27*C27</f>
-        <v/>
-      </c>
-      <c r="R27">
-        <f>D27*C27</f>
-        <v/>
-      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2486,6 +2337,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -2496,14 +2348,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q28">
-        <f>D28*C28</f>
-        <v/>
-      </c>
-      <c r="R28">
-        <f>D28*C28</f>
-        <v/>
-      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2570,14 +2416,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q29">
-        <f>D29*C29</f>
-        <v/>
-      </c>
-      <c r="R29">
-        <f>D29*C29</f>
-        <v/>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2631,6 +2471,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -2641,14 +2482,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q30">
-        <f>D30*C30</f>
-        <v/>
-      </c>
-      <c r="R30">
-        <f>D30*C30</f>
-        <v/>
-      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2715,14 +2550,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q31">
-        <f>D31*C31</f>
-        <v/>
-      </c>
-      <c r="R31">
-        <f>D31*C31</f>
-        <v/>
-      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2789,14 +2618,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q32">
-        <f>D32*C32</f>
-        <v/>
-      </c>
-      <c r="R32">
-        <f>D32*C32</f>
-        <v/>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2863,14 +2686,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q33">
-        <f>D33*C33</f>
-        <v/>
-      </c>
-      <c r="R33">
-        <f>D33*C33</f>
-        <v/>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2937,14 +2754,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q34">
-        <f>D34*C34</f>
-        <v/>
-      </c>
-      <c r="R34">
-        <f>D34*C34</f>
-        <v/>
-      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3011,14 +2822,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q35">
-        <f>D35*C35</f>
-        <v/>
-      </c>
-      <c r="R35">
-        <f>D35*C35</f>
-        <v/>
-      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3085,14 +2890,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q36">
-        <f>D36*C36</f>
-        <v/>
-      </c>
-      <c r="R36">
-        <f>D36*C36</f>
-        <v/>
-      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3159,14 +2958,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q37">
-        <f>D37*C37</f>
-        <v/>
-      </c>
-      <c r="R37">
-        <f>D37*C37</f>
-        <v/>
-      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3233,14 +3026,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q38">
-        <f>D38*C38</f>
-        <v/>
-      </c>
-      <c r="R38">
-        <f>D38*C38</f>
-        <v/>
-      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3307,14 +3094,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q39">
-        <f>D39*C39</f>
-        <v/>
-      </c>
-      <c r="R39">
-        <f>D39*C39</f>
-        <v/>
-      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3381,14 +3162,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q40">
-        <f>D40*C40</f>
-        <v/>
-      </c>
-      <c r="R40">
-        <f>D40*C40</f>
-        <v/>
-      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3442,6 +3217,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -3452,14 +3228,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q41">
-        <f>D41*C41</f>
-        <v/>
-      </c>
-      <c r="R41">
-        <f>D41*C41</f>
-        <v/>
-      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3526,14 +3296,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q42">
-        <f>D42*C42</f>
-        <v/>
-      </c>
-      <c r="R42">
-        <f>D42*C42</f>
-        <v/>
-      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3587,6 +3351,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -3597,14 +3362,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q43">
-        <f>D43*C43</f>
-        <v/>
-      </c>
-      <c r="R43">
-        <f>D43*C43</f>
-        <v/>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3671,14 +3430,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q44">
-        <f>D44*C44</f>
-        <v/>
-      </c>
-      <c r="R44">
-        <f>D44*C44</f>
-        <v/>
-      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3745,14 +3498,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q45">
-        <f>D45*C45</f>
-        <v/>
-      </c>
-      <c r="R45">
-        <f>D45*C45</f>
-        <v/>
-      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3819,14 +3566,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q46">
-        <f>D46*C46</f>
-        <v/>
-      </c>
-      <c r="R46">
-        <f>D46*C46</f>
-        <v/>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3893,14 +3634,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q47">
-        <f>D47*C47</f>
-        <v/>
-      </c>
-      <c r="R47">
-        <f>D47*C47</f>
-        <v/>
-      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3967,14 +3702,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q48">
-        <f>D48*C48</f>
-        <v/>
-      </c>
-      <c r="R48">
-        <f>D48*C48</f>
-        <v/>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4041,14 +3770,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q49">
-        <f>D49*C49</f>
-        <v/>
-      </c>
-      <c r="R49">
-        <f>D49*C49</f>
-        <v/>
-      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4115,14 +3838,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q50">
-        <f>D50*C50</f>
-        <v/>
-      </c>
-      <c r="R50">
-        <f>D50*C50</f>
-        <v/>
-      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4189,14 +3906,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q51">
-        <f>D51*C51</f>
-        <v/>
-      </c>
-      <c r="R51">
-        <f>D51*C51</f>
-        <v/>
-      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4263,14 +3974,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q52">
-        <f>D52*C52</f>
-        <v/>
-      </c>
-      <c r="R52">
-        <f>D52*C52</f>
-        <v/>
-      </c>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4337,14 +4042,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q53">
-        <f>D53*C53</f>
-        <v/>
-      </c>
-      <c r="R53">
-        <f>D53*C53</f>
-        <v/>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4398,6 +4097,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -4408,14 +4108,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q54">
-        <f>D54*C54</f>
-        <v/>
-      </c>
-      <c r="R54">
-        <f>D54*C54</f>
-        <v/>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4482,14 +4176,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q55">
-        <f>D55*C55</f>
-        <v/>
-      </c>
-      <c r="R55">
-        <f>D55*C55</f>
-        <v/>
-      </c>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4556,14 +4244,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q56">
-        <f>D56*C56</f>
-        <v/>
-      </c>
-      <c r="R56">
-        <f>D56*C56</f>
-        <v/>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4630,14 +4312,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q57">
-        <f>D57*C57</f>
-        <v/>
-      </c>
-      <c r="R57">
-        <f>D57*C57</f>
-        <v/>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4704,14 +4380,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q58">
-        <f>D58*C58</f>
-        <v/>
-      </c>
-      <c r="R58">
-        <f>D58*C58</f>
-        <v/>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4778,14 +4448,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q59">
-        <f>D59*C59</f>
-        <v/>
-      </c>
-      <c r="R59">
-        <f>D59*C59</f>
-        <v/>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4839,6 +4503,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -4849,14 +4514,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q60">
-        <f>D60*C60</f>
-        <v/>
-      </c>
-      <c r="R60">
-        <f>D60*C60</f>
-        <v/>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4923,14 +4582,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q61">
-        <f>D61*C61</f>
-        <v/>
-      </c>
-      <c r="R61">
-        <f>D61*C61</f>
-        <v/>
-      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4997,14 +4650,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q62">
-        <f>D62*C62</f>
-        <v/>
-      </c>
-      <c r="R62">
-        <f>D62*C62</f>
-        <v/>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5071,14 +4718,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q63">
-        <f>D63*C63</f>
-        <v/>
-      </c>
-      <c r="R63">
-        <f>D63*C63</f>
-        <v/>
-      </c>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5145,14 +4786,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q64">
-        <f>D64*C64</f>
-        <v/>
-      </c>
-      <c r="R64">
-        <f>D64*C64</f>
-        <v/>
-      </c>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5219,14 +4854,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q65">
-        <f>D65*C65</f>
-        <v/>
-      </c>
-      <c r="R65">
-        <f>D65*C65</f>
-        <v/>
-      </c>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5293,14 +4922,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q66">
-        <f>D66*C66</f>
-        <v/>
-      </c>
-      <c r="R66">
-        <f>D66*C66</f>
-        <v/>
-      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5367,14 +4990,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q67">
-        <f>D67*C67</f>
-        <v/>
-      </c>
-      <c r="R67">
-        <f>D67*C67</f>
-        <v/>
-      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5441,14 +5058,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q68">
-        <f>D68*C68</f>
-        <v/>
-      </c>
-      <c r="R68">
-        <f>D68*C68</f>
-        <v/>
-      </c>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5515,14 +5126,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q69">
-        <f>D69*C69</f>
-        <v/>
-      </c>
-      <c r="R69">
-        <f>D69*C69</f>
-        <v/>
-      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5589,14 +5194,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q70">
-        <f>D70*C70</f>
-        <v/>
-      </c>
-      <c r="R70">
-        <f>D70*C70</f>
-        <v/>
-      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5663,14 +5262,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q71">
-        <f>D71*C71</f>
-        <v/>
-      </c>
-      <c r="R71">
-        <f>D71*C71</f>
-        <v/>
-      </c>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5724,6 +5317,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -5734,14 +5328,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q72">
-        <f>D72*C72</f>
-        <v/>
-      </c>
-      <c r="R72">
-        <f>D72*C72</f>
-        <v/>
-      </c>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5808,14 +5396,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q73">
-        <f>D73*C73</f>
-        <v/>
-      </c>
-      <c r="R73">
-        <f>D73*C73</f>
-        <v/>
-      </c>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5882,14 +5464,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q74">
-        <f>D74*C74</f>
-        <v/>
-      </c>
-      <c r="R74">
-        <f>D74*C74</f>
-        <v/>
-      </c>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5943,6 +5519,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -5953,14 +5530,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q75">
-        <f>D75*C75</f>
-        <v/>
-      </c>
-      <c r="R75">
-        <f>D75*C75</f>
-        <v/>
-      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -6027,14 +5598,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q76">
-        <f>D76*C76</f>
-        <v/>
-      </c>
-      <c r="R76">
-        <f>D76*C76</f>
-        <v/>
-      </c>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -6101,14 +5666,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q77">
-        <f>D77*C77</f>
-        <v/>
-      </c>
-      <c r="R77">
-        <f>D77*C77</f>
-        <v/>
-      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -6175,14 +5734,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q78">
-        <f>D78*C78</f>
-        <v/>
-      </c>
-      <c r="R78">
-        <f>D78*C78</f>
-        <v/>
-      </c>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -6249,14 +5802,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q79">
-        <f>D79*C79</f>
-        <v/>
-      </c>
-      <c r="R79">
-        <f>D79*C79</f>
-        <v/>
-      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -6323,14 +5870,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q80">
-        <f>D80*C80</f>
-        <v/>
-      </c>
-      <c r="R80">
-        <f>D80*C80</f>
-        <v/>
-      </c>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -6397,14 +5938,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q81">
-        <f>D81*C81</f>
-        <v/>
-      </c>
-      <c r="R81">
-        <f>D81*C81</f>
-        <v/>
-      </c>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6471,14 +6006,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q82">
-        <f>D82*C82</f>
-        <v/>
-      </c>
-      <c r="R82">
-        <f>D82*C82</f>
-        <v/>
-      </c>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6545,14 +6074,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q83">
-        <f>D83*C83</f>
-        <v/>
-      </c>
-      <c r="R83">
-        <f>D83*C83</f>
-        <v/>
-      </c>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6619,14 +6142,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q84">
-        <f>D84*C84</f>
-        <v/>
-      </c>
-      <c r="R84">
-        <f>D84*C84</f>
-        <v/>
-      </c>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6693,14 +6210,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q85">
-        <f>D85*C85</f>
-        <v/>
-      </c>
-      <c r="R85">
-        <f>D85*C85</f>
-        <v/>
-      </c>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6767,14 +6278,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q86">
-        <f>D86*C86</f>
-        <v/>
-      </c>
-      <c r="R86">
-        <f>D86*C86</f>
-        <v/>
-      </c>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6841,14 +6346,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q87">
-        <f>D87*C87</f>
-        <v/>
-      </c>
-      <c r="R87">
-        <f>D87*C87</f>
-        <v/>
-      </c>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6915,14 +6414,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q88">
-        <f>D88*C88</f>
-        <v/>
-      </c>
-      <c r="R88">
-        <f>D88*C88</f>
-        <v/>
-      </c>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6989,14 +6482,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q89">
-        <f>D89*C89</f>
-        <v/>
-      </c>
-      <c r="R89">
-        <f>D89*C89</f>
-        <v/>
-      </c>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -7063,14 +6550,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q90">
-        <f>D90*C90</f>
-        <v/>
-      </c>
-      <c r="R90">
-        <f>D90*C90</f>
-        <v/>
-      </c>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -7137,14 +6618,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q91">
-        <f>D91*C91</f>
-        <v/>
-      </c>
-      <c r="R91">
-        <f>D91*C91</f>
-        <v/>
-      </c>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -7211,14 +6686,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q92">
-        <f>D92*C92</f>
-        <v/>
-      </c>
-      <c r="R92">
-        <f>D92*C92</f>
-        <v/>
-      </c>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -7285,14 +6754,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q93">
-        <f>D93*C93</f>
-        <v/>
-      </c>
-      <c r="R93">
-        <f>D93*C93</f>
-        <v/>
-      </c>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -7346,6 +6809,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -7356,14 +6820,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q94">
-        <f>D94*C94</f>
-        <v/>
-      </c>
-      <c r="R94">
-        <f>D94*C94</f>
-        <v/>
-      </c>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -7430,14 +6888,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q95">
-        <f>D95*C95</f>
-        <v/>
-      </c>
-      <c r="R95">
-        <f>D95*C95</f>
-        <v/>
-      </c>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -7491,6 +6943,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -7501,14 +6954,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q96">
-        <f>D96*C96</f>
-        <v/>
-      </c>
-      <c r="R96">
-        <f>D96*C96</f>
-        <v/>
-      </c>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7575,14 +7022,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q97">
-        <f>D97*C97</f>
-        <v/>
-      </c>
-      <c r="R97">
-        <f>D97*C97</f>
-        <v/>
-      </c>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -7649,14 +7090,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q98">
-        <f>D98*C98</f>
-        <v/>
-      </c>
-      <c r="R98">
-        <f>D98*C98</f>
-        <v/>
-      </c>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7710,6 +7145,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -7720,14 +7156,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q99">
-        <f>D99*C99</f>
-        <v/>
-      </c>
-      <c r="R99">
-        <f>D99*C99</f>
-        <v/>
-      </c>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7794,14 +7224,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q100">
-        <f>D100*C100</f>
-        <v/>
-      </c>
-      <c r="R100">
-        <f>D100*C100</f>
-        <v/>
-      </c>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7855,6 +7279,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -7865,14 +7290,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q101">
-        <f>D101*C101</f>
-        <v/>
-      </c>
-      <c r="R101">
-        <f>D101*C101</f>
-        <v/>
-      </c>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -7939,14 +7358,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q102">
-        <f>D102*C102</f>
-        <v/>
-      </c>
-      <c r="R102">
-        <f>D102*C102</f>
-        <v/>
-      </c>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -8013,14 +7426,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q103">
-        <f>D103*C103</f>
-        <v/>
-      </c>
-      <c r="R103">
-        <f>D103*C103</f>
-        <v/>
-      </c>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -8087,14 +7494,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q104">
-        <f>D104*C104</f>
-        <v/>
-      </c>
-      <c r="R104">
-        <f>D104*C104</f>
-        <v/>
-      </c>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -8161,14 +7562,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q105">
-        <f>D105*C105</f>
-        <v/>
-      </c>
-      <c r="R105">
-        <f>D105*C105</f>
-        <v/>
-      </c>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -8235,14 +7630,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q106">
-        <f>D106*C106</f>
-        <v/>
-      </c>
-      <c r="R106">
-        <f>D106*C106</f>
-        <v/>
-      </c>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -8309,14 +7698,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q107">
-        <f>D107*C107</f>
-        <v/>
-      </c>
-      <c r="R107">
-        <f>D107*C107</f>
-        <v/>
-      </c>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -8383,14 +7766,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q108">
-        <f>D108*C108</f>
-        <v/>
-      </c>
-      <c r="R108">
-        <f>D108*C108</f>
-        <v/>
-      </c>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -8457,14 +7834,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q109">
-        <f>D109*C109</f>
-        <v/>
-      </c>
-      <c r="R109">
-        <f>D109*C109</f>
-        <v/>
-      </c>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -8531,14 +7902,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q110">
-        <f>D110*C110</f>
-        <v/>
-      </c>
-      <c r="R110">
-        <f>D110*C110</f>
-        <v/>
-      </c>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -8605,14 +7970,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q111">
-        <f>D111*C111</f>
-        <v/>
-      </c>
-      <c r="R111">
-        <f>D111*C111</f>
-        <v/>
-      </c>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -8679,14 +8038,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q112">
-        <f>D112*C112</f>
-        <v/>
-      </c>
-      <c r="R112">
-        <f>D112*C112</f>
-        <v/>
-      </c>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -8753,14 +8106,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q113">
-        <f>D113*C113</f>
-        <v/>
-      </c>
-      <c r="R113">
-        <f>D113*C113</f>
-        <v/>
-      </c>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -8827,14 +8174,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q114">
-        <f>D114*C114</f>
-        <v/>
-      </c>
-      <c r="R114">
-        <f>D114*C114</f>
-        <v/>
-      </c>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -8901,14 +8242,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q115">
-        <f>D115*C115</f>
-        <v/>
-      </c>
-      <c r="R115">
-        <f>D115*C115</f>
-        <v/>
-      </c>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -8975,14 +8310,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q116">
-        <f>D116*C116</f>
-        <v/>
-      </c>
-      <c r="R116">
-        <f>D116*C116</f>
-        <v/>
-      </c>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -9049,14 +8378,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q117">
-        <f>D117*C117</f>
-        <v/>
-      </c>
-      <c r="R117">
-        <f>D117*C117</f>
-        <v/>
-      </c>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -9123,14 +8446,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q118">
-        <f>D118*C118</f>
-        <v/>
-      </c>
-      <c r="R118">
-        <f>D118*C118</f>
-        <v/>
-      </c>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -9197,14 +8514,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q119">
-        <f>D119*C119</f>
-        <v/>
-      </c>
-      <c r="R119">
-        <f>D119*C119</f>
-        <v/>
-      </c>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -9271,14 +8582,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q120">
-        <f>D120*C120</f>
-        <v/>
-      </c>
-      <c r="R120">
-        <f>D120*C120</f>
-        <v/>
-      </c>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -9345,14 +8650,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q121">
-        <f>D121*C121</f>
-        <v/>
-      </c>
-      <c r="R121">
-        <f>D121*C121</f>
-        <v/>
-      </c>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -9406,6 +8705,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -9416,14 +8716,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q122">
-        <f>D122*C122</f>
-        <v/>
-      </c>
-      <c r="R122">
-        <f>D122*C122</f>
-        <v/>
-      </c>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -9490,14 +8784,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q123">
-        <f>D123*C123</f>
-        <v/>
-      </c>
-      <c r="R123">
-        <f>D123*C123</f>
-        <v/>
-      </c>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -9564,14 +8852,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q124">
-        <f>D124*C124</f>
-        <v/>
-      </c>
-      <c r="R124">
-        <f>D124*C124</f>
-        <v/>
-      </c>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -9638,14 +8920,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q125">
-        <f>D125*C125</f>
-        <v/>
-      </c>
-      <c r="R125">
-        <f>D125*C125</f>
-        <v/>
-      </c>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -9712,14 +8988,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q126">
-        <f>D126*C126</f>
-        <v/>
-      </c>
-      <c r="R126">
-        <f>D126*C126</f>
-        <v/>
-      </c>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -9786,14 +9056,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q127">
-        <f>D127*C127</f>
-        <v/>
-      </c>
-      <c r="R127">
-        <f>D127*C127</f>
-        <v/>
-      </c>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -9860,14 +9124,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q128">
-        <f>D128*C128</f>
-        <v/>
-      </c>
-      <c r="R128">
-        <f>D128*C128</f>
-        <v/>
-      </c>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -9934,14 +9192,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q129">
-        <f>D129*C129</f>
-        <v/>
-      </c>
-      <c r="R129">
-        <f>D129*C129</f>
-        <v/>
-      </c>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -10008,14 +9260,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q130">
-        <f>D130*C130</f>
-        <v/>
-      </c>
-      <c r="R130">
-        <f>D130*C130</f>
-        <v/>
-      </c>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -10082,14 +9328,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q131">
-        <f>D131*C131</f>
-        <v/>
-      </c>
-      <c r="R131">
-        <f>D131*C131</f>
-        <v/>
-      </c>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -10156,14 +9396,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q132">
-        <f>D132*C132</f>
-        <v/>
-      </c>
-      <c r="R132">
-        <f>D132*C132</f>
-        <v/>
-      </c>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -10230,14 +9464,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q133">
-        <f>D133*C133</f>
-        <v/>
-      </c>
-      <c r="R133">
-        <f>D133*C133</f>
-        <v/>
-      </c>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -10304,14 +9532,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q134">
-        <f>D134*C134</f>
-        <v/>
-      </c>
-      <c r="R134">
-        <f>D134*C134</f>
-        <v/>
-      </c>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -10378,14 +9600,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q135">
-        <f>D135*C135</f>
-        <v/>
-      </c>
-      <c r="R135">
-        <f>D135*C135</f>
-        <v/>
-      </c>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -10452,14 +9668,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q136">
-        <f>D136*C136</f>
-        <v/>
-      </c>
-      <c r="R136">
-        <f>D136*C136</f>
-        <v/>
-      </c>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -10526,14 +9736,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q137">
-        <f>D137*C137</f>
-        <v/>
-      </c>
-      <c r="R137">
-        <f>D137*C137</f>
-        <v/>
-      </c>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -10587,6 +9791,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -10597,14 +9802,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q138">
-        <f>D138*C138</f>
-        <v/>
-      </c>
-      <c r="R138">
-        <f>D138*C138</f>
-        <v/>
-      </c>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -10671,14 +9870,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q139">
-        <f>D139*C139</f>
-        <v/>
-      </c>
-      <c r="R139">
-        <f>D139*C139</f>
-        <v/>
-      </c>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -10745,14 +9938,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q140">
-        <f>D140*C140</f>
-        <v/>
-      </c>
-      <c r="R140">
-        <f>D140*C140</f>
-        <v/>
-      </c>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -10819,14 +10006,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q141">
-        <f>D141*C141</f>
-        <v/>
-      </c>
-      <c r="R141">
-        <f>D141*C141</f>
-        <v/>
-      </c>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -10893,14 +10074,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q142">
-        <f>D142*C142</f>
-        <v/>
-      </c>
-      <c r="R142">
-        <f>D142*C142</f>
-        <v/>
-      </c>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -10967,14 +10142,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q143">
-        <f>D143*C143</f>
-        <v/>
-      </c>
-      <c r="R143">
-        <f>D143*C143</f>
-        <v/>
-      </c>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -11041,14 +10210,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q144">
-        <f>D144*C144</f>
-        <v/>
-      </c>
-      <c r="R144">
-        <f>D144*C144</f>
-        <v/>
-      </c>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -11115,14 +10278,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q145">
-        <f>D145*C145</f>
-        <v/>
-      </c>
-      <c r="R145">
-        <f>D145*C145</f>
-        <v/>
-      </c>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -11189,14 +10346,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q146">
-        <f>D146*C146</f>
-        <v/>
-      </c>
-      <c r="R146">
-        <f>D146*C146</f>
-        <v/>
-      </c>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -11263,14 +10414,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q147">
-        <f>D147*C147</f>
-        <v/>
-      </c>
-      <c r="R147">
-        <f>D147*C147</f>
-        <v/>
-      </c>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -11337,14 +10482,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q148">
-        <f>D148*C148</f>
-        <v/>
-      </c>
-      <c r="R148">
-        <f>D148*C148</f>
-        <v/>
-      </c>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -11411,14 +10550,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q149">
-        <f>D149*C149</f>
-        <v/>
-      </c>
-      <c r="R149">
-        <f>D149*C149</f>
-        <v/>
-      </c>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -11485,14 +10618,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q150">
-        <f>D150*C150</f>
-        <v/>
-      </c>
-      <c r="R150">
-        <f>D150*C150</f>
-        <v/>
-      </c>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -11559,14 +10686,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q151">
-        <f>D151*C151</f>
-        <v/>
-      </c>
-      <c r="R151">
-        <f>D151*C151</f>
-        <v/>
-      </c>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -11633,14 +10754,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q152">
-        <f>D152*C152</f>
-        <v/>
-      </c>
-      <c r="R152">
-        <f>D152*C152</f>
-        <v/>
-      </c>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -11707,14 +10822,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q153">
-        <f>D153*C153</f>
-        <v/>
-      </c>
-      <c r="R153">
-        <f>D153*C153</f>
-        <v/>
-      </c>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -11781,14 +10890,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q154">
-        <f>D154*C154</f>
-        <v/>
-      </c>
-      <c r="R154">
-        <f>D154*C154</f>
-        <v/>
-      </c>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -11855,14 +10958,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q155">
-        <f>D155*C155</f>
-        <v/>
-      </c>
-      <c r="R155">
-        <f>D155*C155</f>
-        <v/>
-      </c>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -11929,14 +11026,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q156">
-        <f>D156*C156</f>
-        <v/>
-      </c>
-      <c r="R156">
-        <f>D156*C156</f>
-        <v/>
-      </c>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -11990,6 +11081,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -12000,14 +11092,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q157">
-        <f>D157*C157</f>
-        <v/>
-      </c>
-      <c r="R157">
-        <f>D157*C157</f>
-        <v/>
-      </c>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -12074,14 +11160,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q158">
-        <f>D158*C158</f>
-        <v/>
-      </c>
-      <c r="R158">
-        <f>D158*C158</f>
-        <v/>
-      </c>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -12148,14 +11228,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q159">
-        <f>D159*C159</f>
-        <v/>
-      </c>
-      <c r="R159">
-        <f>D159*C159</f>
-        <v/>
-      </c>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -12222,14 +11296,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q160">
-        <f>D160*C160</f>
-        <v/>
-      </c>
-      <c r="R160">
-        <f>D160*C160</f>
-        <v/>
-      </c>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -12296,14 +11364,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q161">
-        <f>D161*C161</f>
-        <v/>
-      </c>
-      <c r="R161">
-        <f>D161*C161</f>
-        <v/>
-      </c>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -12370,14 +11432,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q162">
-        <f>D162*C162</f>
-        <v/>
-      </c>
-      <c r="R162">
-        <f>D162*C162</f>
-        <v/>
-      </c>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -12444,14 +11500,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q163">
-        <f>D163*C163</f>
-        <v/>
-      </c>
-      <c r="R163">
-        <f>D163*C163</f>
-        <v/>
-      </c>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -12518,14 +11568,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q164">
-        <f>D164*C164</f>
-        <v/>
-      </c>
-      <c r="R164">
-        <f>D164*C164</f>
-        <v/>
-      </c>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -12592,14 +11636,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q165">
-        <f>D165*C165</f>
-        <v/>
-      </c>
-      <c r="R165">
-        <f>D165*C165</f>
-        <v/>
-      </c>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -12666,14 +11704,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q166">
-        <f>D166*C166</f>
-        <v/>
-      </c>
-      <c r="R166">
-        <f>D166*C166</f>
-        <v/>
-      </c>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -12740,14 +11772,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q167">
-        <f>D167*C167</f>
-        <v/>
-      </c>
-      <c r="R167">
-        <f>D167*C167</f>
-        <v/>
-      </c>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -12814,14 +11840,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q168">
-        <f>D168*C168</f>
-        <v/>
-      </c>
-      <c r="R168">
-        <f>D168*C168</f>
-        <v/>
-      </c>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -12875,6 +11895,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -12885,14 +11906,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q169">
-        <f>D169*C169</f>
-        <v/>
-      </c>
-      <c r="R169">
-        <f>D169*C169</f>
-        <v/>
-      </c>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -12959,14 +11974,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q170">
-        <f>D170*C170</f>
-        <v/>
-      </c>
-      <c r="R170">
-        <f>D170*C170</f>
-        <v/>
-      </c>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -13020,6 +12029,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -13030,14 +12040,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q171">
-        <f>D171*C171</f>
-        <v/>
-      </c>
-      <c r="R171">
-        <f>D171*C171</f>
-        <v/>
-      </c>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -13104,14 +12108,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q172">
-        <f>D172*C172</f>
-        <v/>
-      </c>
-      <c r="R172">
-        <f>D172*C172</f>
-        <v/>
-      </c>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -13178,14 +12176,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q173">
-        <f>D173*C173</f>
-        <v/>
-      </c>
-      <c r="R173">
-        <f>D173*C173</f>
-        <v/>
-      </c>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -13252,14 +12244,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q174">
-        <f>D174*C174</f>
-        <v/>
-      </c>
-      <c r="R174">
-        <f>D174*C174</f>
-        <v/>
-      </c>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -13326,14 +12312,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q175">
-        <f>D175*C175</f>
-        <v/>
-      </c>
-      <c r="R175">
-        <f>D175*C175</f>
-        <v/>
-      </c>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -13400,14 +12380,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q176">
-        <f>D176*C176</f>
-        <v/>
-      </c>
-      <c r="R176">
-        <f>D176*C176</f>
-        <v/>
-      </c>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -13474,14 +12448,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q177">
-        <f>D177*C177</f>
-        <v/>
-      </c>
-      <c r="R177">
-        <f>D177*C177</f>
-        <v/>
-      </c>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -13548,14 +12516,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q178">
-        <f>D178*C178</f>
-        <v/>
-      </c>
-      <c r="R178">
-        <f>D178*C178</f>
-        <v/>
-      </c>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -13622,14 +12584,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q179">
-        <f>D179*C179</f>
-        <v/>
-      </c>
-      <c r="R179">
-        <f>D179*C179</f>
-        <v/>
-      </c>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -13696,14 +12652,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q180">
-        <f>D180*C180</f>
-        <v/>
-      </c>
-      <c r="R180">
-        <f>D180*C180</f>
-        <v/>
-      </c>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -13757,6 +12707,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -13767,14 +12718,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q181">
-        <f>D181*C181</f>
-        <v/>
-      </c>
-      <c r="R181">
-        <f>D181*C181</f>
-        <v/>
-      </c>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -13841,14 +12786,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q182">
-        <f>D182*C182</f>
-        <v/>
-      </c>
-      <c r="R182">
-        <f>D182*C182</f>
-        <v/>
-      </c>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -13902,6 +12841,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -13912,14 +12852,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q183">
-        <f>D183*C183</f>
-        <v/>
-      </c>
-      <c r="R183">
-        <f>D183*C183</f>
-        <v/>
-      </c>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -13986,14 +12920,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q184">
-        <f>D184*C184</f>
-        <v/>
-      </c>
-      <c r="R184">
-        <f>D184*C184</f>
-        <v/>
-      </c>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -14060,14 +12988,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q185">
-        <f>D185*C185</f>
-        <v/>
-      </c>
-      <c r="R185">
-        <f>D185*C185</f>
-        <v/>
-      </c>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -14134,14 +13056,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q186">
-        <f>D186*C186</f>
-        <v/>
-      </c>
-      <c r="R186">
-        <f>D186*C186</f>
-        <v/>
-      </c>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -14208,14 +13124,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q187">
-        <f>D187*C187</f>
-        <v/>
-      </c>
-      <c r="R187">
-        <f>D187*C187</f>
-        <v/>
-      </c>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -14282,14 +13192,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q188">
-        <f>D188*C188</f>
-        <v/>
-      </c>
-      <c r="R188">
-        <f>D188*C188</f>
-        <v/>
-      </c>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -14356,14 +13260,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q189">
-        <f>D189*C189</f>
-        <v/>
-      </c>
-      <c r="R189">
-        <f>D189*C189</f>
-        <v/>
-      </c>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -14430,14 +13328,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q190">
-        <f>D190*C190</f>
-        <v/>
-      </c>
-      <c r="R190">
-        <f>D190*C190</f>
-        <v/>
-      </c>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -14504,14 +13396,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q191">
-        <f>D191*C191</f>
-        <v/>
-      </c>
-      <c r="R191">
-        <f>D191*C191</f>
-        <v/>
-      </c>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -14565,6 +13451,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -14575,14 +13462,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q192">
-        <f>D192*C192</f>
-        <v/>
-      </c>
-      <c r="R192">
-        <f>D192*C192</f>
-        <v/>
-      </c>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -14649,14 +13530,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q193">
-        <f>D193*C193</f>
-        <v/>
-      </c>
-      <c r="R193">
-        <f>D193*C193</f>
-        <v/>
-      </c>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -14710,6 +13585,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -14720,14 +13596,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q194">
-        <f>D194*C194</f>
-        <v/>
-      </c>
-      <c r="R194">
-        <f>D194*C194</f>
-        <v/>
-      </c>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -14794,14 +13664,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q195">
-        <f>D195*C195</f>
-        <v/>
-      </c>
-      <c r="R195">
-        <f>D195*C195</f>
-        <v/>
-      </c>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -14868,14 +13732,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q196">
-        <f>D196*C196</f>
-        <v/>
-      </c>
-      <c r="R196">
-        <f>D196*C196</f>
-        <v/>
-      </c>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -14942,14 +13800,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q197">
-        <f>D197*C197</f>
-        <v/>
-      </c>
-      <c r="R197">
-        <f>D197*C197</f>
-        <v/>
-      </c>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -15016,14 +13868,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q198">
-        <f>D198*C198</f>
-        <v/>
-      </c>
-      <c r="R198">
-        <f>D198*C198</f>
-        <v/>
-      </c>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -15090,14 +13936,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q199">
-        <f>D199*C199</f>
-        <v/>
-      </c>
-      <c r="R199">
-        <f>D199*C199</f>
-        <v/>
-      </c>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -15151,6 +13991,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -15161,14 +14002,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q200">
-        <f>D200*C200</f>
-        <v/>
-      </c>
-      <c r="R200">
-        <f>D200*C200</f>
-        <v/>
-      </c>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -15235,14 +14070,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q201">
-        <f>D201*C201</f>
-        <v/>
-      </c>
-      <c r="R201">
-        <f>D201*C201</f>
-        <v/>
-      </c>
+      <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -15309,14 +14138,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q202">
-        <f>D202*C202</f>
-        <v/>
-      </c>
-      <c r="R202">
-        <f>D202*C202</f>
-        <v/>
-      </c>
+      <c r="Q202" t="inlineStr"/>
+      <c r="R202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -15383,14 +14206,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q203">
-        <f>D203*C203</f>
-        <v/>
-      </c>
-      <c r="R203">
-        <f>D203*C203</f>
-        <v/>
-      </c>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -15457,14 +14274,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q204">
-        <f>D204*C204</f>
-        <v/>
-      </c>
-      <c r="R204">
-        <f>D204*C204</f>
-        <v/>
-      </c>
+      <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -15531,14 +14342,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q205">
-        <f>D205*C205</f>
-        <v/>
-      </c>
-      <c r="R205">
-        <f>D205*C205</f>
-        <v/>
-      </c>
+      <c r="Q205" t="inlineStr"/>
+      <c r="R205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -15605,14 +14410,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q206">
-        <f>D206*C206</f>
-        <v/>
-      </c>
-      <c r="R206">
-        <f>D206*C206</f>
-        <v/>
-      </c>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -15679,14 +14478,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q207">
-        <f>D207*C207</f>
-        <v/>
-      </c>
-      <c r="R207">
-        <f>D207*C207</f>
-        <v/>
-      </c>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -15753,14 +14546,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q208">
-        <f>D208*C208</f>
-        <v/>
-      </c>
-      <c r="R208">
-        <f>D208*C208</f>
-        <v/>
-      </c>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -15827,14 +14614,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q209">
-        <f>D209*C209</f>
-        <v/>
-      </c>
-      <c r="R209">
-        <f>D209*C209</f>
-        <v/>
-      </c>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -15901,14 +14682,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q210">
-        <f>D210*C210</f>
-        <v/>
-      </c>
-      <c r="R210">
-        <f>D210*C210</f>
-        <v/>
-      </c>
+      <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -15975,14 +14750,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q211">
-        <f>D211*C211</f>
-        <v/>
-      </c>
-      <c r="R211">
-        <f>D211*C211</f>
-        <v/>
-      </c>
+      <c r="Q211" t="inlineStr"/>
+      <c r="R211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -16049,14 +14818,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q212">
-        <f>D212*C212</f>
-        <v/>
-      </c>
-      <c r="R212">
-        <f>D212*C212</f>
-        <v/>
-      </c>
+      <c r="Q212" t="inlineStr"/>
+      <c r="R212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -16123,14 +14886,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q213">
-        <f>D213*C213</f>
-        <v/>
-      </c>
-      <c r="R213">
-        <f>D213*C213</f>
-        <v/>
-      </c>
+      <c r="Q213" t="inlineStr"/>
+      <c r="R213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -16197,14 +14954,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q214">
-        <f>D214*C214</f>
-        <v/>
-      </c>
-      <c r="R214">
-        <f>D214*C214</f>
-        <v/>
-      </c>
+      <c r="Q214" t="inlineStr"/>
+      <c r="R214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -16271,14 +15022,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q215">
-        <f>D215*C215</f>
-        <v/>
-      </c>
-      <c r="R215">
-        <f>D215*C215</f>
-        <v/>
-      </c>
+      <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -16345,14 +15090,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q216">
-        <f>D216*C216</f>
-        <v/>
-      </c>
-      <c r="R216">
-        <f>D216*C216</f>
-        <v/>
-      </c>
+      <c r="Q216" t="inlineStr"/>
+      <c r="R216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -16419,14 +15158,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q217">
-        <f>D217*C217</f>
-        <v/>
-      </c>
-      <c r="R217">
-        <f>D217*C217</f>
-        <v/>
-      </c>
+      <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -16493,14 +15226,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q218">
-        <f>D218*C218</f>
-        <v/>
-      </c>
-      <c r="R218">
-        <f>D218*C218</f>
-        <v/>
-      </c>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -16567,14 +15294,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q219">
-        <f>D219*C219</f>
-        <v/>
-      </c>
-      <c r="R219">
-        <f>D219*C219</f>
-        <v/>
-      </c>
+      <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -16641,14 +15362,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q220">
-        <f>D220*C220</f>
-        <v/>
-      </c>
-      <c r="R220">
-        <f>D220*C220</f>
-        <v/>
-      </c>
+      <c r="Q220" t="inlineStr"/>
+      <c r="R220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -16702,6 +15417,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -16712,14 +15428,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q221">
-        <f>D221*C221</f>
-        <v/>
-      </c>
-      <c r="R221">
-        <f>D221*C221</f>
-        <v/>
-      </c>
+      <c r="Q221" t="inlineStr"/>
+      <c r="R221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -16786,14 +15496,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q222">
-        <f>D222*C222</f>
-        <v/>
-      </c>
-      <c r="R222">
-        <f>D222*C222</f>
-        <v/>
-      </c>
+      <c r="Q222" t="inlineStr"/>
+      <c r="R222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -16860,14 +15564,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q223">
-        <f>D223*C223</f>
-        <v/>
-      </c>
-      <c r="R223">
-        <f>D223*C223</f>
-        <v/>
-      </c>
+      <c r="Q223" t="inlineStr"/>
+      <c r="R223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -16934,14 +15632,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q224">
-        <f>D224*C224</f>
-        <v/>
-      </c>
-      <c r="R224">
-        <f>D224*C224</f>
-        <v/>
-      </c>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -17008,14 +15700,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q225">
-        <f>D225*C225</f>
-        <v/>
-      </c>
-      <c r="R225">
-        <f>D225*C225</f>
-        <v/>
-      </c>
+      <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -17082,14 +15768,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q226">
-        <f>D226*C226</f>
-        <v/>
-      </c>
-      <c r="R226">
-        <f>D226*C226</f>
-        <v/>
-      </c>
+      <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -17156,14 +15836,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q227">
-        <f>D227*C227</f>
-        <v/>
-      </c>
-      <c r="R227">
-        <f>D227*C227</f>
-        <v/>
-      </c>
+      <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -17230,14 +15904,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q228">
-        <f>D228*C228</f>
-        <v/>
-      </c>
-      <c r="R228">
-        <f>D228*C228</f>
-        <v/>
-      </c>
+      <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -17304,14 +15972,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q229">
-        <f>D229*C229</f>
-        <v/>
-      </c>
-      <c r="R229">
-        <f>D229*C229</f>
-        <v/>
-      </c>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -17365,6 +16027,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -17375,14 +16038,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q230">
-        <f>D230*C230</f>
-        <v/>
-      </c>
-      <c r="R230">
-        <f>D230*C230</f>
-        <v/>
-      </c>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -17449,14 +16106,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q231">
-        <f>D231*C231</f>
-        <v/>
-      </c>
-      <c r="R231">
-        <f>D231*C231</f>
-        <v/>
-      </c>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -17523,14 +16174,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q232">
-        <f>D232*C232</f>
-        <v/>
-      </c>
-      <c r="R232">
-        <f>D232*C232</f>
-        <v/>
-      </c>
+      <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -17597,14 +16242,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q233">
-        <f>D233*C233</f>
-        <v/>
-      </c>
-      <c r="R233">
-        <f>D233*C233</f>
-        <v/>
-      </c>
+      <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -17671,14 +16310,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q234">
-        <f>D234*C234</f>
-        <v/>
-      </c>
-      <c r="R234">
-        <f>D234*C234</f>
-        <v/>
-      </c>
+      <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -17745,14 +16378,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q235">
-        <f>D235*C235</f>
-        <v/>
-      </c>
-      <c r="R235">
-        <f>D235*C235</f>
-        <v/>
-      </c>
+      <c r="Q235" t="inlineStr"/>
+      <c r="R235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -17819,14 +16446,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q236">
-        <f>D236*C236</f>
-        <v/>
-      </c>
-      <c r="R236">
-        <f>D236*C236</f>
-        <v/>
-      </c>
+      <c r="Q236" t="inlineStr"/>
+      <c r="R236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -17893,14 +16514,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q237">
-        <f>D237*C237</f>
-        <v/>
-      </c>
-      <c r="R237">
-        <f>D237*C237</f>
-        <v/>
-      </c>
+      <c r="Q237" t="inlineStr"/>
+      <c r="R237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -17967,14 +16582,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q238">
-        <f>D238*C238</f>
-        <v/>
-      </c>
-      <c r="R238">
-        <f>D238*C238</f>
-        <v/>
-      </c>
+      <c r="Q238" t="inlineStr"/>
+      <c r="R238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -18041,14 +16650,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q239">
-        <f>D239*C239</f>
-        <v/>
-      </c>
-      <c r="R239">
-        <f>D239*C239</f>
-        <v/>
-      </c>
+      <c r="Q239" t="inlineStr"/>
+      <c r="R239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -18115,14 +16718,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q240">
-        <f>D240*C240</f>
-        <v/>
-      </c>
-      <c r="R240">
-        <f>D240*C240</f>
-        <v/>
-      </c>
+      <c r="Q240" t="inlineStr"/>
+      <c r="R240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -18189,14 +16786,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q241">
-        <f>D241*C241</f>
-        <v/>
-      </c>
-      <c r="R241">
-        <f>D241*C241</f>
-        <v/>
-      </c>
+      <c r="Q241" t="inlineStr"/>
+      <c r="R241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -18263,14 +16854,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q242">
-        <f>D242*C242</f>
-        <v/>
-      </c>
-      <c r="R242">
-        <f>D242*C242</f>
-        <v/>
-      </c>
+      <c r="Q242" t="inlineStr"/>
+      <c r="R242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -18337,14 +16922,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q243">
-        <f>D243*C243</f>
-        <v/>
-      </c>
-      <c r="R243">
-        <f>D243*C243</f>
-        <v/>
-      </c>
+      <c r="Q243" t="inlineStr"/>
+      <c r="R243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -18411,14 +16990,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q244">
-        <f>D244*C244</f>
-        <v/>
-      </c>
-      <c r="R244">
-        <f>D244*C244</f>
-        <v/>
-      </c>
+      <c r="Q244" t="inlineStr"/>
+      <c r="R244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -18485,14 +17058,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q245">
-        <f>D245*C245</f>
-        <v/>
-      </c>
-      <c r="R245">
-        <f>D245*C245</f>
-        <v/>
-      </c>
+      <c r="Q245" t="inlineStr"/>
+      <c r="R245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -18559,14 +17126,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q246">
-        <f>D246*C246</f>
-        <v/>
-      </c>
-      <c r="R246">
-        <f>D246*C246</f>
-        <v/>
-      </c>
+      <c r="Q246" t="inlineStr"/>
+      <c r="R246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -18633,14 +17194,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q247">
-        <f>D247*C247</f>
-        <v/>
-      </c>
-      <c r="R247">
-        <f>D247*C247</f>
-        <v/>
-      </c>
+      <c r="Q247" t="inlineStr"/>
+      <c r="R247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -18707,14 +17262,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q248">
-        <f>D248*C248</f>
-        <v/>
-      </c>
-      <c r="R248">
-        <f>D248*C248</f>
-        <v/>
-      </c>
+      <c r="Q248" t="inlineStr"/>
+      <c r="R248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -18781,14 +17330,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q249">
-        <f>D249*C249</f>
-        <v/>
-      </c>
-      <c r="R249">
-        <f>D249*C249</f>
-        <v/>
-      </c>
+      <c r="Q249" t="inlineStr"/>
+      <c r="R249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -18855,14 +17398,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q250">
-        <f>D250*C250</f>
-        <v/>
-      </c>
-      <c r="R250">
-        <f>D250*C250</f>
-        <v/>
-      </c>
+      <c r="Q250" t="inlineStr"/>
+      <c r="R250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -18929,14 +17466,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q251">
-        <f>D251*C251</f>
-        <v/>
-      </c>
-      <c r="R251">
-        <f>D251*C251</f>
-        <v/>
-      </c>
+      <c r="Q251" t="inlineStr"/>
+      <c r="R251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -19003,14 +17534,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q252">
-        <f>D252*C252</f>
-        <v/>
-      </c>
-      <c r="R252">
-        <f>D252*C252</f>
-        <v/>
-      </c>
+      <c r="Q252" t="inlineStr"/>
+      <c r="R252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -19077,14 +17602,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q253">
-        <f>D253*C253</f>
-        <v/>
-      </c>
-      <c r="R253">
-        <f>D253*C253</f>
-        <v/>
-      </c>
+      <c r="Q253" t="inlineStr"/>
+      <c r="R253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -19151,14 +17670,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q254">
-        <f>D254*C254</f>
-        <v/>
-      </c>
-      <c r="R254">
-        <f>D254*C254</f>
-        <v/>
-      </c>
+      <c r="Q254" t="inlineStr"/>
+      <c r="R254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -19225,14 +17738,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q255">
-        <f>D255*C255</f>
-        <v/>
-      </c>
-      <c r="R255">
-        <f>D255*C255</f>
-        <v/>
-      </c>
+      <c r="Q255" t="inlineStr"/>
+      <c r="R255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -19299,14 +17806,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q256">
-        <f>D256*C256</f>
-        <v/>
-      </c>
-      <c r="R256">
-        <f>D256*C256</f>
-        <v/>
-      </c>
+      <c r="Q256" t="inlineStr"/>
+      <c r="R256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -19373,14 +17874,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q257">
-        <f>D257*C257</f>
-        <v/>
-      </c>
-      <c r="R257">
-        <f>D257*C257</f>
-        <v/>
-      </c>
+      <c r="Q257" t="inlineStr"/>
+      <c r="R257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -19447,14 +17942,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q258">
-        <f>D258*C258</f>
-        <v/>
-      </c>
-      <c r="R258">
-        <f>D258*C258</f>
-        <v/>
-      </c>
+      <c r="Q258" t="inlineStr"/>
+      <c r="R258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -19508,6 +17997,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -19518,14 +18008,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q259">
-        <f>D259*C259</f>
-        <v/>
-      </c>
-      <c r="R259">
-        <f>D259*C259</f>
-        <v/>
-      </c>
+      <c r="Q259" t="inlineStr"/>
+      <c r="R259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -19592,14 +18076,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q260">
-        <f>D260*C260</f>
-        <v/>
-      </c>
-      <c r="R260">
-        <f>D260*C260</f>
-        <v/>
-      </c>
+      <c r="Q260" t="inlineStr"/>
+      <c r="R260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -19666,14 +18144,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q261">
-        <f>D261*C261</f>
-        <v/>
-      </c>
-      <c r="R261">
-        <f>D261*C261</f>
-        <v/>
-      </c>
+      <c r="Q261" t="inlineStr"/>
+      <c r="R261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -19740,14 +18212,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q262">
-        <f>D262*C262</f>
-        <v/>
-      </c>
-      <c r="R262">
-        <f>D262*C262</f>
-        <v/>
-      </c>
+      <c r="Q262" t="inlineStr"/>
+      <c r="R262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -19814,14 +18280,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q263">
-        <f>D263*C263</f>
-        <v/>
-      </c>
-      <c r="R263">
-        <f>D263*C263</f>
-        <v/>
-      </c>
+      <c r="Q263" t="inlineStr"/>
+      <c r="R263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -19888,14 +18348,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q264">
-        <f>D264*C264</f>
-        <v/>
-      </c>
-      <c r="R264">
-        <f>D264*C264</f>
-        <v/>
-      </c>
+      <c r="Q264" t="inlineStr"/>
+      <c r="R264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -19962,14 +18416,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q265">
-        <f>D265*C265</f>
-        <v/>
-      </c>
-      <c r="R265">
-        <f>D265*C265</f>
-        <v/>
-      </c>
+      <c r="Q265" t="inlineStr"/>
+      <c r="R265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -20036,14 +18484,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q266">
-        <f>D266*C266</f>
-        <v/>
-      </c>
-      <c r="R266">
-        <f>D266*C266</f>
-        <v/>
-      </c>
+      <c r="Q266" t="inlineStr"/>
+      <c r="R266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -20110,14 +18552,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q267">
-        <f>D267*C267</f>
-        <v/>
-      </c>
-      <c r="R267">
-        <f>D267*C267</f>
-        <v/>
-      </c>
+      <c r="Q267" t="inlineStr"/>
+      <c r="R267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -20184,14 +18620,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q268">
-        <f>D268*C268</f>
-        <v/>
-      </c>
-      <c r="R268">
-        <f>D268*C268</f>
-        <v/>
-      </c>
+      <c r="Q268" t="inlineStr"/>
+      <c r="R268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -20258,14 +18688,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q269">
-        <f>D269*C269</f>
-        <v/>
-      </c>
-      <c r="R269">
-        <f>D269*C269</f>
-        <v/>
-      </c>
+      <c r="Q269" t="inlineStr"/>
+      <c r="R269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -20332,14 +18756,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q270">
-        <f>D270*C270</f>
-        <v/>
-      </c>
-      <c r="R270">
-        <f>D270*C270</f>
-        <v/>
-      </c>
+      <c r="Q270" t="inlineStr"/>
+      <c r="R270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -20406,14 +18824,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q271">
-        <f>D271*C271</f>
-        <v/>
-      </c>
-      <c r="R271">
-        <f>D271*C271</f>
-        <v/>
-      </c>
+      <c r="Q271" t="inlineStr"/>
+      <c r="R271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -20480,14 +18892,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q272">
-        <f>D272*C272</f>
-        <v/>
-      </c>
-      <c r="R272">
-        <f>D272*C272</f>
-        <v/>
-      </c>
+      <c r="Q272" t="inlineStr"/>
+      <c r="R272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -20554,14 +18960,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q273">
-        <f>D273*C273</f>
-        <v/>
-      </c>
-      <c r="R273">
-        <f>D273*C273</f>
-        <v/>
-      </c>
+      <c r="Q273" t="inlineStr"/>
+      <c r="R273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -20628,14 +19028,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q274">
-        <f>D274*C274</f>
-        <v/>
-      </c>
-      <c r="R274">
-        <f>D274*C274</f>
-        <v/>
-      </c>
+      <c r="Q274" t="inlineStr"/>
+      <c r="R274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -20702,14 +19096,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q275">
-        <f>D275*C275</f>
-        <v/>
-      </c>
-      <c r="R275">
-        <f>D275*C275</f>
-        <v/>
-      </c>
+      <c r="Q275" t="inlineStr"/>
+      <c r="R275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -20776,14 +19164,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q276">
-        <f>D276*C276</f>
-        <v/>
-      </c>
-      <c r="R276">
-        <f>D276*C276</f>
-        <v/>
-      </c>
+      <c r="Q276" t="inlineStr"/>
+      <c r="R276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -20837,6 +19219,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -20847,14 +19230,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q277">
-        <f>D277*C277</f>
-        <v/>
-      </c>
-      <c r="R277">
-        <f>D277*C277</f>
-        <v/>
-      </c>
+      <c r="Q277" t="inlineStr"/>
+      <c r="R277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -20921,14 +19298,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q278">
-        <f>D278*C278</f>
-        <v/>
-      </c>
-      <c r="R278">
-        <f>D278*C278</f>
-        <v/>
-      </c>
+      <c r="Q278" t="inlineStr"/>
+      <c r="R278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -20995,14 +19366,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q279">
-        <f>D279*C279</f>
-        <v/>
-      </c>
-      <c r="R279">
-        <f>D279*C279</f>
-        <v/>
-      </c>
+      <c r="Q279" t="inlineStr"/>
+      <c r="R279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -21069,14 +19434,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q280">
-        <f>D280*C280</f>
-        <v/>
-      </c>
-      <c r="R280">
-        <f>D280*C280</f>
-        <v/>
-      </c>
+      <c r="Q280" t="inlineStr"/>
+      <c r="R280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -21143,14 +19502,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q281">
-        <f>D281*C281</f>
-        <v/>
-      </c>
-      <c r="R281">
-        <f>D281*C281</f>
-        <v/>
-      </c>
+      <c r="Q281" t="inlineStr"/>
+      <c r="R281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -21217,14 +19570,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q282">
-        <f>D282*C282</f>
-        <v/>
-      </c>
-      <c r="R282">
-        <f>D282*C282</f>
-        <v/>
-      </c>
+      <c r="Q282" t="inlineStr"/>
+      <c r="R282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -21291,14 +19638,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q283">
-        <f>D283*C283</f>
-        <v/>
-      </c>
-      <c r="R283">
-        <f>D283*C283</f>
-        <v/>
-      </c>
+      <c r="Q283" t="inlineStr"/>
+      <c r="R283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -21365,14 +19706,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q284">
-        <f>D284*C284</f>
-        <v/>
-      </c>
-      <c r="R284">
-        <f>D284*C284</f>
-        <v/>
-      </c>
+      <c r="Q284" t="inlineStr"/>
+      <c r="R284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -21439,14 +19774,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q285">
-        <f>D285*C285</f>
-        <v/>
-      </c>
-      <c r="R285">
-        <f>D285*C285</f>
-        <v/>
-      </c>
+      <c r="Q285" t="inlineStr"/>
+      <c r="R285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -21513,14 +19842,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q286">
-        <f>D286*C286</f>
-        <v/>
-      </c>
-      <c r="R286">
-        <f>D286*C286</f>
-        <v/>
-      </c>
+      <c r="Q286" t="inlineStr"/>
+      <c r="R286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -21587,14 +19910,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q287">
-        <f>D287*C287</f>
-        <v/>
-      </c>
-      <c r="R287">
-        <f>D287*C287</f>
-        <v/>
-      </c>
+      <c r="Q287" t="inlineStr"/>
+      <c r="R287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -21661,14 +19978,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q288">
-        <f>D288*C288</f>
-        <v/>
-      </c>
-      <c r="R288">
-        <f>D288*C288</f>
-        <v/>
-      </c>
+      <c r="Q288" t="inlineStr"/>
+      <c r="R288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -21735,14 +20046,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q289">
-        <f>D289*C289</f>
-        <v/>
-      </c>
-      <c r="R289">
-        <f>D289*C289</f>
-        <v/>
-      </c>
+      <c r="Q289" t="inlineStr"/>
+      <c r="R289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -21809,14 +20114,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q290">
-        <f>D290*C290</f>
-        <v/>
-      </c>
-      <c r="R290">
-        <f>D290*C290</f>
-        <v/>
-      </c>
+      <c r="Q290" t="inlineStr"/>
+      <c r="R290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -21883,14 +20182,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q291">
-        <f>D291*C291</f>
-        <v/>
-      </c>
-      <c r="R291">
-        <f>D291*C291</f>
-        <v/>
-      </c>
+      <c r="Q291" t="inlineStr"/>
+      <c r="R291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -21957,14 +20250,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q292">
-        <f>D292*C292</f>
-        <v/>
-      </c>
-      <c r="R292">
-        <f>D292*C292</f>
-        <v/>
-      </c>
+      <c r="Q292" t="inlineStr"/>
+      <c r="R292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -22018,6 +20305,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -22028,14 +20316,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q293">
-        <f>D293*C293</f>
-        <v/>
-      </c>
-      <c r="R293">
-        <f>D293*C293</f>
-        <v/>
-      </c>
+      <c r="Q293" t="inlineStr"/>
+      <c r="R293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -22102,14 +20384,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q294">
-        <f>D294*C294</f>
-        <v/>
-      </c>
-      <c r="R294">
-        <f>D294*C294</f>
-        <v/>
-      </c>
+      <c r="Q294" t="inlineStr"/>
+      <c r="R294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -22176,14 +20452,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q295">
-        <f>D295*C295</f>
-        <v/>
-      </c>
-      <c r="R295">
-        <f>D295*C295</f>
-        <v/>
-      </c>
+      <c r="Q295" t="inlineStr"/>
+      <c r="R295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -22250,14 +20520,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q296">
-        <f>D296*C296</f>
-        <v/>
-      </c>
-      <c r="R296">
-        <f>D296*C296</f>
-        <v/>
-      </c>
+      <c r="Q296" t="inlineStr"/>
+      <c r="R296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -22324,14 +20588,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q297">
-        <f>D297*C297</f>
-        <v/>
-      </c>
-      <c r="R297">
-        <f>D297*C297</f>
-        <v/>
-      </c>
+      <c r="Q297" t="inlineStr"/>
+      <c r="R297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -22398,14 +20656,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q298">
-        <f>D298*C298</f>
-        <v/>
-      </c>
-      <c r="R298">
-        <f>D298*C298</f>
-        <v/>
-      </c>
+      <c r="Q298" t="inlineStr"/>
+      <c r="R298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -22472,14 +20724,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q299">
-        <f>D299*C299</f>
-        <v/>
-      </c>
-      <c r="R299">
-        <f>D299*C299</f>
-        <v/>
-      </c>
+      <c r="Q299" t="inlineStr"/>
+      <c r="R299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -22546,14 +20792,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q300">
-        <f>D300*C300</f>
-        <v/>
-      </c>
-      <c r="R300">
-        <f>D300*C300</f>
-        <v/>
-      </c>
+      <c r="Q300" t="inlineStr"/>
+      <c r="R300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -22620,14 +20860,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q301">
-        <f>D301*C301</f>
-        <v/>
-      </c>
-      <c r="R301">
-        <f>D301*C301</f>
-        <v/>
-      </c>
+      <c r="Q301" t="inlineStr"/>
+      <c r="R301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -22694,14 +20928,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q302">
-        <f>D302*C302</f>
-        <v/>
-      </c>
-      <c r="R302">
-        <f>D302*C302</f>
-        <v/>
-      </c>
+      <c r="Q302" t="inlineStr"/>
+      <c r="R302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -22768,14 +20996,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q303">
-        <f>D303*C303</f>
-        <v/>
-      </c>
-      <c r="R303">
-        <f>D303*C303</f>
-        <v/>
-      </c>
+      <c r="Q303" t="inlineStr"/>
+      <c r="R303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -22829,6 +21051,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -22839,14 +21062,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q304">
-        <f>D304*C304</f>
-        <v/>
-      </c>
-      <c r="R304">
-        <f>D304*C304</f>
-        <v/>
-      </c>
+      <c r="Q304" t="inlineStr"/>
+      <c r="R304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -22913,14 +21130,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q305">
-        <f>D305*C305</f>
-        <v/>
-      </c>
-      <c r="R305">
-        <f>D305*C305</f>
-        <v/>
-      </c>
+      <c r="Q305" t="inlineStr"/>
+      <c r="R305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -22974,6 +21185,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -22984,14 +21196,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q306">
-        <f>D306*C306</f>
-        <v/>
-      </c>
-      <c r="R306">
-        <f>D306*C306</f>
-        <v/>
-      </c>
+      <c r="Q306" t="inlineStr"/>
+      <c r="R306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -23058,14 +21264,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q307">
-        <f>D307*C307</f>
-        <v/>
-      </c>
-      <c r="R307">
-        <f>D307*C307</f>
-        <v/>
-      </c>
+      <c r="Q307" t="inlineStr"/>
+      <c r="R307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -23132,14 +21332,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q308">
-        <f>D308*C308</f>
-        <v/>
-      </c>
-      <c r="R308">
-        <f>D308*C308</f>
-        <v/>
-      </c>
+      <c r="Q308" t="inlineStr"/>
+      <c r="R308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -23206,14 +21400,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q309">
-        <f>D309*C309</f>
-        <v/>
-      </c>
-      <c r="R309">
-        <f>D309*C309</f>
-        <v/>
-      </c>
+      <c r="Q309" t="inlineStr"/>
+      <c r="R309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -23280,14 +21468,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q310">
-        <f>D310*C310</f>
-        <v/>
-      </c>
-      <c r="R310">
-        <f>D310*C310</f>
-        <v/>
-      </c>
+      <c r="Q310" t="inlineStr"/>
+      <c r="R310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -23354,14 +21536,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q311">
-        <f>D311*C311</f>
-        <v/>
-      </c>
-      <c r="R311">
-        <f>D311*C311</f>
-        <v/>
-      </c>
+      <c r="Q311" t="inlineStr"/>
+      <c r="R311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -23428,14 +21604,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q312">
-        <f>D312*C312</f>
-        <v/>
-      </c>
-      <c r="R312">
-        <f>D312*C312</f>
-        <v/>
-      </c>
+      <c r="Q312" t="inlineStr"/>
+      <c r="R312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -23502,14 +21672,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q313">
-        <f>D313*C313</f>
-        <v/>
-      </c>
-      <c r="R313">
-        <f>D313*C313</f>
-        <v/>
-      </c>
+      <c r="Q313" t="inlineStr"/>
+      <c r="R313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -23576,14 +21740,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q314">
-        <f>D314*C314</f>
-        <v/>
-      </c>
-      <c r="R314">
-        <f>D314*C314</f>
-        <v/>
-      </c>
+      <c r="Q314" t="inlineStr"/>
+      <c r="R314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -23650,14 +21808,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q315">
-        <f>D315*C315</f>
-        <v/>
-      </c>
-      <c r="R315">
-        <f>D315*C315</f>
-        <v/>
-      </c>
+      <c r="Q315" t="inlineStr"/>
+      <c r="R315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -23711,6 +21863,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -23721,14 +21874,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q316">
-        <f>D316*C316</f>
-        <v/>
-      </c>
-      <c r="R316">
-        <f>D316*C316</f>
-        <v/>
-      </c>
+      <c r="Q316" t="inlineStr"/>
+      <c r="R316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -23795,14 +21942,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q317">
-        <f>D317*C317</f>
-        <v/>
-      </c>
-      <c r="R317">
-        <f>D317*C317</f>
-        <v/>
-      </c>
+      <c r="Q317" t="inlineStr"/>
+      <c r="R317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -23869,14 +22010,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q318">
-        <f>D318*C318</f>
-        <v/>
-      </c>
-      <c r="R318">
-        <f>D318*C318</f>
-        <v/>
-      </c>
+      <c r="Q318" t="inlineStr"/>
+      <c r="R318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -23943,14 +22078,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q319">
-        <f>D319*C319</f>
-        <v/>
-      </c>
-      <c r="R319">
-        <f>D319*C319</f>
-        <v/>
-      </c>
+      <c r="Q319" t="inlineStr"/>
+      <c r="R319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -24017,14 +22146,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q320">
-        <f>D320*C320</f>
-        <v/>
-      </c>
-      <c r="R320">
-        <f>D320*C320</f>
-        <v/>
-      </c>
+      <c r="Q320" t="inlineStr"/>
+      <c r="R320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -24091,14 +22214,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q321">
-        <f>D321*C321</f>
-        <v/>
-      </c>
-      <c r="R321">
-        <f>D321*C321</f>
-        <v/>
-      </c>
+      <c r="Q321" t="inlineStr"/>
+      <c r="R321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -24165,14 +22282,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q322">
-        <f>D322*C322</f>
-        <v/>
-      </c>
-      <c r="R322">
-        <f>D322*C322</f>
-        <v/>
-      </c>
+      <c r="Q322" t="inlineStr"/>
+      <c r="R322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -24239,14 +22350,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q323">
-        <f>D323*C323</f>
-        <v/>
-      </c>
-      <c r="R323">
-        <f>D323*C323</f>
-        <v/>
-      </c>
+      <c r="Q323" t="inlineStr"/>
+      <c r="R323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -24313,14 +22418,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q324">
-        <f>D324*C324</f>
-        <v/>
-      </c>
-      <c r="R324">
-        <f>D324*C324</f>
-        <v/>
-      </c>
+      <c r="Q324" t="inlineStr"/>
+      <c r="R324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -24387,14 +22486,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q325">
-        <f>D325*C325</f>
-        <v/>
-      </c>
-      <c r="R325">
-        <f>D325*C325</f>
-        <v/>
-      </c>
+      <c r="Q325" t="inlineStr"/>
+      <c r="R325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -24461,14 +22554,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q326">
-        <f>D326*C326</f>
-        <v/>
-      </c>
-      <c r="R326">
-        <f>D326*C326</f>
-        <v/>
-      </c>
+      <c r="Q326" t="inlineStr"/>
+      <c r="R326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -24535,14 +22622,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q327">
-        <f>D327*C327</f>
-        <v/>
-      </c>
-      <c r="R327">
-        <f>D327*C327</f>
-        <v/>
-      </c>
+      <c r="Q327" t="inlineStr"/>
+      <c r="R327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -24609,14 +22690,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q328">
-        <f>D328*C328</f>
-        <v/>
-      </c>
-      <c r="R328">
-        <f>D328*C328</f>
-        <v/>
-      </c>
+      <c r="Q328" t="inlineStr"/>
+      <c r="R328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -24683,14 +22758,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q329">
-        <f>D329*C329</f>
-        <v/>
-      </c>
-      <c r="R329">
-        <f>D329*C329</f>
-        <v/>
-      </c>
+      <c r="Q329" t="inlineStr"/>
+      <c r="R329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -24757,14 +22826,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q330">
-        <f>D330*C330</f>
-        <v/>
-      </c>
-      <c r="R330">
-        <f>D330*C330</f>
-        <v/>
-      </c>
+      <c r="Q330" t="inlineStr"/>
+      <c r="R330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -24831,14 +22894,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q331">
-        <f>D331*C331</f>
-        <v/>
-      </c>
-      <c r="R331">
-        <f>D331*C331</f>
-        <v/>
-      </c>
+      <c r="Q331" t="inlineStr"/>
+      <c r="R331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -24905,14 +22962,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q332">
-        <f>D332*C332</f>
-        <v/>
-      </c>
-      <c r="R332">
-        <f>D332*C332</f>
-        <v/>
-      </c>
+      <c r="Q332" t="inlineStr"/>
+      <c r="R332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -24979,14 +23030,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q333">
-        <f>D333*C333</f>
-        <v/>
-      </c>
-      <c r="R333">
-        <f>D333*C333</f>
-        <v/>
-      </c>
+      <c r="Q333" t="inlineStr"/>
+      <c r="R333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -25053,14 +23098,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q334">
-        <f>D334*C334</f>
-        <v/>
-      </c>
-      <c r="R334">
-        <f>D334*C334</f>
-        <v/>
-      </c>
+      <c r="Q334" t="inlineStr"/>
+      <c r="R334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -25127,14 +23166,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q335">
-        <f>D335*C335</f>
-        <v/>
-      </c>
-      <c r="R335">
-        <f>D335*C335</f>
-        <v/>
-      </c>
+      <c r="Q335" t="inlineStr"/>
+      <c r="R335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -25201,14 +23234,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q336">
-        <f>D336*C336</f>
-        <v/>
-      </c>
-      <c r="R336">
-        <f>D336*C336</f>
-        <v/>
-      </c>
+      <c r="Q336" t="inlineStr"/>
+      <c r="R336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -25275,14 +23302,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q337">
-        <f>D337*C337</f>
-        <v/>
-      </c>
-      <c r="R337">
-        <f>D337*C337</f>
-        <v/>
-      </c>
+      <c r="Q337" t="inlineStr"/>
+      <c r="R337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -25349,14 +23370,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q338">
-        <f>D338*C338</f>
-        <v/>
-      </c>
-      <c r="R338">
-        <f>D338*C338</f>
-        <v/>
-      </c>
+      <c r="Q338" t="inlineStr"/>
+      <c r="R338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -25410,6 +23425,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -25420,14 +23436,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q339">
-        <f>D339*C339</f>
-        <v/>
-      </c>
-      <c r="R339">
-        <f>D339*C339</f>
-        <v/>
-      </c>
+      <c r="Q339" t="inlineStr"/>
+      <c r="R339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -25494,14 +23504,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q340">
-        <f>D340*C340</f>
-        <v/>
-      </c>
-      <c r="R340">
-        <f>D340*C340</f>
-        <v/>
-      </c>
+      <c r="Q340" t="inlineStr"/>
+      <c r="R340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -25568,14 +23572,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q341">
-        <f>D341*C341</f>
-        <v/>
-      </c>
-      <c r="R341">
-        <f>D341*C341</f>
-        <v/>
-      </c>
+      <c r="Q341" t="inlineStr"/>
+      <c r="R341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -25629,6 +23627,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -25639,14 +23638,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q342">
-        <f>D342*C342</f>
-        <v/>
-      </c>
-      <c r="R342">
-        <f>D342*C342</f>
-        <v/>
-      </c>
+      <c r="Q342" t="inlineStr"/>
+      <c r="R342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -25700,6 +23693,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -25710,14 +23704,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q343">
-        <f>D343*C343</f>
-        <v/>
-      </c>
-      <c r="R343">
-        <f>D343*C343</f>
-        <v/>
-      </c>
+      <c r="Q343" t="inlineStr"/>
+      <c r="R343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -25784,14 +23772,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q344">
-        <f>D344*C344</f>
-        <v/>
-      </c>
-      <c r="R344">
-        <f>D344*C344</f>
-        <v/>
-      </c>
+      <c r="Q344" t="inlineStr"/>
+      <c r="R344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -25858,14 +23840,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q345">
-        <f>D345*C345</f>
-        <v/>
-      </c>
-      <c r="R345">
-        <f>D345*C345</f>
-        <v/>
-      </c>
+      <c r="Q345" t="inlineStr"/>
+      <c r="R345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -25932,14 +23908,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q346">
-        <f>D346*C346</f>
-        <v/>
-      </c>
-      <c r="R346">
-        <f>D346*C346</f>
-        <v/>
-      </c>
+      <c r="Q346" t="inlineStr"/>
+      <c r="R346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -26006,14 +23976,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q347">
-        <f>D347*C347</f>
-        <v/>
-      </c>
-      <c r="R347">
-        <f>D347*C347</f>
-        <v/>
-      </c>
+      <c r="Q347" t="inlineStr"/>
+      <c r="R347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -26080,14 +24044,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q348">
-        <f>D348*C348</f>
-        <v/>
-      </c>
-      <c r="R348">
-        <f>D348*C348</f>
-        <v/>
-      </c>
+      <c r="Q348" t="inlineStr"/>
+      <c r="R348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -26154,14 +24112,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q349">
-        <f>D349*C349</f>
-        <v/>
-      </c>
-      <c r="R349">
-        <f>D349*C349</f>
-        <v/>
-      </c>
+      <c r="Q349" t="inlineStr"/>
+      <c r="R349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -26228,14 +24180,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q350">
-        <f>D350*C350</f>
-        <v/>
-      </c>
-      <c r="R350">
-        <f>D350*C350</f>
-        <v/>
-      </c>
+      <c r="Q350" t="inlineStr"/>
+      <c r="R350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -26302,14 +24248,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q351">
-        <f>D351*C351</f>
-        <v/>
-      </c>
-      <c r="R351">
-        <f>D351*C351</f>
-        <v/>
-      </c>
+      <c r="Q351" t="inlineStr"/>
+      <c r="R351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -26376,14 +24316,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q352">
-        <f>D352*C352</f>
-        <v/>
-      </c>
-      <c r="R352">
-        <f>D352*C352</f>
-        <v/>
-      </c>
+      <c r="Q352" t="inlineStr"/>
+      <c r="R352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -26437,6 +24371,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -26447,14 +24382,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q353">
-        <f>D353*C353</f>
-        <v/>
-      </c>
-      <c r="R353">
-        <f>D353*C353</f>
-        <v/>
-      </c>
+      <c r="Q353" t="inlineStr"/>
+      <c r="R353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -26521,14 +24450,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q354">
-        <f>D354*C354</f>
-        <v/>
-      </c>
-      <c r="R354">
-        <f>D354*C354</f>
-        <v/>
-      </c>
+      <c r="Q354" t="inlineStr"/>
+      <c r="R354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -26595,14 +24518,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q355">
-        <f>D355*C355</f>
-        <v/>
-      </c>
-      <c r="R355">
-        <f>D355*C355</f>
-        <v/>
-      </c>
+      <c r="Q355" t="inlineStr"/>
+      <c r="R355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -26656,6 +24573,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -26666,14 +24584,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q356">
-        <f>D356*C356</f>
-        <v/>
-      </c>
-      <c r="R356">
-        <f>D356*C356</f>
-        <v/>
-      </c>
+      <c r="Q356" t="inlineStr"/>
+      <c r="R356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -26740,14 +24652,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q357">
-        <f>D357*C357</f>
-        <v/>
-      </c>
-      <c r="R357">
-        <f>D357*C357</f>
-        <v/>
-      </c>
+      <c r="Q357" t="inlineStr"/>
+      <c r="R357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -26814,14 +24720,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q358">
-        <f>D358*C358</f>
-        <v/>
-      </c>
-      <c r="R358">
-        <f>D358*C358</f>
-        <v/>
-      </c>
+      <c r="Q358" t="inlineStr"/>
+      <c r="R358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -26888,14 +24788,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q359">
-        <f>D359*C359</f>
-        <v/>
-      </c>
-      <c r="R359">
-        <f>D359*C359</f>
-        <v/>
-      </c>
+      <c r="Q359" t="inlineStr"/>
+      <c r="R359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -26962,14 +24856,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q360">
-        <f>D360*C360</f>
-        <v/>
-      </c>
-      <c r="R360">
-        <f>D360*C360</f>
-        <v/>
-      </c>
+      <c r="Q360" t="inlineStr"/>
+      <c r="R360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -27036,14 +24924,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q361">
-        <f>D361*C361</f>
-        <v/>
-      </c>
-      <c r="R361">
-        <f>D361*C361</f>
-        <v/>
-      </c>
+      <c r="Q361" t="inlineStr"/>
+      <c r="R361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -27097,6 +24979,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -27107,14 +24990,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q362">
-        <f>D362*C362</f>
-        <v/>
-      </c>
-      <c r="R362">
-        <f>D362*C362</f>
-        <v/>
-      </c>
+      <c r="Q362" t="inlineStr"/>
+      <c r="R362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -27181,14 +25058,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q363">
-        <f>D363*C363</f>
-        <v/>
-      </c>
-      <c r="R363">
-        <f>D363*C363</f>
-        <v/>
-      </c>
+      <c r="Q363" t="inlineStr"/>
+      <c r="R363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -27255,14 +25126,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q364">
-        <f>D364*C364</f>
-        <v/>
-      </c>
-      <c r="R364">
-        <f>D364*C364</f>
-        <v/>
-      </c>
+      <c r="Q364" t="inlineStr"/>
+      <c r="R364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -27329,14 +25194,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q365">
-        <f>D365*C365</f>
-        <v/>
-      </c>
-      <c r="R365">
-        <f>D365*C365</f>
-        <v/>
-      </c>
+      <c r="Q365" t="inlineStr"/>
+      <c r="R365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -27403,14 +25262,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q366">
-        <f>D366*C366</f>
-        <v/>
-      </c>
-      <c r="R366">
-        <f>D366*C366</f>
-        <v/>
-      </c>
+      <c r="Q366" t="inlineStr"/>
+      <c r="R366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -27477,14 +25330,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q367">
-        <f>D367*C367</f>
-        <v/>
-      </c>
-      <c r="R367">
-        <f>D367*C367</f>
-        <v/>
-      </c>
+      <c r="Q367" t="inlineStr"/>
+      <c r="R367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -27551,14 +25398,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q368">
-        <f>D368*C368</f>
-        <v/>
-      </c>
-      <c r="R368">
-        <f>D368*C368</f>
-        <v/>
-      </c>
+      <c r="Q368" t="inlineStr"/>
+      <c r="R368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -27625,14 +25466,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q369">
-        <f>D369*C369</f>
-        <v/>
-      </c>
-      <c r="R369">
-        <f>D369*C369</f>
-        <v/>
-      </c>
+      <c r="Q369" t="inlineStr"/>
+      <c r="R369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -27699,14 +25534,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q370">
-        <f>D370*C370</f>
-        <v/>
-      </c>
-      <c r="R370">
-        <f>D370*C370</f>
-        <v/>
-      </c>
+      <c r="Q370" t="inlineStr"/>
+      <c r="R370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -27773,14 +25602,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q371">
-        <f>D371*C371</f>
-        <v/>
-      </c>
-      <c r="R371">
-        <f>D371*C371</f>
-        <v/>
-      </c>
+      <c r="Q371" t="inlineStr"/>
+      <c r="R371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -27834,6 +25657,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -27844,14 +25668,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q372">
-        <f>D372*C372</f>
-        <v/>
-      </c>
-      <c r="R372">
-        <f>D372*C372</f>
-        <v/>
-      </c>
+      <c r="Q372" t="inlineStr"/>
+      <c r="R372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -27918,14 +25736,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q373">
-        <f>D373*C373</f>
-        <v/>
-      </c>
-      <c r="R373">
-        <f>D373*C373</f>
-        <v/>
-      </c>
+      <c r="Q373" t="inlineStr"/>
+      <c r="R373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -27992,14 +25804,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q374">
-        <f>D374*C374</f>
-        <v/>
-      </c>
-      <c r="R374">
-        <f>D374*C374</f>
-        <v/>
-      </c>
+      <c r="Q374" t="inlineStr"/>
+      <c r="R374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -28066,14 +25872,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q375">
-        <f>D375*C375</f>
-        <v/>
-      </c>
-      <c r="R375">
-        <f>D375*C375</f>
-        <v/>
-      </c>
+      <c r="Q375" t="inlineStr"/>
+      <c r="R375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -28140,14 +25940,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q376">
-        <f>D376*C376</f>
-        <v/>
-      </c>
-      <c r="R376">
-        <f>D376*C376</f>
-        <v/>
-      </c>
+      <c r="Q376" t="inlineStr"/>
+      <c r="R376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -28214,14 +26008,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q377">
-        <f>D377*C377</f>
-        <v/>
-      </c>
-      <c r="R377">
-        <f>D377*C377</f>
-        <v/>
-      </c>
+      <c r="Q377" t="inlineStr"/>
+      <c r="R377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -28288,14 +26076,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q378">
-        <f>D378*C378</f>
-        <v/>
-      </c>
-      <c r="R378">
-        <f>D378*C378</f>
-        <v/>
-      </c>
+      <c r="Q378" t="inlineStr"/>
+      <c r="R378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -28362,14 +26144,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q379">
-        <f>D379*C379</f>
-        <v/>
-      </c>
-      <c r="R379">
-        <f>D379*C379</f>
-        <v/>
-      </c>
+      <c r="Q379" t="inlineStr"/>
+      <c r="R379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -28436,14 +26212,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q380">
-        <f>D380*C380</f>
-        <v/>
-      </c>
-      <c r="R380">
-        <f>D380*C380</f>
-        <v/>
-      </c>
+      <c r="Q380" t="inlineStr"/>
+      <c r="R380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -28510,14 +26280,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q381">
-        <f>D381*C381</f>
-        <v/>
-      </c>
-      <c r="R381">
-        <f>D381*C381</f>
-        <v/>
-      </c>
+      <c r="Q381" t="inlineStr"/>
+      <c r="R381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -28584,14 +26348,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q382">
-        <f>D382*C382</f>
-        <v/>
-      </c>
-      <c r="R382">
-        <f>D382*C382</f>
-        <v/>
-      </c>
+      <c r="Q382" t="inlineStr"/>
+      <c r="R382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -28645,6 +26403,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -28655,14 +26414,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q383">
-        <f>D383*C383</f>
-        <v/>
-      </c>
-      <c r="R383">
-        <f>D383*C383</f>
-        <v/>
-      </c>
+      <c r="Q383" t="inlineStr"/>
+      <c r="R383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -28729,14 +26482,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q384">
-        <f>D384*C384</f>
-        <v/>
-      </c>
-      <c r="R384">
-        <f>D384*C384</f>
-        <v/>
-      </c>
+      <c r="Q384" t="inlineStr"/>
+      <c r="R384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -28803,14 +26550,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q385">
-        <f>D385*C385</f>
-        <v/>
-      </c>
-      <c r="R385">
-        <f>D385*C385</f>
-        <v/>
-      </c>
+      <c r="Q385" t="inlineStr"/>
+      <c r="R385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -28877,14 +26618,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q386">
-        <f>D386*C386</f>
-        <v/>
-      </c>
-      <c r="R386">
-        <f>D386*C386</f>
-        <v/>
-      </c>
+      <c r="Q386" t="inlineStr"/>
+      <c r="R386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -28951,14 +26686,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q387">
-        <f>D387*C387</f>
-        <v/>
-      </c>
-      <c r="R387">
-        <f>D387*C387</f>
-        <v/>
-      </c>
+      <c r="Q387" t="inlineStr"/>
+      <c r="R387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -29025,14 +26754,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q388">
-        <f>D388*C388</f>
-        <v/>
-      </c>
-      <c r="R388">
-        <f>D388*C388</f>
-        <v/>
-      </c>
+      <c r="Q388" t="inlineStr"/>
+      <c r="R388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -29099,14 +26822,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q389">
-        <f>D389*C389</f>
-        <v/>
-      </c>
-      <c r="R389">
-        <f>D389*C389</f>
-        <v/>
-      </c>
+      <c r="Q389" t="inlineStr"/>
+      <c r="R389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -29173,14 +26890,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q390">
-        <f>D390*C390</f>
-        <v/>
-      </c>
-      <c r="R390">
-        <f>D390*C390</f>
-        <v/>
-      </c>
+      <c r="Q390" t="inlineStr"/>
+      <c r="R390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -29247,14 +26958,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q391">
-        <f>D391*C391</f>
-        <v/>
-      </c>
-      <c r="R391">
-        <f>D391*C391</f>
-        <v/>
-      </c>
+      <c r="Q391" t="inlineStr"/>
+      <c r="R391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -29321,14 +27026,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q392">
-        <f>D392*C392</f>
-        <v/>
-      </c>
-      <c r="R392">
-        <f>D392*C392</f>
-        <v/>
-      </c>
+      <c r="Q392" t="inlineStr"/>
+      <c r="R392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -29395,14 +27094,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q393">
-        <f>D393*C393</f>
-        <v/>
-      </c>
-      <c r="R393">
-        <f>D393*C393</f>
-        <v/>
-      </c>
+      <c r="Q393" t="inlineStr"/>
+      <c r="R393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -29469,14 +27162,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q394">
-        <f>D394*C394</f>
-        <v/>
-      </c>
-      <c r="R394">
-        <f>D394*C394</f>
-        <v/>
-      </c>
+      <c r="Q394" t="inlineStr"/>
+      <c r="R394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -29543,14 +27230,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q395">
-        <f>D395*C395</f>
-        <v/>
-      </c>
-      <c r="R395">
-        <f>D395*C395</f>
-        <v/>
-      </c>
+      <c r="Q395" t="inlineStr"/>
+      <c r="R395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -29617,14 +27298,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q396">
-        <f>D396*C396</f>
-        <v/>
-      </c>
-      <c r="R396">
-        <f>D396*C396</f>
-        <v/>
-      </c>
+      <c r="Q396" t="inlineStr"/>
+      <c r="R396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -29691,14 +27366,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q397">
-        <f>D397*C397</f>
-        <v/>
-      </c>
-      <c r="R397">
-        <f>D397*C397</f>
-        <v/>
-      </c>
+      <c r="Q397" t="inlineStr"/>
+      <c r="R397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -29765,14 +27434,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q398">
-        <f>D398*C398</f>
-        <v/>
-      </c>
-      <c r="R398">
-        <f>D398*C398</f>
-        <v/>
-      </c>
+      <c r="Q398" t="inlineStr"/>
+      <c r="R398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -29839,14 +27502,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q399">
-        <f>D399*C399</f>
-        <v/>
-      </c>
-      <c r="R399">
-        <f>D399*C399</f>
-        <v/>
-      </c>
+      <c r="Q399" t="inlineStr"/>
+      <c r="R399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -29913,14 +27570,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q400">
-        <f>D400*C400</f>
-        <v/>
-      </c>
-      <c r="R400">
-        <f>D400*C400</f>
-        <v/>
-      </c>
+      <c r="Q400" t="inlineStr"/>
+      <c r="R400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -29987,14 +27638,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q401">
-        <f>D401*C401</f>
-        <v/>
-      </c>
-      <c r="R401">
-        <f>D401*C401</f>
-        <v/>
-      </c>
+      <c r="Q401" t="inlineStr"/>
+      <c r="R401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -30061,14 +27706,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q402">
-        <f>D402*C402</f>
-        <v/>
-      </c>
-      <c r="R402">
-        <f>D402*C402</f>
-        <v/>
-      </c>
+      <c r="Q402" t="inlineStr"/>
+      <c r="R402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -30135,14 +27774,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q403">
-        <f>D403*C403</f>
-        <v/>
-      </c>
-      <c r="R403">
-        <f>D403*C403</f>
-        <v/>
-      </c>
+      <c r="Q403" t="inlineStr"/>
+      <c r="R403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -30209,14 +27842,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q404">
-        <f>D404*C404</f>
-        <v/>
-      </c>
-      <c r="R404">
-        <f>D404*C404</f>
-        <v/>
-      </c>
+      <c r="Q404" t="inlineStr"/>
+      <c r="R404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -30283,14 +27910,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q405">
-        <f>D405*C405</f>
-        <v/>
-      </c>
-      <c r="R405">
-        <f>D405*C405</f>
-        <v/>
-      </c>
+      <c r="Q405" t="inlineStr"/>
+      <c r="R405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -30344,6 +27965,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -30354,14 +27976,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q406">
-        <f>D406*C406</f>
-        <v/>
-      </c>
-      <c r="R406">
-        <f>D406*C406</f>
-        <v/>
-      </c>
+      <c r="Q406" t="inlineStr"/>
+      <c r="R406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -30428,14 +28044,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q407">
-        <f>D407*C407</f>
-        <v/>
-      </c>
-      <c r="R407">
-        <f>D407*C407</f>
-        <v/>
-      </c>
+      <c r="Q407" t="inlineStr"/>
+      <c r="R407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -30502,14 +28112,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q408">
-        <f>D408*C408</f>
-        <v/>
-      </c>
-      <c r="R408">
-        <f>D408*C408</f>
-        <v/>
-      </c>
+      <c r="Q408" t="inlineStr"/>
+      <c r="R408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -30576,14 +28180,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q409">
-        <f>D409*C409</f>
-        <v/>
-      </c>
-      <c r="R409">
-        <f>D409*C409</f>
-        <v/>
-      </c>
+      <c r="Q409" t="inlineStr"/>
+      <c r="R409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -30650,14 +28248,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q410">
-        <f>D410*C410</f>
-        <v/>
-      </c>
-      <c r="R410">
-        <f>D410*C410</f>
-        <v/>
-      </c>
+      <c r="Q410" t="inlineStr"/>
+      <c r="R410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -30711,6 +28303,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -30721,14 +28314,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q411">
-        <f>D411*C411</f>
-        <v/>
-      </c>
-      <c r="R411">
-        <f>D411*C411</f>
-        <v/>
-      </c>
+      <c r="Q411" t="inlineStr"/>
+      <c r="R411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -30795,14 +28382,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q412">
-        <f>D412*C412</f>
-        <v/>
-      </c>
-      <c r="R412">
-        <f>D412*C412</f>
-        <v/>
-      </c>
+      <c r="Q412" t="inlineStr"/>
+      <c r="R412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -30869,14 +28450,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q413">
-        <f>D413*C413</f>
-        <v/>
-      </c>
-      <c r="R413">
-        <f>D413*C413</f>
-        <v/>
-      </c>
+      <c r="Q413" t="inlineStr"/>
+      <c r="R413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -30943,14 +28518,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q414">
-        <f>D414*C414</f>
-        <v/>
-      </c>
-      <c r="R414">
-        <f>D414*C414</f>
-        <v/>
-      </c>
+      <c r="Q414" t="inlineStr"/>
+      <c r="R414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -31017,14 +28586,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q415">
-        <f>D415*C415</f>
-        <v/>
-      </c>
-      <c r="R415">
-        <f>D415*C415</f>
-        <v/>
-      </c>
+      <c r="Q415" t="inlineStr"/>
+      <c r="R415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -31091,14 +28654,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q416">
-        <f>D416*C416</f>
-        <v/>
-      </c>
-      <c r="R416">
-        <f>D416*C416</f>
-        <v/>
-      </c>
+      <c r="Q416" t="inlineStr"/>
+      <c r="R416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -31165,14 +28722,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q417">
-        <f>D417*C417</f>
-        <v/>
-      </c>
-      <c r="R417">
-        <f>D417*C417</f>
-        <v/>
-      </c>
+      <c r="Q417" t="inlineStr"/>
+      <c r="R417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -31239,14 +28790,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q418">
-        <f>D418*C418</f>
-        <v/>
-      </c>
-      <c r="R418">
-        <f>D418*C418</f>
-        <v/>
-      </c>
+      <c r="Q418" t="inlineStr"/>
+      <c r="R418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -31300,6 +28845,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -31310,14 +28856,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q419">
-        <f>D419*C419</f>
-        <v/>
-      </c>
-      <c r="R419">
-        <f>D419*C419</f>
-        <v/>
-      </c>
+      <c r="Q419" t="inlineStr"/>
+      <c r="R419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -31384,14 +28924,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q420">
-        <f>D420*C420</f>
-        <v/>
-      </c>
-      <c r="R420">
-        <f>D420*C420</f>
-        <v/>
-      </c>
+      <c r="Q420" t="inlineStr"/>
+      <c r="R420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -31458,14 +28992,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q421">
-        <f>D421*C421</f>
-        <v/>
-      </c>
-      <c r="R421">
-        <f>D421*C421</f>
-        <v/>
-      </c>
+      <c r="Q421" t="inlineStr"/>
+      <c r="R421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -31532,14 +29060,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q422">
-        <f>D422*C422</f>
-        <v/>
-      </c>
-      <c r="R422">
-        <f>D422*C422</f>
-        <v/>
-      </c>
+      <c r="Q422" t="inlineStr"/>
+      <c r="R422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -31606,14 +29128,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q423">
-        <f>D423*C423</f>
-        <v/>
-      </c>
-      <c r="R423">
-        <f>D423*C423</f>
-        <v/>
-      </c>
+      <c r="Q423" t="inlineStr"/>
+      <c r="R423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -31680,14 +29196,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q424">
-        <f>D424*C424</f>
-        <v/>
-      </c>
-      <c r="R424">
-        <f>D424*C424</f>
-        <v/>
-      </c>
+      <c r="Q424" t="inlineStr"/>
+      <c r="R424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -31741,6 +29251,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -31751,14 +29262,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q425">
-        <f>D425*C425</f>
-        <v/>
-      </c>
-      <c r="R425">
-        <f>D425*C425</f>
-        <v/>
-      </c>
+      <c r="Q425" t="inlineStr"/>
+      <c r="R425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -31825,14 +29330,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q426">
-        <f>D426*C426</f>
-        <v/>
-      </c>
-      <c r="R426">
-        <f>D426*C426</f>
-        <v/>
-      </c>
+      <c r="Q426" t="inlineStr"/>
+      <c r="R426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -31899,14 +29398,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q427">
-        <f>D427*C427</f>
-        <v/>
-      </c>
-      <c r="R427">
-        <f>D427*C427</f>
-        <v/>
-      </c>
+      <c r="Q427" t="inlineStr"/>
+      <c r="R427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -31973,14 +29466,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q428">
-        <f>D428*C428</f>
-        <v/>
-      </c>
-      <c r="R428">
-        <f>D428*C428</f>
-        <v/>
-      </c>
+      <c r="Q428" t="inlineStr"/>
+      <c r="R428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -32047,14 +29534,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q429">
-        <f>D429*C429</f>
-        <v/>
-      </c>
-      <c r="R429">
-        <f>D429*C429</f>
-        <v/>
-      </c>
+      <c r="Q429" t="inlineStr"/>
+      <c r="R429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -32121,14 +29602,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q430">
-        <f>D430*C430</f>
-        <v/>
-      </c>
-      <c r="R430">
-        <f>D430*C430</f>
-        <v/>
-      </c>
+      <c r="Q430" t="inlineStr"/>
+      <c r="R430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -32195,14 +29670,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q431">
-        <f>D431*C431</f>
-        <v/>
-      </c>
-      <c r="R431">
-        <f>D431*C431</f>
-        <v/>
-      </c>
+      <c r="Q431" t="inlineStr"/>
+      <c r="R431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -32269,14 +29738,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q432">
-        <f>D432*C432</f>
-        <v/>
-      </c>
-      <c r="R432">
-        <f>D432*C432</f>
-        <v/>
-      </c>
+      <c r="Q432" t="inlineStr"/>
+      <c r="R432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -32343,14 +29806,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q433">
-        <f>D433*C433</f>
-        <v/>
-      </c>
-      <c r="R433">
-        <f>D433*C433</f>
-        <v/>
-      </c>
+      <c r="Q433" t="inlineStr"/>
+      <c r="R433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -32417,14 +29874,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q434">
-        <f>D434*C434</f>
-        <v/>
-      </c>
-      <c r="R434">
-        <f>D434*C434</f>
-        <v/>
-      </c>
+      <c r="Q434" t="inlineStr"/>
+      <c r="R434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -32491,14 +29942,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q435">
-        <f>D435*C435</f>
-        <v/>
-      </c>
-      <c r="R435">
-        <f>D435*C435</f>
-        <v/>
-      </c>
+      <c r="Q435" t="inlineStr"/>
+      <c r="R435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -32565,14 +30010,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q436">
-        <f>D436*C436</f>
-        <v/>
-      </c>
-      <c r="R436">
-        <f>D436*C436</f>
-        <v/>
-      </c>
+      <c r="Q436" t="inlineStr"/>
+      <c r="R436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -32639,14 +30078,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q437">
-        <f>D437*C437</f>
-        <v/>
-      </c>
-      <c r="R437">
-        <f>D437*C437</f>
-        <v/>
-      </c>
+      <c r="Q437" t="inlineStr"/>
+      <c r="R437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -32713,14 +30146,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q438">
-        <f>D438*C438</f>
-        <v/>
-      </c>
-      <c r="R438">
-        <f>D438*C438</f>
-        <v/>
-      </c>
+      <c r="Q438" t="inlineStr"/>
+      <c r="R438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -32774,6 +30201,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N439" t="inlineStr"/>
       <c r="O439" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -32784,14 +30212,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q439">
-        <f>D439*C439</f>
-        <v/>
-      </c>
-      <c r="R439">
-        <f>D439*C439</f>
-        <v/>
-      </c>
+      <c r="Q439" t="inlineStr"/>
+      <c r="R439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -32858,14 +30280,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q440">
-        <f>D440*C440</f>
-        <v/>
-      </c>
-      <c r="R440">
-        <f>D440*C440</f>
-        <v/>
-      </c>
+      <c r="Q440" t="inlineStr"/>
+      <c r="R440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -32932,14 +30348,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q441">
-        <f>D441*C441</f>
-        <v/>
-      </c>
-      <c r="R441">
-        <f>D441*C441</f>
-        <v/>
-      </c>
+      <c r="Q441" t="inlineStr"/>
+      <c r="R441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -33006,14 +30416,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q442">
-        <f>D442*C442</f>
-        <v/>
-      </c>
-      <c r="R442">
-        <f>D442*C442</f>
-        <v/>
-      </c>
+      <c r="Q442" t="inlineStr"/>
+      <c r="R442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -33080,14 +30484,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q443">
-        <f>D443*C443</f>
-        <v/>
-      </c>
-      <c r="R443">
-        <f>D443*C443</f>
-        <v/>
-      </c>
+      <c r="Q443" t="inlineStr"/>
+      <c r="R443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -33154,14 +30552,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q444">
-        <f>D444*C444</f>
-        <v/>
-      </c>
-      <c r="R444">
-        <f>D444*C444</f>
-        <v/>
-      </c>
+      <c r="Q444" t="inlineStr"/>
+      <c r="R444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -33228,14 +30620,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q445">
-        <f>D445*C445</f>
-        <v/>
-      </c>
-      <c r="R445">
-        <f>D445*C445</f>
-        <v/>
-      </c>
+      <c r="Q445" t="inlineStr"/>
+      <c r="R445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -33302,14 +30688,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q446">
-        <f>D446*C446</f>
-        <v/>
-      </c>
-      <c r="R446">
-        <f>D446*C446</f>
-        <v/>
-      </c>
+      <c r="Q446" t="inlineStr"/>
+      <c r="R446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -33363,6 +30743,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -33373,14 +30754,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q447">
-        <f>D447*C447</f>
-        <v/>
-      </c>
-      <c r="R447">
-        <f>D447*C447</f>
-        <v/>
-      </c>
+      <c r="Q447" t="inlineStr"/>
+      <c r="R447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -33447,14 +30822,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q448">
-        <f>D448*C448</f>
-        <v/>
-      </c>
-      <c r="R448">
-        <f>D448*C448</f>
-        <v/>
-      </c>
+      <c r="Q448" t="inlineStr"/>
+      <c r="R448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -33521,14 +30890,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q449">
-        <f>D449*C449</f>
-        <v/>
-      </c>
-      <c r="R449">
-        <f>D449*C449</f>
-        <v/>
-      </c>
+      <c r="Q449" t="inlineStr"/>
+      <c r="R449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -33595,14 +30958,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q450">
-        <f>D450*C450</f>
-        <v/>
-      </c>
-      <c r="R450">
-        <f>D450*C450</f>
-        <v/>
-      </c>
+      <c r="Q450" t="inlineStr"/>
+      <c r="R450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -33669,14 +31026,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q451">
-        <f>D451*C451</f>
-        <v/>
-      </c>
-      <c r="R451">
-        <f>D451*C451</f>
-        <v/>
-      </c>
+      <c r="Q451" t="inlineStr"/>
+      <c r="R451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -33743,14 +31094,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q452">
-        <f>D452*C452</f>
-        <v/>
-      </c>
-      <c r="R452">
-        <f>D452*C452</f>
-        <v/>
-      </c>
+      <c r="Q452" t="inlineStr"/>
+      <c r="R452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -33817,14 +31162,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q453">
-        <f>D453*C453</f>
-        <v/>
-      </c>
-      <c r="R453">
-        <f>D453*C453</f>
-        <v/>
-      </c>
+      <c r="Q453" t="inlineStr"/>
+      <c r="R453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -33891,14 +31230,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q454">
-        <f>D454*C454</f>
-        <v/>
-      </c>
-      <c r="R454">
-        <f>D454*C454</f>
-        <v/>
-      </c>
+      <c r="Q454" t="inlineStr"/>
+      <c r="R454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -33965,14 +31298,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q455">
-        <f>D455*C455</f>
-        <v/>
-      </c>
-      <c r="R455">
-        <f>D455*C455</f>
-        <v/>
-      </c>
+      <c r="Q455" t="inlineStr"/>
+      <c r="R455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -34039,14 +31366,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q456">
-        <f>D456*C456</f>
-        <v/>
-      </c>
-      <c r="R456">
-        <f>D456*C456</f>
-        <v/>
-      </c>
+      <c r="Q456" t="inlineStr"/>
+      <c r="R456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -34113,14 +31434,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q457">
-        <f>D457*C457</f>
-        <v/>
-      </c>
-      <c r="R457">
-        <f>D457*C457</f>
-        <v/>
-      </c>
+      <c r="Q457" t="inlineStr"/>
+      <c r="R457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -34187,14 +31502,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q458">
-        <f>D458*C458</f>
-        <v/>
-      </c>
-      <c r="R458">
-        <f>D458*C458</f>
-        <v/>
-      </c>
+      <c r="Q458" t="inlineStr"/>
+      <c r="R458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -34261,14 +31570,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q459">
-        <f>D459*C459</f>
-        <v/>
-      </c>
-      <c r="R459">
-        <f>D459*C459</f>
-        <v/>
-      </c>
+      <c r="Q459" t="inlineStr"/>
+      <c r="R459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -34335,14 +31638,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q460">
-        <f>D460*C460</f>
-        <v/>
-      </c>
-      <c r="R460">
-        <f>D460*C460</f>
-        <v/>
-      </c>
+      <c r="Q460" t="inlineStr"/>
+      <c r="R460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -34409,14 +31706,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q461">
-        <f>D461*C461</f>
-        <v/>
-      </c>
-      <c r="R461">
-        <f>D461*C461</f>
-        <v/>
-      </c>
+      <c r="Q461" t="inlineStr"/>
+      <c r="R461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -34483,14 +31774,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q462">
-        <f>D462*C462</f>
-        <v/>
-      </c>
-      <c r="R462">
-        <f>D462*C462</f>
-        <v/>
-      </c>
+      <c r="Q462" t="inlineStr"/>
+      <c r="R462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -34557,14 +31842,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q463">
-        <f>D463*C463</f>
-        <v/>
-      </c>
-      <c r="R463">
-        <f>D463*C463</f>
-        <v/>
-      </c>
+      <c r="Q463" t="inlineStr"/>
+      <c r="R463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -34631,14 +31910,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q464">
-        <f>D464*C464</f>
-        <v/>
-      </c>
-      <c r="R464">
-        <f>D464*C464</f>
-        <v/>
-      </c>
+      <c r="Q464" t="inlineStr"/>
+      <c r="R464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -34705,14 +31978,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q465">
-        <f>D465*C465</f>
-        <v/>
-      </c>
-      <c r="R465">
-        <f>D465*C465</f>
-        <v/>
-      </c>
+      <c r="Q465" t="inlineStr"/>
+      <c r="R465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -34766,6 +32033,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -34776,14 +32044,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q466">
-        <f>D466*C466</f>
-        <v/>
-      </c>
-      <c r="R466">
-        <f>D466*C466</f>
-        <v/>
-      </c>
+      <c r="Q466" t="inlineStr"/>
+      <c r="R466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -34850,14 +32112,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q467">
-        <f>D467*C467</f>
-        <v/>
-      </c>
-      <c r="R467">
-        <f>D467*C467</f>
-        <v/>
-      </c>
+      <c r="Q467" t="inlineStr"/>
+      <c r="R467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -34924,14 +32180,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q468">
-        <f>D468*C468</f>
-        <v/>
-      </c>
-      <c r="R468">
-        <f>D468*C468</f>
-        <v/>
-      </c>
+      <c r="Q468" t="inlineStr"/>
+      <c r="R468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -34998,14 +32248,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q469">
-        <f>D469*C469</f>
-        <v/>
-      </c>
-      <c r="R469">
-        <f>D469*C469</f>
-        <v/>
-      </c>
+      <c r="Q469" t="inlineStr"/>
+      <c r="R469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -35072,14 +32316,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q470">
-        <f>D470*C470</f>
-        <v/>
-      </c>
-      <c r="R470">
-        <f>D470*C470</f>
-        <v/>
-      </c>
+      <c r="Q470" t="inlineStr"/>
+      <c r="R470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -35146,14 +32384,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q471">
-        <f>D471*C471</f>
-        <v/>
-      </c>
-      <c r="R471">
-        <f>D471*C471</f>
-        <v/>
-      </c>
+      <c r="Q471" t="inlineStr"/>
+      <c r="R471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -35220,14 +32452,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q472">
-        <f>D472*C472</f>
-        <v/>
-      </c>
-      <c r="R472">
-        <f>D472*C472</f>
-        <v/>
-      </c>
+      <c r="Q472" t="inlineStr"/>
+      <c r="R472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -35294,14 +32520,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q473">
-        <f>D473*C473</f>
-        <v/>
-      </c>
-      <c r="R473">
-        <f>D473*C473</f>
-        <v/>
-      </c>
+      <c r="Q473" t="inlineStr"/>
+      <c r="R473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -35368,14 +32588,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q474">
-        <f>D474*C474</f>
-        <v/>
-      </c>
-      <c r="R474">
-        <f>D474*C474</f>
-        <v/>
-      </c>
+      <c r="Q474" t="inlineStr"/>
+      <c r="R474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -35442,14 +32656,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q475">
-        <f>D475*C475</f>
-        <v/>
-      </c>
-      <c r="R475">
-        <f>D475*C475</f>
-        <v/>
-      </c>
+      <c r="Q475" t="inlineStr"/>
+      <c r="R475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -35516,14 +32724,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q476">
-        <f>D476*C476</f>
-        <v/>
-      </c>
-      <c r="R476">
-        <f>D476*C476</f>
-        <v/>
-      </c>
+      <c r="Q476" t="inlineStr"/>
+      <c r="R476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -35590,14 +32792,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q477">
-        <f>D477*C477</f>
-        <v/>
-      </c>
-      <c r="R477">
-        <f>D477*C477</f>
-        <v/>
-      </c>
+      <c r="Q477" t="inlineStr"/>
+      <c r="R477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -35664,14 +32860,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q478">
-        <f>D478*C478</f>
-        <v/>
-      </c>
-      <c r="R478">
-        <f>D478*C478</f>
-        <v/>
-      </c>
+      <c r="Q478" t="inlineStr"/>
+      <c r="R478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -35738,14 +32928,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q479">
-        <f>D479*C479</f>
-        <v/>
-      </c>
-      <c r="R479">
-        <f>D479*C479</f>
-        <v/>
-      </c>
+      <c r="Q479" t="inlineStr"/>
+      <c r="R479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -35812,14 +32996,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q480">
-        <f>D480*C480</f>
-        <v/>
-      </c>
-      <c r="R480">
-        <f>D480*C480</f>
-        <v/>
-      </c>
+      <c r="Q480" t="inlineStr"/>
+      <c r="R480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -35886,14 +33064,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q481">
-        <f>D481*C481</f>
-        <v/>
-      </c>
-      <c r="R481">
-        <f>D481*C481</f>
-        <v/>
-      </c>
+      <c r="Q481" t="inlineStr"/>
+      <c r="R481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -35960,14 +33132,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q482">
-        <f>D482*C482</f>
-        <v/>
-      </c>
-      <c r="R482">
-        <f>D482*C482</f>
-        <v/>
-      </c>
+      <c r="Q482" t="inlineStr"/>
+      <c r="R482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -36034,14 +33200,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q483">
-        <f>D483*C483</f>
-        <v/>
-      </c>
-      <c r="R483">
-        <f>D483*C483</f>
-        <v/>
-      </c>
+      <c r="Q483" t="inlineStr"/>
+      <c r="R483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -36108,14 +33268,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q484">
-        <f>D484*C484</f>
-        <v/>
-      </c>
-      <c r="R484">
-        <f>D484*C484</f>
-        <v/>
-      </c>
+      <c r="Q484" t="inlineStr"/>
+      <c r="R484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -36182,14 +33336,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q485">
-        <f>D485*C485</f>
-        <v/>
-      </c>
-      <c r="R485">
-        <f>D485*C485</f>
-        <v/>
-      </c>
+      <c r="Q485" t="inlineStr"/>
+      <c r="R485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -36256,14 +33404,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q486">
-        <f>D486*C486</f>
-        <v/>
-      </c>
-      <c r="R486">
-        <f>D486*C486</f>
-        <v/>
-      </c>
+      <c r="Q486" t="inlineStr"/>
+      <c r="R486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -36330,14 +33472,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q487">
-        <f>D487*C487</f>
-        <v/>
-      </c>
-      <c r="R487">
-        <f>D487*C487</f>
-        <v/>
-      </c>
+      <c r="Q487" t="inlineStr"/>
+      <c r="R487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -36404,14 +33540,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q488">
-        <f>D488*C488</f>
-        <v/>
-      </c>
-      <c r="R488">
-        <f>D488*C488</f>
-        <v/>
-      </c>
+      <c r="Q488" t="inlineStr"/>
+      <c r="R488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -36478,14 +33608,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q489">
-        <f>D489*C489</f>
-        <v/>
-      </c>
-      <c r="R489">
-        <f>D489*C489</f>
-        <v/>
-      </c>
+      <c r="Q489" t="inlineStr"/>
+      <c r="R489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -36552,14 +33676,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q490">
-        <f>D490*C490</f>
-        <v/>
-      </c>
-      <c r="R490">
-        <f>D490*C490</f>
-        <v/>
-      </c>
+      <c r="Q490" t="inlineStr"/>
+      <c r="R490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -36626,14 +33744,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q491">
-        <f>D491*C491</f>
-        <v/>
-      </c>
-      <c r="R491">
-        <f>D491*C491</f>
-        <v/>
-      </c>
+      <c r="Q491" t="inlineStr"/>
+      <c r="R491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -36700,14 +33812,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q492">
-        <f>D492*C492</f>
-        <v/>
-      </c>
-      <c r="R492">
-        <f>D492*C492</f>
-        <v/>
-      </c>
+      <c r="Q492" t="inlineStr"/>
+      <c r="R492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -36774,14 +33880,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q493">
-        <f>D493*C493</f>
-        <v/>
-      </c>
-      <c r="R493">
-        <f>D493*C493</f>
-        <v/>
-      </c>
+      <c r="Q493" t="inlineStr"/>
+      <c r="R493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -36848,14 +33948,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q494">
-        <f>D494*C494</f>
-        <v/>
-      </c>
-      <c r="R494">
-        <f>D494*C494</f>
-        <v/>
-      </c>
+      <c r="Q494" t="inlineStr"/>
+      <c r="R494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -36922,14 +34016,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q495">
-        <f>D495*C495</f>
-        <v/>
-      </c>
-      <c r="R495">
-        <f>D495*C495</f>
-        <v/>
-      </c>
+      <c r="Q495" t="inlineStr"/>
+      <c r="R495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -36983,6 +34071,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -36993,14 +34082,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q496">
-        <f>D496*C496</f>
-        <v/>
-      </c>
-      <c r="R496">
-        <f>D496*C496</f>
-        <v/>
-      </c>
+      <c r="Q496" t="inlineStr"/>
+      <c r="R496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -37067,14 +34150,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q497">
-        <f>D497*C497</f>
-        <v/>
-      </c>
-      <c r="R497">
-        <f>D497*C497</f>
-        <v/>
-      </c>
+      <c r="Q497" t="inlineStr"/>
+      <c r="R497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -37141,14 +34218,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q498">
-        <f>D498*C498</f>
-        <v/>
-      </c>
-      <c r="R498">
-        <f>D498*C498</f>
-        <v/>
-      </c>
+      <c r="Q498" t="inlineStr"/>
+      <c r="R498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -37215,14 +34286,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q499">
-        <f>D499*C499</f>
-        <v/>
-      </c>
-      <c r="R499">
-        <f>D499*C499</f>
-        <v/>
-      </c>
+      <c r="Q499" t="inlineStr"/>
+      <c r="R499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -37276,6 +34341,7 @@
           <t>CA</t>
         </is>
       </c>
+      <c r="N500" t="inlineStr"/>
       <c r="O500" t="inlineStr">
         <is>
           <t>EUA</t>
@@ -37286,14 +34352,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q500">
-        <f>D500*C500</f>
-        <v/>
-      </c>
-      <c r="R500">
-        <f>D500*C500</f>
-        <v/>
-      </c>
+      <c r="Q500" t="inlineStr"/>
+      <c r="R500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -37360,14 +34420,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q501">
-        <f>D501*C501</f>
-        <v/>
-      </c>
-      <c r="R501">
-        <f>D501*C501</f>
-        <v/>
-      </c>
+      <c r="Q501" t="inlineStr"/>
+      <c r="R501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -37434,14 +34488,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q502">
-        <f>D502*C502</f>
-        <v/>
-      </c>
-      <c r="R502">
-        <f>D502*C502</f>
-        <v/>
-      </c>
+      <c r="Q502" t="inlineStr"/>
+      <c r="R502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -37508,14 +34556,8 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q503">
-        <f>D503*C503</f>
-        <v/>
-      </c>
-      <c r="R503">
-        <f>D503*C503</f>
-        <v/>
-      </c>
+      <c r="Q503" t="inlineStr"/>
+      <c r="R503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -37582,14 +34624,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q504">
-        <f>D504*C504</f>
-        <v/>
-      </c>
-      <c r="R504">
-        <f>D504*C504</f>
-        <v/>
-      </c>
+      <c r="Q504" t="inlineStr"/>
+      <c r="R504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -37656,14 +34692,8 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q505">
-        <f>D505*C505</f>
-        <v/>
-      </c>
-      <c r="R505">
-        <f>D505*C505</f>
-        <v/>
-      </c>
+      <c r="Q505" t="inlineStr"/>
+      <c r="R505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -37730,14 +34760,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q506">
-        <f>D506*C506</f>
-        <v/>
-      </c>
-      <c r="R506">
-        <f>D506*C506</f>
-        <v/>
-      </c>
+      <c r="Q506" t="inlineStr"/>
+      <c r="R506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -37804,96 +34828,222 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q507">
-        <f>D507*C507</f>
-        <v/>
-      </c>
-      <c r="R507">
-        <f>D507*C507</f>
-        <v/>
-      </c>
+      <c r="Q507" t="inlineStr"/>
+      <c r="R507" t="inlineStr"/>
     </row>
     <row r="508">
+      <c r="A508" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>10012</v>
+      </c>
       <c r="C508" t="n">
-        <v>49</v>
-      </c>
-      <c r="D508" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+        <v>170</v>
+      </c>
+      <c r="D508" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="E508" t="n">
+        <v>12</v>
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>1/1/2000</t>
-        </is>
+          <t>17/6/2024</t>
+        </is>
+      </c>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="H508" t="n">
+        <v>2</v>
+      </c>
+      <c r="I508" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="J508" t="n">
+        <v>2024</v>
       </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>Motorcycles</t>
         </is>
       </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>S10_1678</t>
+        </is>
+      </c>
+      <c r="M508" t="inlineStr">
+        <is>
+          <t>AK</t>
+        </is>
+      </c>
+      <c r="N508" t="n">
+        <v>83750000</v>
+      </c>
+      <c r="O508" t="inlineStr">
+        <is>
+          <t>EUA</t>
+        </is>
+      </c>
+      <c r="P508" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="Q508" t="inlineStr"/>
+      <c r="R508" t="inlineStr"/>
     </row>
     <row r="509">
+      <c r="A509" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>1000</v>
+      </c>
       <c r="C509" t="n">
-        <v>49</v>
-      </c>
-      <c r="D509" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+        <v>150</v>
+      </c>
+      <c r="D509" t="n">
+        <v>10</v>
+      </c>
+      <c r="E509" t="n">
+        <v>15</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>1/1/2000</t>
-        </is>
+          <t>17/6/2024</t>
+        </is>
+      </c>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="H509" t="n">
+        <v>2</v>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="J509" t="n">
+        <v>2024</v>
       </c>
       <c r="K509" t="inlineStr">
         <is>
-          <t>Motorcycles</t>
-        </is>
+          <t>Classic Cars</t>
+        </is>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>S10_1949</t>
+        </is>
+      </c>
+      <c r="M509" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="N509" t="n">
+        <v>83750000</v>
+      </c>
+      <c r="O509" t="inlineStr">
+        <is>
+          <t>EUA</t>
+        </is>
+      </c>
+      <c r="P509" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="Q509" t="n">
+        <v>1500</v>
+      </c>
+      <c r="R509" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>1002</v>
+      </c>
       <c r="C510" t="n">
-        <v>1</v>
-      </c>
-      <c r="D510" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+        <v>175</v>
+      </c>
+      <c r="D510" t="n">
+        <v>10</v>
+      </c>
+      <c r="E510" t="n">
+        <v>3</v>
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>1/1/2000</t>
-        </is>
+          <t>17/6/2024</t>
+        </is>
+      </c>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>Shipped</t>
+        </is>
+      </c>
+      <c r="H510" t="n">
+        <v>2</v>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>Jun</t>
+        </is>
+      </c>
+      <c r="J510" t="n">
+        <v>2024</v>
       </c>
       <c r="K510" t="inlineStr">
         <is>
-          <t>Motorcycles</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="C511" t="n">
-        <v>50</v>
-      </c>
-      <c r="D511" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="F511" t="inlineStr">
-        <is>
-          <t>10/12/2024</t>
-        </is>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>Trains</t>
-        </is>
+          <t>Classic Cars</t>
+        </is>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>S10_1949</t>
+        </is>
+      </c>
+      <c r="M510" t="inlineStr">
+        <is>
+          <t>AZ</t>
+        </is>
+      </c>
+      <c r="N510" t="n">
+        <v>875200</v>
+      </c>
+      <c r="O510" t="inlineStr">
+        <is>
+          <t>EUA</t>
+        </is>
+      </c>
+      <c r="P510" t="inlineStr">
+        <is>
+          <t>Small</t>
+        </is>
+      </c>
+      <c r="Q510" t="n">
+        <v>1750</v>
+      </c>
+      <c r="R510" t="n">
+        <v>1750</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/sales.xlsx
+++ b/sales.xlsx
@@ -590,8 +590,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="Q2" t="n">
+        <v>2871</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2871</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -658,8 +662,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="Q3" t="n">
+        <v>3746.7</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3746.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -724,8 +732,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -792,8 +804,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>3479.76</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3479.76</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -858,8 +874,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
+      <c r="Q6" t="n">
+        <v>2168.54</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2168.54</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -926,8 +946,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="Q7" t="n">
+        <v>2300</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2300</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -994,8 +1018,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
+      <c r="Q8" t="n">
+        <v>2800</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2800</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1062,8 +1090,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
+      <c r="Q9" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3400</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1130,8 +1162,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>3600</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3600</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1198,8 +1234,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
+      <c r="Q11" t="n">
+        <v>4358.04</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4358.04</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1266,8 +1306,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
+      <c r="Q12" t="n">
+        <v>4200</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4200</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1334,8 +1378,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>3207.12</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3207.12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1402,8 +1450,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>3700</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3700</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1470,8 +1522,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1538,8 +1594,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>2300</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2300</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1606,8 +1666,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>3500</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1674,8 +1738,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>2900</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2900</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1742,8 +1810,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3400</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1810,8 +1882,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1878,8 +1954,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>4000</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1944,8 +2024,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>2600</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2600</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2012,8 +2096,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>3200</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3200</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2080,8 +2168,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2146,8 +2238,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>3600</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3600</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2214,8 +2310,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>3896.49</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3896.49</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2282,8 +2382,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>3700</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3700</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2348,8 +2452,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>3700</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3700</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2416,8 +2524,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2482,8 +2594,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2400</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2550,8 +2666,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>2200</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2200</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2618,8 +2738,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>4400</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4400</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2686,8 +2810,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>4000</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2754,8 +2882,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>4700</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4700</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2822,8 +2954,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3400</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2890,8 +3026,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>4500</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2958,8 +3098,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3026,8 +3170,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="Q38" t="n">
+        <v>2225.5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2225.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3094,8 +3242,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3162,8 +3314,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3228,8 +3384,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
+      <c r="Q41" t="n">
+        <v>2200</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2200</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3296,8 +3456,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3362,8 +3526,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3430,8 +3598,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>3900</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3900</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3498,8 +3670,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>4300</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4300</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3566,8 +3742,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3634,8 +3814,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
+      <c r="Q47" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3702,8 +3886,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -3770,8 +3958,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
+      <c r="Q49" t="n">
+        <v>3700</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3700</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -3838,8 +4030,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>2600</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2600</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -3906,8 +4102,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>2200</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2200</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -3974,8 +4174,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
+      <c r="Q52" t="n">
+        <v>1822.17</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1822.17</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4042,8 +4246,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4108,8 +4316,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
+      <c r="Q54" t="n">
+        <v>3900</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3900</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4176,8 +4388,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4244,8 +4460,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4312,8 +4532,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2400</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4380,8 +4604,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>2200</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2200</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4448,8 +4676,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="Q59" t="n">
+        <v>1201.25</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1201.25</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4514,8 +4746,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3400</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4582,8 +4818,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>6400</v>
+      </c>
+      <c r="R61" t="n">
+        <v>6400</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4650,8 +4890,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>1900</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1900</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -4718,8 +4962,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>2600</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2600</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -4786,8 +5034,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>2800</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2800</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -4854,8 +5106,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>3100</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3100</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -4922,8 +5178,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
+      <c r="Q66" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -4990,8 +5250,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
+      <c r="Q67" t="n">
+        <v>2800</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2800</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5058,8 +5322,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
+      <c r="Q68" t="n">
+        <v>4400</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4400</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5126,8 +5394,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="Q69" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5194,8 +5466,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
+      <c r="Q70" t="n">
+        <v>2851.54</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2851.54</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5262,8 +5538,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
+      <c r="Q71" t="n">
+        <v>4300</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4300</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -5328,8 +5608,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="Q72" t="n">
+        <v>3700</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3700</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -5396,8 +5680,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
+      <c r="Q73" t="n">
+        <v>4200</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4200</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -5464,8 +5752,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="Q74" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -5530,8 +5822,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
+      <c r="Q75" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -5598,8 +5894,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
+      <c r="Q76" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -5666,8 +5966,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
+      <c r="Q77" t="n">
+        <v>2930.27</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2930.27</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -5734,8 +6038,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
+      <c r="Q78" t="n">
+        <v>4600</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -5802,8 +6110,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
+      <c r="Q79" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -5870,8 +6182,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
+      <c r="Q80" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -5938,8 +6254,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
+      <c r="Q81" t="n">
+        <v>4700</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4700</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -6006,8 +6326,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
+      <c r="Q82" t="n">
+        <v>3500</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -6074,8 +6398,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
+      <c r="Q83" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -6142,8 +6470,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
+      <c r="Q84" t="n">
+        <v>3200</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3200</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6210,8 +6542,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
+      <c r="Q85" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3400</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -6278,8 +6614,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
+      <c r="Q86" t="n">
+        <v>3600</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3600</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -6346,8 +6686,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
+      <c r="Q87" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -6414,8 +6758,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
+      <c r="Q88" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -6482,8 +6830,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
+      <c r="Q89" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -6550,8 +6902,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
+      <c r="Q90" t="n">
+        <v>2500</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -6618,8 +6974,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
+      <c r="Q91" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -6686,8 +7046,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
+      <c r="Q92" t="n">
+        <v>2500</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -6754,8 +7118,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
+      <c r="Q93" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -6820,8 +7188,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
+      <c r="Q94" t="n">
+        <v>3273.93</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3273.93</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -6888,8 +7260,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
+      <c r="Q95" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -6954,8 +7330,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
+      <c r="Q96" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -7022,8 +7402,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
+      <c r="Q97" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -7090,8 +7474,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
+      <c r="Q98" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -7156,8 +7544,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
+      <c r="Q99" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -7224,8 +7616,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
+      <c r="Q100" t="n">
+        <v>2800</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2800</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -7290,8 +7686,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
+      <c r="Q101" t="n">
+        <v>2500</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -7358,8 +7758,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
+      <c r="Q102" t="n">
+        <v>3200</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3200</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -7426,8 +7830,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
+      <c r="Q103" t="n">
+        <v>4600</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -7494,8 +7902,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
+      <c r="Q104" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -7562,8 +7974,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
+      <c r="Q105" t="n">
+        <v>4300</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4300</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -7630,8 +8046,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
+      <c r="Q106" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -7698,8 +8118,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
+      <c r="Q107" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -7766,8 +8190,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
+      <c r="Q108" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2400</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -7834,8 +8262,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
+      <c r="Q109" t="n">
+        <v>2200</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2200</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -7902,8 +8334,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
+      <c r="Q110" t="n">
+        <v>4400</v>
+      </c>
+      <c r="R110" t="n">
+        <v>4400</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -7970,8 +8406,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
+      <c r="Q111" t="n">
+        <v>4600</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -8038,8 +8478,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
+      <c r="Q112" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -8106,8 +8550,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
+      <c r="Q113" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R113" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -8174,8 +8622,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
+      <c r="Q114" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2400</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -8242,8 +8694,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
+      <c r="Q115" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -8310,8 +8766,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
+      <c r="Q116" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -8378,8 +8838,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
+      <c r="Q117" t="n">
+        <v>1466.91</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1466.91</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -8446,8 +8910,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
+      <c r="Q118" t="n">
+        <v>3700</v>
+      </c>
+      <c r="R118" t="n">
+        <v>3700</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -8514,8 +8982,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
+      <c r="Q119" t="n">
+        <v>4700</v>
+      </c>
+      <c r="R119" t="n">
+        <v>4700</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -8582,8 +9054,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
+      <c r="Q120" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R120" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -8650,8 +9126,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
+      <c r="Q121" t="n">
+        <v>3100</v>
+      </c>
+      <c r="R121" t="n">
+        <v>3100</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -8716,8 +9196,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
+      <c r="Q122" t="n">
+        <v>4600</v>
+      </c>
+      <c r="R122" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -8784,8 +9268,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
+      <c r="Q123" t="n">
+        <v>4700</v>
+      </c>
+      <c r="R123" t="n">
+        <v>4700</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -8852,8 +9340,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
+      <c r="Q124" t="n">
+        <v>3846.98</v>
+      </c>
+      <c r="R124" t="n">
+        <v>3846.98</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -8920,8 +9412,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
+      <c r="Q125" t="n">
+        <v>3500</v>
+      </c>
+      <c r="R125" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -8988,8 +9484,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
+      <c r="Q126" t="n">
+        <v>4200</v>
+      </c>
+      <c r="R126" t="n">
+        <v>4200</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -9056,8 +9556,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
+      <c r="Q127" t="n">
+        <v>4600</v>
+      </c>
+      <c r="R127" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -9124,8 +9628,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
+      <c r="Q128" t="n">
+        <v>4300</v>
+      </c>
+      <c r="R128" t="n">
+        <v>4300</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -9192,8 +9700,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
+      <c r="Q129" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R129" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -9260,8 +9772,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
+      <c r="Q130" t="n">
+        <v>3900</v>
+      </c>
+      <c r="R130" t="n">
+        <v>3900</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -9328,8 +9844,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
+      <c r="Q131" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2400</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -9396,8 +9916,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
+      <c r="Q132" t="n">
+        <v>2600</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2600</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -9464,8 +9988,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
+      <c r="Q133" t="n">
+        <v>3241.9</v>
+      </c>
+      <c r="R133" t="n">
+        <v>3241.9</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -9532,8 +10060,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
+      <c r="Q134" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R134" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -9600,8 +10132,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
+      <c r="Q135" t="n">
+        <v>2200</v>
+      </c>
+      <c r="R135" t="n">
+        <v>2200</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -9668,8 +10204,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
+      <c r="Q136" t="n">
+        <v>1800.24</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1800.24</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -9736,8 +10276,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
+      <c r="Q137" t="n">
+        <v>1340.64</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1340.64</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -9802,8 +10346,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
+      <c r="Q138" t="n">
+        <v>1762.08</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1762.08</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -9870,8 +10418,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
+      <c r="Q139" t="n">
+        <v>3184.02</v>
+      </c>
+      <c r="R139" t="n">
+        <v>3184.02</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -9938,8 +10490,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
+      <c r="Q140" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R140" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -10006,8 +10562,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
+      <c r="Q141" t="n">
+        <v>4600</v>
+      </c>
+      <c r="R141" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -10074,8 +10634,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
+      <c r="Q142" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R142" t="n">
+        <v>2400</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -10142,8 +10706,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
+      <c r="Q143" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R143" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -10210,8 +10778,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
+      <c r="Q144" t="n">
+        <v>3384.36</v>
+      </c>
+      <c r="R144" t="n">
+        <v>3384.36</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -10278,8 +10850,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
+      <c r="Q145" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R145" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -10346,8 +10922,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
+      <c r="Q146" t="n">
+        <v>3600</v>
+      </c>
+      <c r="R146" t="n">
+        <v>3600</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -10414,8 +10994,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
+      <c r="Q147" t="n">
+        <v>3012.27</v>
+      </c>
+      <c r="R147" t="n">
+        <v>3012.27</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -10482,8 +11066,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
+      <c r="Q148" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R148" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -10550,8 +11138,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
+      <c r="Q149" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R149" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -10618,8 +11210,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
+      <c r="Q150" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R150" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -10686,8 +11282,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
+      <c r="Q151" t="n">
+        <v>1517.88</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1517.88</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -10754,8 +11354,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
+      <c r="Q152" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R152" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -10822,8 +11426,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
+      <c r="Q153" t="n">
+        <v>1749.79</v>
+      </c>
+      <c r="R153" t="n">
+        <v>1749.79</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -10890,8 +11498,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
+      <c r="Q154" t="n">
+        <v>2130.56</v>
+      </c>
+      <c r="R154" t="n">
+        <v>2130.56</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -10958,8 +11570,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
+      <c r="Q155" t="n">
+        <v>2838.81</v>
+      </c>
+      <c r="R155" t="n">
+        <v>2838.81</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -11026,8 +11642,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
+      <c r="Q156" t="n">
+        <v>3230.37</v>
+      </c>
+      <c r="R156" t="n">
+        <v>3230.37</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -11092,8 +11712,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
+      <c r="Q157" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R157" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -11160,8 +11784,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
+      <c r="Q158" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R158" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -11228,8 +11856,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
+      <c r="Q159" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2400</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -11296,8 +11928,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
+      <c r="Q160" t="n">
+        <v>2524.86</v>
+      </c>
+      <c r="R160" t="n">
+        <v>2524.86</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -11364,8 +12000,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
+      <c r="Q161" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R161" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -11432,8 +12072,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
+      <c r="Q162" t="n">
+        <v>3200</v>
+      </c>
+      <c r="R162" t="n">
+        <v>3200</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -11500,8 +12144,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
+      <c r="Q163" t="n">
+        <v>2033.64</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2033.64</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -11568,8 +12216,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
+      <c r="Q164" t="n">
+        <v>4600</v>
+      </c>
+      <c r="R164" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -11636,8 +12288,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
+      <c r="Q165" t="n">
+        <v>3200</v>
+      </c>
+      <c r="R165" t="n">
+        <v>3200</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -11704,8 +12360,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
+      <c r="Q166" t="n">
+        <v>2900</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2900</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -11772,8 +12432,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
+      <c r="Q167" t="n">
+        <v>3200</v>
+      </c>
+      <c r="R167" t="n">
+        <v>3200</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -11840,8 +12504,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
+      <c r="Q168" t="n">
+        <v>2200</v>
+      </c>
+      <c r="R168" t="n">
+        <v>2200</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -11906,8 +12574,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
+      <c r="Q169" t="n">
+        <v>1167.25</v>
+      </c>
+      <c r="R169" t="n">
+        <v>1167.25</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -11974,8 +12646,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
+      <c r="Q170" t="n">
+        <v>3822</v>
+      </c>
+      <c r="R170" t="n">
+        <v>3822</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -12040,8 +12716,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
+      <c r="Q171" t="n">
+        <v>4704</v>
+      </c>
+      <c r="R171" t="n">
+        <v>4704</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -12108,8 +12788,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
+      <c r="Q172" t="n">
+        <v>2600</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2600</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -12176,8 +12860,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
+      <c r="Q173" t="n">
+        <v>2200</v>
+      </c>
+      <c r="R173" t="n">
+        <v>2200</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -12244,8 +12932,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
+      <c r="Q174" t="n">
+        <v>4200</v>
+      </c>
+      <c r="R174" t="n">
+        <v>4200</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -12312,8 +13004,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
+      <c r="Q175" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R175" t="n">
+        <v>3400</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -12380,8 +13076,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
+      <c r="Q176" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R176" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -12448,8 +13148,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
+      <c r="Q177" t="n">
+        <v>4600</v>
+      </c>
+      <c r="R177" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -12516,8 +13220,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
+      <c r="Q178" t="n">
+        <v>2611.8</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2611.8</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -12584,8 +13292,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
+      <c r="Q179" t="n">
+        <v>3375.72</v>
+      </c>
+      <c r="R179" t="n">
+        <v>3375.72</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -12652,8 +13364,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
+      <c r="Q180" t="n">
+        <v>3900</v>
+      </c>
+      <c r="R180" t="n">
+        <v>3900</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -12718,8 +13434,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
+      <c r="Q181" t="n">
+        <v>3288.78</v>
+      </c>
+      <c r="R181" t="n">
+        <v>3288.78</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -12786,8 +13506,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
+      <c r="Q182" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R182" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -12852,8 +13576,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
+      <c r="Q183" t="n">
+        <v>4389.12</v>
+      </c>
+      <c r="R183" t="n">
+        <v>4389.12</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -12920,8 +13648,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
+      <c r="Q184" t="n">
+        <v>2183.25</v>
+      </c>
+      <c r="R184" t="n">
+        <v>2183.25</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -12988,8 +13720,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
+      <c r="Q185" t="n">
+        <v>2413.26</v>
+      </c>
+      <c r="R185" t="n">
+        <v>2413.26</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -13056,8 +13792,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
+      <c r="Q186" t="n">
+        <v>3843.34</v>
+      </c>
+      <c r="R186" t="n">
+        <v>3843.34</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -13124,8 +13864,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
+      <c r="Q187" t="n">
+        <v>3710.9</v>
+      </c>
+      <c r="R187" t="n">
+        <v>3710.9</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -13192,8 +13936,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
+      <c r="Q188" t="n">
+        <v>1516.62</v>
+      </c>
+      <c r="R188" t="n">
+        <v>1516.62</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -13260,8 +14008,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
+      <c r="Q189" t="n">
+        <v>4400</v>
+      </c>
+      <c r="R189" t="n">
+        <v>4400</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -13328,8 +14080,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
+      <c r="Q190" t="n">
+        <v>4873.05</v>
+      </c>
+      <c r="R190" t="n">
+        <v>4873.05</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -13396,8 +14152,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
+      <c r="Q191" t="n">
+        <v>2055.74</v>
+      </c>
+      <c r="R191" t="n">
+        <v>2055.74</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -13462,8 +14222,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
+      <c r="Q192" t="n">
+        <v>2354.88</v>
+      </c>
+      <c r="R192" t="n">
+        <v>2354.88</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -13530,8 +14294,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
+      <c r="Q193" t="n">
+        <v>1746.6</v>
+      </c>
+      <c r="R193" t="n">
+        <v>1746.6</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -13596,8 +14364,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
+      <c r="Q194" t="n">
+        <v>2304.45</v>
+      </c>
+      <c r="R194" t="n">
+        <v>2304.45</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -13664,8 +14436,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
+      <c r="Q195" t="n">
+        <v>1742.4</v>
+      </c>
+      <c r="R195" t="n">
+        <v>1742.4</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -13732,8 +14508,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
+      <c r="Q196" t="n">
+        <v>1423.29</v>
+      </c>
+      <c r="R196" t="n">
+        <v>1423.29</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -13800,8 +14580,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
+      <c r="Q197" t="n">
+        <v>1105.25</v>
+      </c>
+      <c r="R197" t="n">
+        <v>1105.25</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -13868,8 +14652,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
+      <c r="Q198" t="n">
+        <v>2364.88</v>
+      </c>
+      <c r="R198" t="n">
+        <v>2364.88</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -13936,8 +14724,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
+      <c r="Q199" t="n">
+        <v>3156.16</v>
+      </c>
+      <c r="R199" t="n">
+        <v>3156.16</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -14002,8 +14794,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
+      <c r="Q200" t="n">
+        <v>1320.75</v>
+      </c>
+      <c r="R200" t="n">
+        <v>1320.75</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -14070,8 +14866,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
+      <c r="Q201" t="n">
+        <v>1293.75</v>
+      </c>
+      <c r="R201" t="n">
+        <v>1293.75</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -14138,8 +14938,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
+      <c r="Q202" t="n">
+        <v>4200</v>
+      </c>
+      <c r="R202" t="n">
+        <v>4200</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -14206,8 +15010,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
+      <c r="Q203" t="n">
+        <v>2900</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2900</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -14274,8 +15082,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
+      <c r="Q204" t="n">
+        <v>4000</v>
+      </c>
+      <c r="R204" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -14342,8 +15154,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
+      <c r="Q205" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R205" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -14410,8 +15226,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
+      <c r="Q206" t="n">
+        <v>2300</v>
+      </c>
+      <c r="R206" t="n">
+        <v>2300</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -14478,8 +15298,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
+      <c r="Q207" t="n">
+        <v>4400</v>
+      </c>
+      <c r="R207" t="n">
+        <v>4400</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -14546,8 +15370,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
+      <c r="Q208" t="n">
+        <v>4400</v>
+      </c>
+      <c r="R208" t="n">
+        <v>4400</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -14614,8 +15442,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
+      <c r="Q209" t="n">
+        <v>2758.7</v>
+      </c>
+      <c r="R209" t="n">
+        <v>2758.7</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -14682,8 +15514,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
+      <c r="Q210" t="n">
+        <v>5900</v>
+      </c>
+      <c r="R210" t="n">
+        <v>5900</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -14750,8 +15586,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
+      <c r="Q211" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R211" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -14818,8 +15658,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
+      <c r="Q212" t="n">
+        <v>3200</v>
+      </c>
+      <c r="R212" t="n">
+        <v>3200</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -14886,8 +15730,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
+      <c r="Q213" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R213" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -14954,8 +15802,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
+      <c r="Q214" t="n">
+        <v>4500</v>
+      </c>
+      <c r="R214" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -15022,8 +15874,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
+      <c r="Q215" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R215" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -15090,8 +15946,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
+      <c r="Q216" t="n">
+        <v>3900</v>
+      </c>
+      <c r="R216" t="n">
+        <v>3900</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -15158,8 +16018,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
+      <c r="Q217" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R217" t="n">
+        <v>3400</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -15226,8 +16090,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
+      <c r="Q218" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R218" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -15294,8 +16162,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
+      <c r="Q219" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -15362,8 +16234,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
+      <c r="Q220" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R220" t="n">
+        <v>3400</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -15428,8 +16304,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
+      <c r="Q221" t="n">
+        <v>2900</v>
+      </c>
+      <c r="R221" t="n">
+        <v>2900</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -15496,8 +16376,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
+      <c r="Q222" t="n">
+        <v>4400</v>
+      </c>
+      <c r="R222" t="n">
+        <v>4400</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -15564,8 +16448,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
+      <c r="Q223" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R223" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -15632,8 +16520,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
+      <c r="Q224" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R224" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -15700,8 +16592,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
+      <c r="Q225" t="n">
+        <v>3257.76</v>
+      </c>
+      <c r="R225" t="n">
+        <v>3257.76</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -15768,8 +16664,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
+      <c r="Q226" t="n">
+        <v>3700</v>
+      </c>
+      <c r="R226" t="n">
+        <v>3700</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -15836,8 +16736,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
+      <c r="Q227" t="n">
+        <v>7600</v>
+      </c>
+      <c r="R227" t="n">
+        <v>7600</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -15904,8 +16808,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
+      <c r="Q228" t="n">
+        <v>3806.88</v>
+      </c>
+      <c r="R228" t="n">
+        <v>3806.88</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -15972,8 +16880,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
+      <c r="Q229" t="n">
+        <v>2142.14</v>
+      </c>
+      <c r="R229" t="n">
+        <v>2142.14</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -16038,8 +16950,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
+      <c r="Q230" t="n">
+        <v>3364.9</v>
+      </c>
+      <c r="R230" t="n">
+        <v>3364.9</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -16106,8 +17022,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
+      <c r="Q231" t="n">
+        <v>4088.7</v>
+      </c>
+      <c r="R231" t="n">
+        <v>4088.7</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -16174,8 +17094,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
+      <c r="Q232" t="n">
+        <v>2634.94</v>
+      </c>
+      <c r="R232" t="n">
+        <v>2634.94</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -16242,8 +17166,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
+      <c r="Q233" t="n">
+        <v>2905.98</v>
+      </c>
+      <c r="R233" t="n">
+        <v>2905.98</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -16310,8 +17238,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
+      <c r="Q234" t="n">
+        <v>2900</v>
+      </c>
+      <c r="R234" t="n">
+        <v>2900</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -16378,8 +17310,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
+      <c r="Q235" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R235" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -16446,8 +17382,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
+      <c r="Q236" t="n">
+        <v>4700</v>
+      </c>
+      <c r="R236" t="n">
+        <v>4700</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -16514,8 +17454,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
+      <c r="Q237" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R237" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -16582,8 +17526,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
+      <c r="Q238" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R238" t="n">
+        <v>2400</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -16650,8 +17598,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
+      <c r="Q239" t="n">
+        <v>2900</v>
+      </c>
+      <c r="R239" t="n">
+        <v>2900</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -16718,8 +17670,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
+      <c r="Q240" t="n">
+        <v>2500</v>
+      </c>
+      <c r="R240" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -16786,8 +17742,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
+      <c r="Q241" t="n">
+        <v>974.0999999999999</v>
+      </c>
+      <c r="R241" t="n">
+        <v>974.0999999999999</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -16854,8 +17814,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
+      <c r="Q242" t="n">
+        <v>1463.7</v>
+      </c>
+      <c r="R242" t="n">
+        <v>1463.7</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -16922,8 +17886,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
+      <c r="Q243" t="n">
+        <v>4600</v>
+      </c>
+      <c r="R243" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -16990,8 +17958,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
+      <c r="Q244" t="n">
+        <v>4500</v>
+      </c>
+      <c r="R244" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -17058,8 +18030,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
+      <c r="Q245" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R245" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -17126,8 +18102,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
+      <c r="Q246" t="n">
+        <v>4400</v>
+      </c>
+      <c r="R246" t="n">
+        <v>4400</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -17194,8 +18174,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
+      <c r="Q247" t="n">
+        <v>4300</v>
+      </c>
+      <c r="R247" t="n">
+        <v>4300</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -17262,8 +18246,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr"/>
+      <c r="Q248" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R248" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -17330,8 +18318,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q249" t="inlineStr"/>
-      <c r="R249" t="inlineStr"/>
+      <c r="Q249" t="n">
+        <v>2300</v>
+      </c>
+      <c r="R249" t="n">
+        <v>2300</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -17398,8 +18390,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q250" t="inlineStr"/>
-      <c r="R250" t="inlineStr"/>
+      <c r="Q250" t="n">
+        <v>2600</v>
+      </c>
+      <c r="R250" t="n">
+        <v>2600</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -17466,8 +18462,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q251" t="inlineStr"/>
-      <c r="R251" t="inlineStr"/>
+      <c r="Q251" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R251" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -17534,8 +18534,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q252" t="inlineStr"/>
-      <c r="R252" t="inlineStr"/>
+      <c r="Q252" t="n">
+        <v>4700</v>
+      </c>
+      <c r="R252" t="n">
+        <v>4700</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -17602,8 +18606,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q253" t="inlineStr"/>
-      <c r="R253" t="inlineStr"/>
+      <c r="Q253" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R253" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -17670,8 +18678,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q254" t="inlineStr"/>
-      <c r="R254" t="inlineStr"/>
+      <c r="Q254" t="n">
+        <v>2500</v>
+      </c>
+      <c r="R254" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -17738,8 +18750,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q255" t="inlineStr"/>
-      <c r="R255" t="inlineStr"/>
+      <c r="Q255" t="n">
+        <v>2200</v>
+      </c>
+      <c r="R255" t="n">
+        <v>2200</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -17806,8 +18822,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q256" t="inlineStr"/>
-      <c r="R256" t="inlineStr"/>
+      <c r="Q256" t="n">
+        <v>3390</v>
+      </c>
+      <c r="R256" t="n">
+        <v>3390</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -17874,8 +18894,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q257" t="inlineStr"/>
-      <c r="R257" t="inlineStr"/>
+      <c r="Q257" t="n">
+        <v>2262.96</v>
+      </c>
+      <c r="R257" t="n">
+        <v>2262.96</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -17942,8 +18966,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q258" t="inlineStr"/>
-      <c r="R258" t="inlineStr"/>
+      <c r="Q258" t="n">
+        <v>1496.64</v>
+      </c>
+      <c r="R258" t="n">
+        <v>1496.64</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -18008,8 +19036,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q259" t="inlineStr"/>
-      <c r="R259" t="inlineStr"/>
+      <c r="Q259" t="n">
+        <v>1879.74</v>
+      </c>
+      <c r="R259" t="n">
+        <v>1879.74</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -18076,8 +19108,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q260" t="inlineStr"/>
-      <c r="R260" t="inlineStr"/>
+      <c r="Q260" t="n">
+        <v>2323.7</v>
+      </c>
+      <c r="R260" t="n">
+        <v>2323.7</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -18144,8 +19180,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q261" t="inlineStr"/>
-      <c r="R261" t="inlineStr"/>
+      <c r="Q261" t="n">
+        <v>1643.12</v>
+      </c>
+      <c r="R261" t="n">
+        <v>1643.12</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -18212,8 +19252,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q262" t="inlineStr"/>
-      <c r="R262" t="inlineStr"/>
+      <c r="Q262" t="n">
+        <v>1834.5</v>
+      </c>
+      <c r="R262" t="n">
+        <v>1834.5</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -18280,8 +19324,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q263" t="inlineStr"/>
-      <c r="R263" t="inlineStr"/>
+      <c r="Q263" t="n">
+        <v>4500</v>
+      </c>
+      <c r="R263" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -18348,8 +19396,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q264" t="inlineStr"/>
-      <c r="R264" t="inlineStr"/>
+      <c r="Q264" t="n">
+        <v>3051.3</v>
+      </c>
+      <c r="R264" t="n">
+        <v>3051.3</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -18416,8 +19468,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q265" t="inlineStr"/>
-      <c r="R265" t="inlineStr"/>
+      <c r="Q265" t="n">
+        <v>4500</v>
+      </c>
+      <c r="R265" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -18484,8 +19540,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q266" t="inlineStr"/>
-      <c r="R266" t="inlineStr"/>
+      <c r="Q266" t="n">
+        <v>3500</v>
+      </c>
+      <c r="R266" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -18552,8 +19612,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q267" t="inlineStr"/>
-      <c r="R267" t="inlineStr"/>
+      <c r="Q267" t="n">
+        <v>4300</v>
+      </c>
+      <c r="R267" t="n">
+        <v>4300</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -18620,8 +19684,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q268" t="inlineStr"/>
-      <c r="R268" t="inlineStr"/>
+      <c r="Q268" t="n">
+        <v>2600</v>
+      </c>
+      <c r="R268" t="n">
+        <v>2600</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -18688,8 +19756,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q269" t="inlineStr"/>
-      <c r="R269" t="inlineStr"/>
+      <c r="Q269" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R269" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -18756,8 +19828,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q270" t="inlineStr"/>
-      <c r="R270" t="inlineStr"/>
+      <c r="Q270" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R270" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -18824,8 +19900,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q271" t="inlineStr"/>
-      <c r="R271" t="inlineStr"/>
+      <c r="Q271" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R271" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -18892,8 +19972,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q272" t="inlineStr"/>
-      <c r="R272" t="inlineStr"/>
+      <c r="Q272" t="n">
+        <v>3600</v>
+      </c>
+      <c r="R272" t="n">
+        <v>3600</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -18960,8 +20044,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q273" t="inlineStr"/>
-      <c r="R273" t="inlineStr"/>
+      <c r="Q273" t="n">
+        <v>1236.84</v>
+      </c>
+      <c r="R273" t="n">
+        <v>1236.84</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -19028,8 +20116,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q274" t="inlineStr"/>
-      <c r="R274" t="inlineStr"/>
+      <c r="Q274" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R274" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -19096,8 +20188,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q275" t="inlineStr"/>
-      <c r="R275" t="inlineStr"/>
+      <c r="Q275" t="n">
+        <v>4200</v>
+      </c>
+      <c r="R275" t="n">
+        <v>4200</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -19164,8 +20260,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q276" t="inlineStr"/>
-      <c r="R276" t="inlineStr"/>
+      <c r="Q276" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R276" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -19230,8 +20330,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q277" t="inlineStr"/>
-      <c r="R277" t="inlineStr"/>
+      <c r="Q277" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R277" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -19298,8 +20402,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q278" t="inlineStr"/>
-      <c r="R278" t="inlineStr"/>
+      <c r="Q278" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R278" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -19366,8 +20474,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q279" t="inlineStr"/>
-      <c r="R279" t="inlineStr"/>
+      <c r="Q279" t="n">
+        <v>2600</v>
+      </c>
+      <c r="R279" t="n">
+        <v>2600</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -19434,8 +20546,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q280" t="inlineStr"/>
-      <c r="R280" t="inlineStr"/>
+      <c r="Q280" t="n">
+        <v>4700</v>
+      </c>
+      <c r="R280" t="n">
+        <v>4700</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -19502,8 +20618,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q281" t="inlineStr"/>
-      <c r="R281" t="inlineStr"/>
+      <c r="Q281" t="n">
+        <v>3100</v>
+      </c>
+      <c r="R281" t="n">
+        <v>3100</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -19570,8 +20690,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q282" t="inlineStr"/>
-      <c r="R282" t="inlineStr"/>
+      <c r="Q282" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R282" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -19638,8 +20762,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q283" t="inlineStr"/>
-      <c r="R283" t="inlineStr"/>
+      <c r="Q283" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R283" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -19706,8 +20834,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q284" t="inlineStr"/>
-      <c r="R284" t="inlineStr"/>
+      <c r="Q284" t="n">
+        <v>3068.69</v>
+      </c>
+      <c r="R284" t="n">
+        <v>3068.69</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -19774,8 +20906,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q285" t="inlineStr"/>
-      <c r="R285" t="inlineStr"/>
+      <c r="Q285" t="n">
+        <v>2851.54</v>
+      </c>
+      <c r="R285" t="n">
+        <v>2851.54</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -19842,8 +20978,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q286" t="inlineStr"/>
-      <c r="R286" t="inlineStr"/>
+      <c r="Q286" t="n">
+        <v>2585.93</v>
+      </c>
+      <c r="R286" t="n">
+        <v>2585.93</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -19910,8 +21050,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q287" t="inlineStr"/>
-      <c r="R287" t="inlineStr"/>
+      <c r="Q287" t="n">
+        <v>1667.4</v>
+      </c>
+      <c r="R287" t="n">
+        <v>1667.4</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -19978,8 +21122,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q288" t="inlineStr"/>
-      <c r="R288" t="inlineStr"/>
+      <c r="Q288" t="n">
+        <v>1732</v>
+      </c>
+      <c r="R288" t="n">
+        <v>1732</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -20046,8 +21194,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q289" t="inlineStr"/>
-      <c r="R289" t="inlineStr"/>
+      <c r="Q289" t="n">
+        <v>1674.17</v>
+      </c>
+      <c r="R289" t="n">
+        <v>1674.17</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -20114,8 +21266,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q290" t="inlineStr"/>
-      <c r="R290" t="inlineStr"/>
+      <c r="Q290" t="n">
+        <v>2192.68</v>
+      </c>
+      <c r="R290" t="n">
+        <v>2192.68</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -20182,8 +21338,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q291" t="inlineStr"/>
-      <c r="R291" t="inlineStr"/>
+      <c r="Q291" t="n">
+        <v>2142.35</v>
+      </c>
+      <c r="R291" t="n">
+        <v>2142.35</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -20250,8 +21410,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q292" t="inlineStr"/>
-      <c r="R292" t="inlineStr"/>
+      <c r="Q292" t="n">
+        <v>2541.59</v>
+      </c>
+      <c r="R292" t="n">
+        <v>2541.59</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -20316,8 +21480,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q293" t="inlineStr"/>
-      <c r="R293" t="inlineStr"/>
+      <c r="Q293" t="n">
+        <v>1701.7</v>
+      </c>
+      <c r="R293" t="n">
+        <v>1701.7</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -20384,8 +21552,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q294" t="inlineStr"/>
-      <c r="R294" t="inlineStr"/>
+      <c r="Q294" t="n">
+        <v>2559.6</v>
+      </c>
+      <c r="R294" t="n">
+        <v>2559.6</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -20452,8 +21624,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q295" t="inlineStr"/>
-      <c r="R295" t="inlineStr"/>
+      <c r="Q295" t="n">
+        <v>1490.16</v>
+      </c>
+      <c r="R295" t="n">
+        <v>1490.16</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -20520,8 +21696,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q296" t="inlineStr"/>
-      <c r="R296" t="inlineStr"/>
+      <c r="Q296" t="n">
+        <v>2668.68</v>
+      </c>
+      <c r="R296" t="n">
+        <v>2668.68</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -20588,8 +21768,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q297" t="inlineStr"/>
-      <c r="R297" t="inlineStr"/>
+      <c r="Q297" t="n">
+        <v>2843.61</v>
+      </c>
+      <c r="R297" t="n">
+        <v>2843.61</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -20656,8 +21840,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q298" t="inlineStr"/>
-      <c r="R298" t="inlineStr"/>
+      <c r="Q298" t="n">
+        <v>2235.33</v>
+      </c>
+      <c r="R298" t="n">
+        <v>2235.33</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -20724,8 +21912,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q299" t="inlineStr"/>
-      <c r="R299" t="inlineStr"/>
+      <c r="Q299" t="n">
+        <v>3100</v>
+      </c>
+      <c r="R299" t="n">
+        <v>3100</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -20792,8 +21984,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q300" t="inlineStr"/>
-      <c r="R300" t="inlineStr"/>
+      <c r="Q300" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R300" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -20860,8 +22056,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q301" t="inlineStr"/>
-      <c r="R301" t="inlineStr"/>
+      <c r="Q301" t="n">
+        <v>3193.26</v>
+      </c>
+      <c r="R301" t="n">
+        <v>3193.26</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -20928,8 +22128,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q302" t="inlineStr"/>
-      <c r="R302" t="inlineStr"/>
+      <c r="Q302" t="n">
+        <v>2055.23</v>
+      </c>
+      <c r="R302" t="n">
+        <v>2055.23</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -20996,8 +22200,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q303" t="inlineStr"/>
-      <c r="R303" t="inlineStr"/>
+      <c r="Q303" t="n">
+        <v>1490.1</v>
+      </c>
+      <c r="R303" t="n">
+        <v>1490.1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -21062,8 +22270,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q304" t="inlineStr"/>
-      <c r="R304" t="inlineStr"/>
+      <c r="Q304" t="n">
+        <v>2162.16</v>
+      </c>
+      <c r="R304" t="n">
+        <v>2162.16</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -21130,8 +22342,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q305" t="inlineStr"/>
-      <c r="R305" t="inlineStr"/>
+      <c r="Q305" t="n">
+        <v>2814.28</v>
+      </c>
+      <c r="R305" t="n">
+        <v>2814.28</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -21196,8 +22412,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q306" t="inlineStr"/>
-      <c r="R306" t="inlineStr"/>
+      <c r="Q306" t="n">
+        <v>1944.3</v>
+      </c>
+      <c r="R306" t="n">
+        <v>1944.3</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -21264,8 +22484,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q307" t="inlineStr"/>
-      <c r="R307" t="inlineStr"/>
+      <c r="Q307" t="n">
+        <v>1281.56</v>
+      </c>
+      <c r="R307" t="n">
+        <v>1281.56</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -21332,8 +22556,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q308" t="inlineStr"/>
-      <c r="R308" t="inlineStr"/>
+      <c r="Q308" t="n">
+        <v>1774.22</v>
+      </c>
+      <c r="R308" t="n">
+        <v>1774.22</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -21400,8 +22628,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q309" t="inlineStr"/>
-      <c r="R309" t="inlineStr"/>
+      <c r="Q309" t="n">
+        <v>1997.5</v>
+      </c>
+      <c r="R309" t="n">
+        <v>1997.5</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -21468,8 +22700,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q310" t="inlineStr"/>
-      <c r="R310" t="inlineStr"/>
+      <c r="Q310" t="n">
+        <v>981.2</v>
+      </c>
+      <c r="R310" t="n">
+        <v>981.2</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -21536,8 +22772,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q311" t="inlineStr"/>
-      <c r="R311" t="inlineStr"/>
+      <c r="Q311" t="n">
+        <v>1771.06</v>
+      </c>
+      <c r="R311" t="n">
+        <v>1771.06</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -21604,8 +22844,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q312" t="inlineStr"/>
-      <c r="R312" t="inlineStr"/>
+      <c r="Q312" t="n">
+        <v>2213.4</v>
+      </c>
+      <c r="R312" t="n">
+        <v>2213.4</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -21672,8 +22916,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q313" t="inlineStr"/>
-      <c r="R313" t="inlineStr"/>
+      <c r="Q313" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R313" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -21740,8 +22988,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q314" t="inlineStr"/>
-      <c r="R314" t="inlineStr"/>
+      <c r="Q314" t="n">
+        <v>1142.41</v>
+      </c>
+      <c r="R314" t="n">
+        <v>1142.41</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -21808,8 +23060,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q315" t="inlineStr"/>
-      <c r="R315" t="inlineStr"/>
+      <c r="Q315" t="n">
+        <v>2300</v>
+      </c>
+      <c r="R315" t="n">
+        <v>2300</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -21874,8 +23130,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q316" t="inlineStr"/>
-      <c r="R316" t="inlineStr"/>
+      <c r="Q316" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R316" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -21942,8 +23202,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q317" t="inlineStr"/>
-      <c r="R317" t="inlineStr"/>
+      <c r="Q317" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R317" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -22010,8 +23274,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q318" t="inlineStr"/>
-      <c r="R318" t="inlineStr"/>
+      <c r="Q318" t="n">
+        <v>2500</v>
+      </c>
+      <c r="R318" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -22078,8 +23346,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q319" t="inlineStr"/>
-      <c r="R319" t="inlineStr"/>
+      <c r="Q319" t="n">
+        <v>3600</v>
+      </c>
+      <c r="R319" t="n">
+        <v>3600</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -22146,8 +23418,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q320" t="inlineStr"/>
-      <c r="R320" t="inlineStr"/>
+      <c r="Q320" t="n">
+        <v>3033.28</v>
+      </c>
+      <c r="R320" t="n">
+        <v>3033.28</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -22214,8 +23490,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q321" t="inlineStr"/>
-      <c r="R321" t="inlineStr"/>
+      <c r="Q321" t="n">
+        <v>2030.86</v>
+      </c>
+      <c r="R321" t="n">
+        <v>2030.86</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -22282,8 +23562,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q322" t="inlineStr"/>
-      <c r="R322" t="inlineStr"/>
+      <c r="Q322" t="n">
+        <v>3500</v>
+      </c>
+      <c r="R322" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -22350,8 +23634,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q323" t="inlineStr"/>
-      <c r="R323" t="inlineStr"/>
+      <c r="Q323" t="n">
+        <v>2600</v>
+      </c>
+      <c r="R323" t="n">
+        <v>2600</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -22418,8 +23706,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q324" t="inlineStr"/>
-      <c r="R324" t="inlineStr"/>
+      <c r="Q324" t="n">
+        <v>3900</v>
+      </c>
+      <c r="R324" t="n">
+        <v>3900</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -22486,8 +23778,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q325" t="inlineStr"/>
-      <c r="R325" t="inlineStr"/>
+      <c r="Q325" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R325" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -22554,8 +23850,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q326" t="inlineStr"/>
-      <c r="R326" t="inlineStr"/>
+      <c r="Q326" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R326" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -22622,8 +23922,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q327" t="inlineStr"/>
-      <c r="R327" t="inlineStr"/>
+      <c r="Q327" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R327" t="n">
+        <v>2400</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -22690,8 +23994,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q328" t="inlineStr"/>
-      <c r="R328" t="inlineStr"/>
+      <c r="Q328" t="n">
+        <v>3900</v>
+      </c>
+      <c r="R328" t="n">
+        <v>3900</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -22758,8 +24066,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q329" t="inlineStr"/>
-      <c r="R329" t="inlineStr"/>
+      <c r="Q329" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R329" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -22826,8 +24138,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q330" t="inlineStr"/>
-      <c r="R330" t="inlineStr"/>
+      <c r="Q330" t="n">
+        <v>1687.4</v>
+      </c>
+      <c r="R330" t="n">
+        <v>1687.4</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -22894,8 +24210,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q331" t="inlineStr"/>
-      <c r="R331" t="inlineStr"/>
+      <c r="Q331" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R331" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -22962,8 +24282,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q332" t="inlineStr"/>
-      <c r="R332" t="inlineStr"/>
+      <c r="Q332" t="n">
+        <v>3100</v>
+      </c>
+      <c r="R332" t="n">
+        <v>3100</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -23030,8 +24354,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q333" t="inlineStr"/>
-      <c r="R333" t="inlineStr"/>
+      <c r="Q333" t="n">
+        <v>3298.55</v>
+      </c>
+      <c r="R333" t="n">
+        <v>3298.55</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -23098,8 +24426,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q334" t="inlineStr"/>
-      <c r="R334" t="inlineStr"/>
+      <c r="Q334" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R334" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -23166,8 +24498,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q335" t="inlineStr"/>
-      <c r="R335" t="inlineStr"/>
+      <c r="Q335" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R335" t="n">
+        <v>2400</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -23234,8 +24570,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q336" t="inlineStr"/>
-      <c r="R336" t="inlineStr"/>
+      <c r="Q336" t="n">
+        <v>4407</v>
+      </c>
+      <c r="R336" t="n">
+        <v>4407</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -23302,8 +24642,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q337" t="inlineStr"/>
-      <c r="R337" t="inlineStr"/>
+      <c r="Q337" t="n">
+        <v>3700</v>
+      </c>
+      <c r="R337" t="n">
+        <v>3700</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -23370,8 +24714,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q338" t="inlineStr"/>
-      <c r="R338" t="inlineStr"/>
+      <c r="Q338" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R338" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -23436,8 +24784,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q339" t="inlineStr"/>
-      <c r="R339" t="inlineStr"/>
+      <c r="Q339" t="n">
+        <v>2795.27</v>
+      </c>
+      <c r="R339" t="n">
+        <v>2795.27</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -23504,8 +24856,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q340" t="inlineStr"/>
-      <c r="R340" t="inlineStr"/>
+      <c r="Q340" t="n">
+        <v>3572.33</v>
+      </c>
+      <c r="R340" t="n">
+        <v>3572.33</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -23572,8 +24928,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q341" t="inlineStr"/>
-      <c r="R341" t="inlineStr"/>
+      <c r="Q341" t="n">
+        <v>4200</v>
+      </c>
+      <c r="R341" t="n">
+        <v>4200</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -23638,8 +24998,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q342" t="inlineStr"/>
-      <c r="R342" t="inlineStr"/>
+      <c r="Q342" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R342" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -23704,8 +25068,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q343" t="inlineStr"/>
-      <c r="R343" t="inlineStr"/>
+      <c r="Q343" t="n">
+        <v>1801.24</v>
+      </c>
+      <c r="R343" t="n">
+        <v>1801.24</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -23772,8 +25140,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q344" t="inlineStr"/>
-      <c r="R344" t="inlineStr"/>
+      <c r="Q344" t="n">
+        <v>3358.08</v>
+      </c>
+      <c r="R344" t="n">
+        <v>3358.08</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -23840,8 +25212,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q345" t="inlineStr"/>
-      <c r="R345" t="inlineStr"/>
+      <c r="Q345" t="n">
+        <v>2655.12</v>
+      </c>
+      <c r="R345" t="n">
+        <v>2655.12</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -23908,8 +25284,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q346" t="inlineStr"/>
-      <c r="R346" t="inlineStr"/>
+      <c r="Q346" t="n">
+        <v>1820.01</v>
+      </c>
+      <c r="R346" t="n">
+        <v>1820.01</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -23976,8 +25356,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q347" t="inlineStr"/>
-      <c r="R347" t="inlineStr"/>
+      <c r="Q347" t="n">
+        <v>2866.95</v>
+      </c>
+      <c r="R347" t="n">
+        <v>2866.95</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -24044,8 +25428,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q348" t="inlineStr"/>
-      <c r="R348" t="inlineStr"/>
+      <c r="Q348" t="n">
+        <v>2632.28</v>
+      </c>
+      <c r="R348" t="n">
+        <v>2632.28</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -24112,8 +25500,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q349" t="inlineStr"/>
-      <c r="R349" t="inlineStr"/>
+      <c r="Q349" t="n">
+        <v>1880.2</v>
+      </c>
+      <c r="R349" t="n">
+        <v>1880.2</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -24180,8 +25572,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q350" t="inlineStr"/>
-      <c r="R350" t="inlineStr"/>
+      <c r="Q350" t="n">
+        <v>1224.67</v>
+      </c>
+      <c r="R350" t="n">
+        <v>1224.67</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -24248,8 +25644,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q351" t="inlineStr"/>
-      <c r="R351" t="inlineStr"/>
+      <c r="Q351" t="n">
+        <v>3458.42</v>
+      </c>
+      <c r="R351" t="n">
+        <v>3458.42</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -24316,8 +25716,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q352" t="inlineStr"/>
-      <c r="R352" t="inlineStr"/>
+      <c r="Q352" t="n">
+        <v>1237.88</v>
+      </c>
+      <c r="R352" t="n">
+        <v>1237.88</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -24382,8 +25786,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q353" t="inlineStr"/>
-      <c r="R353" t="inlineStr"/>
+      <c r="Q353" t="n">
+        <v>2723.2</v>
+      </c>
+      <c r="R353" t="n">
+        <v>2723.2</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -24450,8 +25858,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q354" t="inlineStr"/>
-      <c r="R354" t="inlineStr"/>
+      <c r="Q354" t="n">
+        <v>3853.6</v>
+      </c>
+      <c r="R354" t="n">
+        <v>3853.6</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -24518,8 +25930,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q355" t="inlineStr"/>
-      <c r="R355" t="inlineStr"/>
+      <c r="Q355" t="n">
+        <v>3442.64</v>
+      </c>
+      <c r="R355" t="n">
+        <v>3442.64</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -24584,8 +26000,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q356" t="inlineStr"/>
-      <c r="R356" t="inlineStr"/>
+      <c r="Q356" t="n">
+        <v>2800</v>
+      </c>
+      <c r="R356" t="n">
+        <v>2800</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -24652,8 +26072,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q357" t="inlineStr"/>
-      <c r="R357" t="inlineStr"/>
+      <c r="Q357" t="n">
+        <v>4636.38</v>
+      </c>
+      <c r="R357" t="n">
+        <v>4636.38</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -24720,8 +26144,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q358" t="inlineStr"/>
-      <c r="R358" t="inlineStr"/>
+      <c r="Q358" t="n">
+        <v>1553.58</v>
+      </c>
+      <c r="R358" t="n">
+        <v>1553.58</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -24788,8 +26216,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q359" t="inlineStr"/>
-      <c r="R359" t="inlineStr"/>
+      <c r="Q359" t="n">
+        <v>2586.64</v>
+      </c>
+      <c r="R359" t="n">
+        <v>2586.64</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -24856,8 +26288,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q360" t="inlineStr"/>
-      <c r="R360" t="inlineStr"/>
+      <c r="Q360" t="n">
+        <v>2245.2</v>
+      </c>
+      <c r="R360" t="n">
+        <v>2245.2</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -24924,8 +26360,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q361" t="inlineStr"/>
-      <c r="R361" t="inlineStr"/>
+      <c r="Q361" t="n">
+        <v>3255.12</v>
+      </c>
+      <c r="R361" t="n">
+        <v>3255.12</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -24990,8 +26430,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q362" t="inlineStr"/>
-      <c r="R362" t="inlineStr"/>
+      <c r="Q362" t="n">
+        <v>4300</v>
+      </c>
+      <c r="R362" t="n">
+        <v>4300</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -25058,8 +26502,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q363" t="inlineStr"/>
-      <c r="R363" t="inlineStr"/>
+      <c r="Q363" t="n">
+        <v>4000</v>
+      </c>
+      <c r="R363" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -25126,8 +26574,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q364" t="inlineStr"/>
-      <c r="R364" t="inlineStr"/>
+      <c r="Q364" t="n">
+        <v>2200</v>
+      </c>
+      <c r="R364" t="n">
+        <v>2200</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -25194,8 +26646,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q365" t="inlineStr"/>
-      <c r="R365" t="inlineStr"/>
+      <c r="Q365" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R365" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -25262,8 +26718,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q366" t="inlineStr"/>
-      <c r="R366" t="inlineStr"/>
+      <c r="Q366" t="n">
+        <v>3100</v>
+      </c>
+      <c r="R366" t="n">
+        <v>3100</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -25330,8 +26790,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q367" t="inlineStr"/>
-      <c r="R367" t="inlineStr"/>
+      <c r="Q367" t="n">
+        <v>3138.34</v>
+      </c>
+      <c r="R367" t="n">
+        <v>3138.34</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -25398,8 +26862,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q368" t="inlineStr"/>
-      <c r="R368" t="inlineStr"/>
+      <c r="Q368" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R368" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -25466,8 +26934,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q369" t="inlineStr"/>
-      <c r="R369" t="inlineStr"/>
+      <c r="Q369" t="n">
+        <v>2257.92</v>
+      </c>
+      <c r="R369" t="n">
+        <v>2257.92</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -25534,8 +27006,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q370" t="inlineStr"/>
-      <c r="R370" t="inlineStr"/>
+      <c r="Q370" t="n">
+        <v>4400</v>
+      </c>
+      <c r="R370" t="n">
+        <v>4400</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -25602,8 +27078,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q371" t="inlineStr"/>
-      <c r="R371" t="inlineStr"/>
+      <c r="Q371" t="n">
+        <v>1978.62</v>
+      </c>
+      <c r="R371" t="n">
+        <v>1978.62</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -25668,8 +27148,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q372" t="inlineStr"/>
-      <c r="R372" t="inlineStr"/>
+      <c r="Q372" t="n">
+        <v>3500</v>
+      </c>
+      <c r="R372" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -25736,8 +27220,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q373" t="inlineStr"/>
-      <c r="R373" t="inlineStr"/>
+      <c r="Q373" t="n">
+        <v>4700</v>
+      </c>
+      <c r="R373" t="n">
+        <v>4700</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -25804,8 +27292,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q374" t="inlineStr"/>
-      <c r="R374" t="inlineStr"/>
+      <c r="Q374" t="n">
+        <v>4300</v>
+      </c>
+      <c r="R374" t="n">
+        <v>4300</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -25872,8 +27364,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q375" t="inlineStr"/>
-      <c r="R375" t="inlineStr"/>
+      <c r="Q375" t="n">
+        <v>2800</v>
+      </c>
+      <c r="R375" t="n">
+        <v>2800</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -25940,8 +27436,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q376" t="inlineStr"/>
-      <c r="R376" t="inlineStr"/>
+      <c r="Q376" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R376" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -26008,8 +27508,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q377" t="inlineStr"/>
-      <c r="R377" t="inlineStr"/>
+      <c r="Q377" t="n">
+        <v>3200</v>
+      </c>
+      <c r="R377" t="n">
+        <v>3200</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -26076,8 +27580,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q378" t="inlineStr"/>
-      <c r="R378" t="inlineStr"/>
+      <c r="Q378" t="n">
+        <v>4300</v>
+      </c>
+      <c r="R378" t="n">
+        <v>4300</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -26144,8 +27652,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q379" t="inlineStr"/>
-      <c r="R379" t="inlineStr"/>
+      <c r="Q379" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R379" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -26212,8 +27724,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q380" t="inlineStr"/>
-      <c r="R380" t="inlineStr"/>
+      <c r="Q380" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R380" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -26280,8 +27796,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q381" t="inlineStr"/>
-      <c r="R381" t="inlineStr"/>
+      <c r="Q381" t="n">
+        <v>4600</v>
+      </c>
+      <c r="R381" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -26348,8 +27868,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q382" t="inlineStr"/>
-      <c r="R382" t="inlineStr"/>
+      <c r="Q382" t="n">
+        <v>2200</v>
+      </c>
+      <c r="R382" t="n">
+        <v>2200</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -26414,8 +27938,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q383" t="inlineStr"/>
-      <c r="R383" t="inlineStr"/>
+      <c r="Q383" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R383" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -26482,8 +28010,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q384" t="inlineStr"/>
-      <c r="R384" t="inlineStr"/>
+      <c r="Q384" t="n">
+        <v>2600</v>
+      </c>
+      <c r="R384" t="n">
+        <v>2600</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -26550,8 +28082,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q385" t="inlineStr"/>
-      <c r="R385" t="inlineStr"/>
+      <c r="Q385" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R385" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -26618,8 +28154,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q386" t="inlineStr"/>
-      <c r="R386" t="inlineStr"/>
+      <c r="Q386" t="n">
+        <v>2500</v>
+      </c>
+      <c r="R386" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -26686,8 +28226,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q387" t="inlineStr"/>
-      <c r="R387" t="inlineStr"/>
+      <c r="Q387" t="n">
+        <v>2200</v>
+      </c>
+      <c r="R387" t="n">
+        <v>2200</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -26754,8 +28298,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q388" t="inlineStr"/>
-      <c r="R388" t="inlineStr"/>
+      <c r="Q388" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R388" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -26822,8 +28370,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q389" t="inlineStr"/>
-      <c r="R389" t="inlineStr"/>
+      <c r="Q389" t="n">
+        <v>4200</v>
+      </c>
+      <c r="R389" t="n">
+        <v>4200</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -26890,8 +28442,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q390" t="inlineStr"/>
-      <c r="R390" t="inlineStr"/>
+      <c r="Q390" t="n">
+        <v>2500</v>
+      </c>
+      <c r="R390" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -26958,8 +28514,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q391" t="inlineStr"/>
-      <c r="R391" t="inlineStr"/>
+      <c r="Q391" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R391" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -27026,8 +28586,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q392" t="inlineStr"/>
-      <c r="R392" t="inlineStr"/>
+      <c r="Q392" t="n">
+        <v>3700</v>
+      </c>
+      <c r="R392" t="n">
+        <v>3700</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -27094,8 +28658,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q393" t="inlineStr"/>
-      <c r="R393" t="inlineStr"/>
+      <c r="Q393" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R393" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -27162,8 +28730,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q394" t="inlineStr"/>
-      <c r="R394" t="inlineStr"/>
+      <c r="Q394" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R394" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -27230,8 +28802,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q395" t="inlineStr"/>
-      <c r="R395" t="inlineStr"/>
+      <c r="Q395" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R395" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -27298,8 +28874,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q396" t="inlineStr"/>
-      <c r="R396" t="inlineStr"/>
+      <c r="Q396" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R396" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -27366,8 +28946,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q397" t="inlineStr"/>
-      <c r="R397" t="inlineStr"/>
+      <c r="Q397" t="n">
+        <v>2151.82</v>
+      </c>
+      <c r="R397" t="n">
+        <v>2151.82</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -27434,8 +29018,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q398" t="inlineStr"/>
-      <c r="R398" t="inlineStr"/>
+      <c r="Q398" t="n">
+        <v>3952.83</v>
+      </c>
+      <c r="R398" t="n">
+        <v>3952.83</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -27502,8 +29090,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q399" t="inlineStr"/>
-      <c r="R399" t="inlineStr"/>
+      <c r="Q399" t="n">
+        <v>3500</v>
+      </c>
+      <c r="R399" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -27570,8 +29162,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q400" t="inlineStr"/>
-      <c r="R400" t="inlineStr"/>
+      <c r="Q400" t="n">
+        <v>4200</v>
+      </c>
+      <c r="R400" t="n">
+        <v>4200</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -27638,8 +29234,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q401" t="inlineStr"/>
-      <c r="R401" t="inlineStr"/>
+      <c r="Q401" t="n">
+        <v>3600</v>
+      </c>
+      <c r="R401" t="n">
+        <v>3600</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -27706,8 +29306,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q402" t="inlineStr"/>
-      <c r="R402" t="inlineStr"/>
+      <c r="Q402" t="n">
+        <v>2154</v>
+      </c>
+      <c r="R402" t="n">
+        <v>2154</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -27774,8 +29378,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q403" t="inlineStr"/>
-      <c r="R403" t="inlineStr"/>
+      <c r="Q403" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R403" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -27842,8 +29450,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q404" t="inlineStr"/>
-      <c r="R404" t="inlineStr"/>
+      <c r="Q404" t="n">
+        <v>3510</v>
+      </c>
+      <c r="R404" t="n">
+        <v>3510</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -27910,8 +29522,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q405" t="inlineStr"/>
-      <c r="R405" t="inlineStr"/>
+      <c r="Q405" t="n">
+        <v>3097.44</v>
+      </c>
+      <c r="R405" t="n">
+        <v>3097.44</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -27976,8 +29592,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q406" t="inlineStr"/>
-      <c r="R406" t="inlineStr"/>
+      <c r="Q406" t="n">
+        <v>1705.41</v>
+      </c>
+      <c r="R406" t="n">
+        <v>1705.41</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -28044,8 +29664,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q407" t="inlineStr"/>
-      <c r="R407" t="inlineStr"/>
+      <c r="Q407" t="n">
+        <v>2658.48</v>
+      </c>
+      <c r="R407" t="n">
+        <v>2658.48</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -28112,8 +29736,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q408" t="inlineStr"/>
-      <c r="R408" t="inlineStr"/>
+      <c r="Q408" t="n">
+        <v>3403.08</v>
+      </c>
+      <c r="R408" t="n">
+        <v>3403.08</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -28180,8 +29808,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q409" t="inlineStr"/>
-      <c r="R409" t="inlineStr"/>
+      <c r="Q409" t="n">
+        <v>2245.8</v>
+      </c>
+      <c r="R409" t="n">
+        <v>2245.8</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -28248,8 +29880,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q410" t="inlineStr"/>
-      <c r="R410" t="inlineStr"/>
+      <c r="Q410" t="n">
+        <v>4000</v>
+      </c>
+      <c r="R410" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -28314,8 +29950,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q411" t="inlineStr"/>
-      <c r="R411" t="inlineStr"/>
+      <c r="Q411" t="n">
+        <v>3900</v>
+      </c>
+      <c r="R411" t="n">
+        <v>3900</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -28382,8 +30022,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q412" t="inlineStr"/>
-      <c r="R412" t="inlineStr"/>
+      <c r="Q412" t="n">
+        <v>3958.5</v>
+      </c>
+      <c r="R412" t="n">
+        <v>3958.5</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -28450,8 +30094,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q413" t="inlineStr"/>
-      <c r="R413" t="inlineStr"/>
+      <c r="Q413" t="n">
+        <v>4300</v>
+      </c>
+      <c r="R413" t="n">
+        <v>4300</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -28518,8 +30166,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q414" t="inlineStr"/>
-      <c r="R414" t="inlineStr"/>
+      <c r="Q414" t="n">
+        <v>2848.23</v>
+      </c>
+      <c r="R414" t="n">
+        <v>2848.23</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -28586,8 +30238,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q415" t="inlineStr"/>
-      <c r="R415" t="inlineStr"/>
+      <c r="Q415" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R415" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -28654,8 +30310,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q416" t="inlineStr"/>
-      <c r="R416" t="inlineStr"/>
+      <c r="Q416" t="n">
+        <v>2321.54</v>
+      </c>
+      <c r="R416" t="n">
+        <v>2321.54</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -28722,8 +30382,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q417" t="inlineStr"/>
-      <c r="R417" t="inlineStr"/>
+      <c r="Q417" t="n">
+        <v>2501.98</v>
+      </c>
+      <c r="R417" t="n">
+        <v>2501.98</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -28790,8 +30454,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q418" t="inlineStr"/>
-      <c r="R418" t="inlineStr"/>
+      <c r="Q418" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R418" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -28856,8 +30524,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q419" t="inlineStr"/>
-      <c r="R419" t="inlineStr"/>
+      <c r="Q419" t="n">
+        <v>4600</v>
+      </c>
+      <c r="R419" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -28924,8 +30596,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q420" t="inlineStr"/>
-      <c r="R420" t="inlineStr"/>
+      <c r="Q420" t="n">
+        <v>2500</v>
+      </c>
+      <c r="R420" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -28992,8 +30668,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q421" t="inlineStr"/>
-      <c r="R421" t="inlineStr"/>
+      <c r="Q421" t="n">
+        <v>3288.6</v>
+      </c>
+      <c r="R421" t="n">
+        <v>3288.6</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -29060,8 +30740,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q422" t="inlineStr"/>
-      <c r="R422" t="inlineStr"/>
+      <c r="Q422" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R422" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -29128,8 +30812,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q423" t="inlineStr"/>
-      <c r="R423" t="inlineStr"/>
+      <c r="Q423" t="n">
+        <v>4200</v>
+      </c>
+      <c r="R423" t="n">
+        <v>4200</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -29196,8 +30884,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q424" t="inlineStr"/>
-      <c r="R424" t="inlineStr"/>
+      <c r="Q424" t="n">
+        <v>3700</v>
+      </c>
+      <c r="R424" t="n">
+        <v>3700</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -29262,8 +30954,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q425" t="inlineStr"/>
-      <c r="R425" t="inlineStr"/>
+      <c r="Q425" t="n">
+        <v>2500</v>
+      </c>
+      <c r="R425" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -29330,8 +31026,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q426" t="inlineStr"/>
-      <c r="R426" t="inlineStr"/>
+      <c r="Q426" t="n">
+        <v>3000</v>
+      </c>
+      <c r="R426" t="n">
+        <v>3000</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -29398,8 +31098,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q427" t="inlineStr"/>
-      <c r="R427" t="inlineStr"/>
+      <c r="Q427" t="n">
+        <v>5000</v>
+      </c>
+      <c r="R427" t="n">
+        <v>5000</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -29466,8 +31170,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q428" t="inlineStr"/>
-      <c r="R428" t="inlineStr"/>
+      <c r="Q428" t="n">
+        <v>4700</v>
+      </c>
+      <c r="R428" t="n">
+        <v>4700</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -29534,8 +31242,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q429" t="inlineStr"/>
-      <c r="R429" t="inlineStr"/>
+      <c r="Q429" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R429" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -29602,8 +31314,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q430" t="inlineStr"/>
-      <c r="R430" t="inlineStr"/>
+      <c r="Q430" t="n">
+        <v>4500</v>
+      </c>
+      <c r="R430" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -29670,8 +31386,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q431" t="inlineStr"/>
-      <c r="R431" t="inlineStr"/>
+      <c r="Q431" t="n">
+        <v>3500</v>
+      </c>
+      <c r="R431" t="n">
+        <v>3500</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -29738,8 +31458,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q432" t="inlineStr"/>
-      <c r="R432" t="inlineStr"/>
+      <c r="Q432" t="n">
+        <v>4600</v>
+      </c>
+      <c r="R432" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -29806,8 +31530,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q433" t="inlineStr"/>
-      <c r="R433" t="inlineStr"/>
+      <c r="Q433" t="n">
+        <v>3100</v>
+      </c>
+      <c r="R433" t="n">
+        <v>3100</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -29874,8 +31602,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q434" t="inlineStr"/>
-      <c r="R434" t="inlineStr"/>
+      <c r="Q434" t="n">
+        <v>2800</v>
+      </c>
+      <c r="R434" t="n">
+        <v>2800</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -29942,8 +31674,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q435" t="inlineStr"/>
-      <c r="R435" t="inlineStr"/>
+      <c r="Q435" t="n">
+        <v>1765.66</v>
+      </c>
+      <c r="R435" t="n">
+        <v>1765.66</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -30010,8 +31746,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q436" t="inlineStr"/>
-      <c r="R436" t="inlineStr"/>
+      <c r="Q436" t="n">
+        <v>4600</v>
+      </c>
+      <c r="R436" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -30078,8 +31818,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q437" t="inlineStr"/>
-      <c r="R437" t="inlineStr"/>
+      <c r="Q437" t="n">
+        <v>2266.2</v>
+      </c>
+      <c r="R437" t="n">
+        <v>2266.2</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -30146,8 +31890,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q438" t="inlineStr"/>
-      <c r="R438" t="inlineStr"/>
+      <c r="Q438" t="n">
+        <v>3155.58</v>
+      </c>
+      <c r="R438" t="n">
+        <v>3155.58</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -30212,8 +31960,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q439" t="inlineStr"/>
-      <c r="R439" t="inlineStr"/>
+      <c r="Q439" t="n">
+        <v>1357.86</v>
+      </c>
+      <c r="R439" t="n">
+        <v>1357.86</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -30280,8 +32032,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q440" t="inlineStr"/>
-      <c r="R440" t="inlineStr"/>
+      <c r="Q440" t="n">
+        <v>1357.72</v>
+      </c>
+      <c r="R440" t="n">
+        <v>1357.72</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -30348,8 +32104,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q441" t="inlineStr"/>
-      <c r="R441" t="inlineStr"/>
+      <c r="Q441" t="n">
+        <v>2626.08</v>
+      </c>
+      <c r="R441" t="n">
+        <v>2626.08</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -30416,8 +32176,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q442" t="inlineStr"/>
-      <c r="R442" t="inlineStr"/>
+      <c r="Q442" t="n">
+        <v>1661.88</v>
+      </c>
+      <c r="R442" t="n">
+        <v>1661.88</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -30484,8 +32248,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q443" t="inlineStr"/>
-      <c r="R443" t="inlineStr"/>
+      <c r="Q443" t="n">
+        <v>2598.64</v>
+      </c>
+      <c r="R443" t="n">
+        <v>2598.64</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -30552,8 +32320,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q444" t="inlineStr"/>
-      <c r="R444" t="inlineStr"/>
+      <c r="Q444" t="n">
+        <v>3600</v>
+      </c>
+      <c r="R444" t="n">
+        <v>3600</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -30620,8 +32392,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q445" t="inlineStr"/>
-      <c r="R445" t="inlineStr"/>
+      <c r="Q445" t="n">
+        <v>3300</v>
+      </c>
+      <c r="R445" t="n">
+        <v>3300</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -30688,8 +32464,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q446" t="inlineStr"/>
-      <c r="R446" t="inlineStr"/>
+      <c r="Q446" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R446" t="n">
+        <v>3400</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -30754,8 +32534,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q447" t="inlineStr"/>
-      <c r="R447" t="inlineStr"/>
+      <c r="Q447" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R447" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -30822,8 +32606,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q448" t="inlineStr"/>
-      <c r="R448" t="inlineStr"/>
+      <c r="Q448" t="n">
+        <v>3858.75</v>
+      </c>
+      <c r="R448" t="n">
+        <v>3858.75</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -30890,8 +32678,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q449" t="inlineStr"/>
-      <c r="R449" t="inlineStr"/>
+      <c r="Q449" t="n">
+        <v>4600</v>
+      </c>
+      <c r="R449" t="n">
+        <v>4600</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -30958,8 +32750,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q450" t="inlineStr"/>
-      <c r="R450" t="inlineStr"/>
+      <c r="Q450" t="n">
+        <v>4166.88</v>
+      </c>
+      <c r="R450" t="n">
+        <v>4166.88</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -31026,8 +32822,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q451" t="inlineStr"/>
-      <c r="R451" t="inlineStr"/>
+      <c r="Q451" t="n">
+        <v>5800</v>
+      </c>
+      <c r="R451" t="n">
+        <v>5800</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -31094,8 +32894,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q452" t="inlineStr"/>
-      <c r="R452" t="inlineStr"/>
+      <c r="Q452" t="n">
+        <v>2500</v>
+      </c>
+      <c r="R452" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -31162,8 +32966,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q453" t="inlineStr"/>
-      <c r="R453" t="inlineStr"/>
+      <c r="Q453" t="n">
+        <v>2400</v>
+      </c>
+      <c r="R453" t="n">
+        <v>2400</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -31230,8 +33038,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q454" t="inlineStr"/>
-      <c r="R454" t="inlineStr"/>
+      <c r="Q454" t="n">
+        <v>3900</v>
+      </c>
+      <c r="R454" t="n">
+        <v>3900</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -31298,8 +33110,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q455" t="inlineStr"/>
-      <c r="R455" t="inlineStr"/>
+      <c r="Q455" t="n">
+        <v>2700</v>
+      </c>
+      <c r="R455" t="n">
+        <v>2700</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -31366,8 +33182,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q456" t="inlineStr"/>
-      <c r="R456" t="inlineStr"/>
+      <c r="Q456" t="n">
+        <v>4000</v>
+      </c>
+      <c r="R456" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -31434,8 +33254,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q457" t="inlineStr"/>
-      <c r="R457" t="inlineStr"/>
+      <c r="Q457" t="n">
+        <v>2500</v>
+      </c>
+      <c r="R457" t="n">
+        <v>2500</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -31502,8 +33326,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q458" t="inlineStr"/>
-      <c r="R458" t="inlineStr"/>
+      <c r="Q458" t="n">
+        <v>3100</v>
+      </c>
+      <c r="R458" t="n">
+        <v>3100</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -31570,8 +33398,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q459" t="inlineStr"/>
-      <c r="R459" t="inlineStr"/>
+      <c r="Q459" t="n">
+        <v>4400</v>
+      </c>
+      <c r="R459" t="n">
+        <v>4400</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -31638,8 +33470,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q460" t="inlineStr"/>
-      <c r="R460" t="inlineStr"/>
+      <c r="Q460" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R460" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -31706,8 +33542,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q461" t="inlineStr"/>
-      <c r="R461" t="inlineStr"/>
+      <c r="Q461" t="n">
+        <v>3600</v>
+      </c>
+      <c r="R461" t="n">
+        <v>3600</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -31774,8 +33614,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q462" t="inlineStr"/>
-      <c r="R462" t="inlineStr"/>
+      <c r="Q462" t="n">
+        <v>3400</v>
+      </c>
+      <c r="R462" t="n">
+        <v>3400</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -31842,8 +33686,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q463" t="inlineStr"/>
-      <c r="R463" t="inlineStr"/>
+      <c r="Q463" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R463" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -31910,8 +33758,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q464" t="inlineStr"/>
-      <c r="R464" t="inlineStr"/>
+      <c r="Q464" t="n">
+        <v>1903.22</v>
+      </c>
+      <c r="R464" t="n">
+        <v>1903.22</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -31978,8 +33830,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q465" t="inlineStr"/>
-      <c r="R465" t="inlineStr"/>
+      <c r="Q465" t="n">
+        <v>3081.24</v>
+      </c>
+      <c r="R465" t="n">
+        <v>3081.24</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -32044,8 +33900,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q466" t="inlineStr"/>
-      <c r="R466" t="inlineStr"/>
+      <c r="Q466" t="n">
+        <v>3900</v>
+      </c>
+      <c r="R466" t="n">
+        <v>3900</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -32112,8 +33972,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q467" t="inlineStr"/>
-      <c r="R467" t="inlineStr"/>
+      <c r="Q467" t="n">
+        <v>3600</v>
+      </c>
+      <c r="R467" t="n">
+        <v>3600</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -32180,8 +34044,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q468" t="inlineStr"/>
-      <c r="R468" t="inlineStr"/>
+      <c r="Q468" t="n">
+        <v>2482.11</v>
+      </c>
+      <c r="R468" t="n">
+        <v>2482.11</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -32248,8 +34116,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q469" t="inlineStr"/>
-      <c r="R469" t="inlineStr"/>
+      <c r="Q469" t="n">
+        <v>2696.96</v>
+      </c>
+      <c r="R469" t="n">
+        <v>2696.96</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -32316,8 +34188,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q470" t="inlineStr"/>
-      <c r="R470" t="inlineStr"/>
+      <c r="Q470" t="n">
+        <v>541.14</v>
+      </c>
+      <c r="R470" t="n">
+        <v>541.14</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -32384,8 +34260,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q471" t="inlineStr"/>
-      <c r="R471" t="inlineStr"/>
+      <c r="Q471" t="n">
+        <v>1685.28</v>
+      </c>
+      <c r="R471" t="n">
+        <v>1685.28</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -32452,8 +34332,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q472" t="inlineStr"/>
-      <c r="R472" t="inlineStr"/>
+      <c r="Q472" t="n">
+        <v>1916.98</v>
+      </c>
+      <c r="R472" t="n">
+        <v>1916.98</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -32520,8 +34404,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q473" t="inlineStr"/>
-      <c r="R473" t="inlineStr"/>
+      <c r="Q473" t="n">
+        <v>3630.28</v>
+      </c>
+      <c r="R473" t="n">
+        <v>3630.28</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -32588,8 +34476,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q474" t="inlineStr"/>
-      <c r="R474" t="inlineStr"/>
+      <c r="Q474" t="n">
+        <v>3170.16</v>
+      </c>
+      <c r="R474" t="n">
+        <v>3170.16</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -32656,8 +34548,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q475" t="inlineStr"/>
-      <c r="R475" t="inlineStr"/>
+      <c r="Q475" t="n">
+        <v>2900</v>
+      </c>
+      <c r="R475" t="n">
+        <v>2900</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -32724,8 +34620,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q476" t="inlineStr"/>
-      <c r="R476" t="inlineStr"/>
+      <c r="Q476" t="n">
+        <v>4500</v>
+      </c>
+      <c r="R476" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -32792,8 +34692,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q477" t="inlineStr"/>
-      <c r="R477" t="inlineStr"/>
+      <c r="Q477" t="n">
+        <v>1207.68</v>
+      </c>
+      <c r="R477" t="n">
+        <v>1207.68</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -32860,8 +34764,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q478" t="inlineStr"/>
-      <c r="R478" t="inlineStr"/>
+      <c r="Q478" t="n">
+        <v>4000</v>
+      </c>
+      <c r="R478" t="n">
+        <v>4000</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -32928,8 +34836,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q479" t="inlineStr"/>
-      <c r="R479" t="inlineStr"/>
+      <c r="Q479" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R479" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -32996,8 +34908,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q480" t="inlineStr"/>
-      <c r="R480" t="inlineStr"/>
+      <c r="Q480" t="n">
+        <v>4700</v>
+      </c>
+      <c r="R480" t="n">
+        <v>4700</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -33064,8 +34980,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q481" t="inlineStr"/>
-      <c r="R481" t="inlineStr"/>
+      <c r="Q481" t="n">
+        <v>4100</v>
+      </c>
+      <c r="R481" t="n">
+        <v>4100</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -33132,8 +35052,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q482" t="inlineStr"/>
-      <c r="R482" t="inlineStr"/>
+      <c r="Q482" t="n">
+        <v>2100</v>
+      </c>
+      <c r="R482" t="n">
+        <v>2100</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -33200,8 +35124,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q483" t="inlineStr"/>
-      <c r="R483" t="inlineStr"/>
+      <c r="Q483" t="n">
+        <v>2482.25</v>
+      </c>
+      <c r="R483" t="n">
+        <v>2482.25</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -33268,8 +35196,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q484" t="inlineStr"/>
-      <c r="R484" t="inlineStr"/>
+      <c r="Q484" t="n">
+        <v>2184.38</v>
+      </c>
+      <c r="R484" t="n">
+        <v>2184.38</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -33336,8 +35268,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q485" t="inlineStr"/>
-      <c r="R485" t="inlineStr"/>
+      <c r="Q485" t="n">
+        <v>2800</v>
+      </c>
+      <c r="R485" t="n">
+        <v>2800</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -33404,8 +35340,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q486" t="inlineStr"/>
-      <c r="R486" t="inlineStr"/>
+      <c r="Q486" t="n">
+        <v>3900</v>
+      </c>
+      <c r="R486" t="n">
+        <v>3900</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -33472,8 +35412,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q487" t="inlineStr"/>
-      <c r="R487" t="inlineStr"/>
+      <c r="Q487" t="n">
+        <v>2490.5</v>
+      </c>
+      <c r="R487" t="n">
+        <v>2490.5</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -33540,8 +35484,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q488" t="inlineStr"/>
-      <c r="R488" t="inlineStr"/>
+      <c r="Q488" t="n">
+        <v>1254.83</v>
+      </c>
+      <c r="R488" t="n">
+        <v>1254.83</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -33608,8 +35556,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q489" t="inlineStr"/>
-      <c r="R489" t="inlineStr"/>
+      <c r="Q489" t="n">
+        <v>1972</v>
+      </c>
+      <c r="R489" t="n">
+        <v>1972</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -33676,8 +35628,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q490" t="inlineStr"/>
-      <c r="R490" t="inlineStr"/>
+      <c r="Q490" t="n">
+        <v>2082.88</v>
+      </c>
+      <c r="R490" t="n">
+        <v>2082.88</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -33744,8 +35700,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q491" t="inlineStr"/>
-      <c r="R491" t="inlineStr"/>
+      <c r="Q491" t="n">
+        <v>1569.75</v>
+      </c>
+      <c r="R491" t="n">
+        <v>1569.75</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -33812,8 +35772,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q492" t="inlineStr"/>
-      <c r="R492" t="inlineStr"/>
+      <c r="Q492" t="n">
+        <v>2694.15</v>
+      </c>
+      <c r="R492" t="n">
+        <v>2694.15</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -33880,8 +35844,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q493" t="inlineStr"/>
-      <c r="R493" t="inlineStr"/>
+      <c r="Q493" t="n">
+        <v>2634.28</v>
+      </c>
+      <c r="R493" t="n">
+        <v>2634.28</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -33948,8 +35916,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q494" t="inlineStr"/>
-      <c r="R494" t="inlineStr"/>
+      <c r="Q494" t="n">
+        <v>2217.15</v>
+      </c>
+      <c r="R494" t="n">
+        <v>2217.15</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -34016,8 +35988,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q495" t="inlineStr"/>
-      <c r="R495" t="inlineStr"/>
+      <c r="Q495" t="n">
+        <v>3800</v>
+      </c>
+      <c r="R495" t="n">
+        <v>3800</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -34082,8 +36058,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q496" t="inlineStr"/>
-      <c r="R496" t="inlineStr"/>
+      <c r="Q496" t="n">
+        <v>1916.64</v>
+      </c>
+      <c r="R496" t="n">
+        <v>1916.64</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -34150,8 +36130,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q497" t="inlineStr"/>
-      <c r="R497" t="inlineStr"/>
+      <c r="Q497" t="n">
+        <v>3900</v>
+      </c>
+      <c r="R497" t="n">
+        <v>3900</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -34218,8 +36202,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q498" t="inlineStr"/>
-      <c r="R498" t="inlineStr"/>
+      <c r="Q498" t="n">
+        <v>3100</v>
+      </c>
+      <c r="R498" t="n">
+        <v>3100</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -34286,8 +36274,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q499" t="inlineStr"/>
-      <c r="R499" t="inlineStr"/>
+      <c r="Q499" t="n">
+        <v>2900</v>
+      </c>
+      <c r="R499" t="n">
+        <v>2900</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -34352,8 +36344,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q500" t="inlineStr"/>
-      <c r="R500" t="inlineStr"/>
+      <c r="Q500" t="n">
+        <v>3200</v>
+      </c>
+      <c r="R500" t="n">
+        <v>3200</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -34420,8 +36416,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q501" t="inlineStr"/>
-      <c r="R501" t="inlineStr"/>
+      <c r="Q501" t="n">
+        <v>2000</v>
+      </c>
+      <c r="R501" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -34488,8 +36488,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q502" t="inlineStr"/>
-      <c r="R502" t="inlineStr"/>
+      <c r="Q502" t="n">
+        <v>4800</v>
+      </c>
+      <c r="R502" t="n">
+        <v>4800</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -34556,8 +36560,12 @@
           <t>Large</t>
         </is>
       </c>
-      <c r="Q503" t="inlineStr"/>
-      <c r="R503" t="inlineStr"/>
+      <c r="Q503" t="n">
+        <v>4500</v>
+      </c>
+      <c r="R503" t="n">
+        <v>4500</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -34624,8 +36632,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q504" t="inlineStr"/>
-      <c r="R504" t="inlineStr"/>
+      <c r="Q504" t="n">
+        <v>4900</v>
+      </c>
+      <c r="R504" t="n">
+        <v>4900</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -34692,8 +36704,12 @@
           <t>Small</t>
         </is>
       </c>
-      <c r="Q505" t="inlineStr"/>
-      <c r="R505" t="inlineStr"/>
+      <c r="Q505" t="n">
+        <v>1327.79</v>
+      </c>
+      <c r="R505" t="n">
+        <v>1327.79</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -34760,8 +36776,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q506" t="inlineStr"/>
-      <c r="R506" t="inlineStr"/>
+      <c r="Q506" t="n">
+        <v>3072.96</v>
+      </c>
+      <c r="R506" t="n">
+        <v>3072.96</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -34828,8 +36848,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q507" t="inlineStr"/>
-      <c r="R507" t="inlineStr"/>
+      <c r="Q507" t="n">
+        <v>3431.7</v>
+      </c>
+      <c r="R507" t="n">
+        <v>3431.7</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -34896,8 +36920,12 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="Q508" t="inlineStr"/>
-      <c r="R508" t="inlineStr"/>
+      <c r="Q508" t="n">
+        <v>3383</v>
+      </c>
+      <c r="R508" t="n">
+        <v>3383</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
